--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F041E-131A-554D-A7E9-0E01C0A551D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CCA63C-557B-7144-B08C-52C30693A2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="25840" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="-27060" windowWidth="38820" windowHeight="24380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="208">
   <si>
     <t>Title</t>
   </si>
@@ -943,83 +943,32 @@
     <t>文青非營利幼兒園 興建進度</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">隨著公幼、非營利幼兒園報名抽籤的日期接近，很多家長都非常關心正在興建中的兩座非營利幼兒園，紛紛來電服務處詢問，所以我也趕緊來現場確認施工進度～先講結論&lt;br&gt;&lt;br&gt;1、今年度招生簡章上會有這兩間。&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">2、新開設的幼兒園開學日期可能會晚一點，預計落在今年10月。&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">3、兩間都有2個兩歲專班、3個3-5歲混齡班。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">今日我和幼教科余科長、大湖國小張校長、文青國中小張校長現場確認施工狀況都如預期，除了教室、廚房、行政空間之外，也都有保留大肢體活動區讓孩子可以蹦蹦跳跳～小寶貝的廁所則是規劃在兩間教室的中間，想上廁所不用跑很遠，也兼顧安全性！&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">另外，雅倫不斷爭取的兩歲專班，也會從去年的6班增加到今年的13個班，包含迴龍附幼、大埔附幼、幸福附幼、龜山幼兒園苓林分班、光峰非營利、文德非營利及大湖、文青非營利幼兒園等～&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-陳雅倫-06.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
+    <t>免費諮詢服務</t>
+  </si>
+  <si>
+    <t>爭取區域公車</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">由2023/02/13日起 以605B 持續營運 並由原每日10班次增加為12班次。 &lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
         <rFont val="標楷體"/>
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>免費諮詢服務</t>
-  </si>
-  <si>
-    <t>爭取區域公車</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1027,9 +976,13 @@
         <rFont val="標楷體"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">由2023/02/13日起 以605B 持續營運 並由原每日10班次增加為12班次。 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
+      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-陳雅倫-03.jpeg" class="img-fluid" style="width:600px"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>文藝街紅線標示</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1037,6 +990,26 @@
         <rFont val="標楷體"/>
         <charset val="136"/>
       </rPr>
+      <t xml:space="preserve">孫韻璇議員發文: 里長反應文青里二期內道路開闢工程變三道路拓寬後，文藝街街口也變寬了，因道路拓寬後許多車輛就停在上面，容易導致救災車輛無法順利通行。韻璇今日與文青里里長謝嘉仁、華亞別莊管委會、區公所、營造公司、技術顧問公司共同會勘，決議在兩側都將紅線畫上，才不會讓當初拓勘道路美意打折。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -1047,13 +1020,73 @@
         <rFont val="標楷體"/>
         <charset val="136"/>
       </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-陳雅倫-03.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>文藝街紅線標示</t>
-  </si>
-  <si>
+      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-孫韻璇-01.jpeg" class="img-fluid" style="width:600px"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>2023/2月免費法律諮詢</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">李宗豪議員提供的法律諮詢服務
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">&lt;ul&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">   &lt;li&gt;時間：每週三下午2:00-5:00、  每週四晚間6:00-8:00&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">   &lt;li&gt;地址：龜山區山鶯路1巷15之1號&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">   &lt;li&gt;電話：(03)3207676&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/ul&gt;
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1061,8 +1094,7 @@
         <rFont val="標楷體"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">孫韻璇議員發文: 里長反應文青里二期內道路開闢工程變三道路拓寬後，文藝街街口也變寬了，因道路拓寬後許多車輛就停在上面，容易導致救災車輛無法順利通行。韻璇今日與文青里里長謝嘉仁、華亞別莊管委會、區公所、營造公司、技術顧問公司共同會勘，決議在兩側都將紅線畫上，才不會讓當初拓勘道路美意打折。
-</t>
+      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-李宗豪-02.jpeg" class="img-fluid" style="width:600px"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1071,405 +1103,169 @@
         <rFont val="標楷體"/>
         <charset val="136"/>
       </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">陳雅倫議員分文: 很多問題在去年會議中，我就已經提出來了，包含善捷段269地號不要分割成兩塊地，而是以完整基地為規劃，開挖地下停車場並設計一個活動中心暨綜合社福館的大樓，社福館內可融入日照、公幼、公托、親子館、圖書館等等多功能使用，且基地不分割剩餘的法空可以保留更完整的空間來做綠美化兼具公園遊戲場功能。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
       <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
 </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">而善捷段269地號是中央內政部營建署開發財務平衡下要標售的配餘地，原本分區是住宅用地，我們透過鄭運鵬立委跟中央爭取許久才變成機關用地，方可無償撥用給地方政府使用，面積約1000坪左右，按照此次開會的設計方案，將基地一分為二。 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">&lt;ol&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">   &lt;li&gt;500坪基地中規劃使用100坪作為活動中心，樓板面積為200坪。&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">   &lt;li&gt;另外500坪為文青派出所預定地。&lt;/li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/ol&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">我認為基地一分為二這樣規劃並沒有讓這塊好不容易爭取回來的「機關用地」發揮最有效的利用，相當可惜，因為A7周邊留下能夠建設的國有地有限。 &lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">這次說明會我再度重申這些想法，也聽到許多市民朋友提到多元意見、參與公共政策討論都是好事，也盼望市府單位重視地方民意的多元需求，讓土地能最有效的使用！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
         <charset val="136"/>
       </rPr>
+      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-陳雅倫-01.jpeg" class="img-fluid" style="width:600px"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-孫韻璇-01.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>2023/2月免費法律諮詢</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">李宗豪議員提供的法律諮詢服務
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;ul&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;時間：每週三下午2:00-5:00、  每週四晚間6:00-8:00&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;地址：龜山區山鶯路1巷15之1號&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;電話：(03)3207676&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/ul&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-李宗豪-02.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">陳雅倫議員分文: 很多問題在去年會議中，我就已經提出來了，包含善捷段269地號不要分割成兩塊地，而是以完整基地為規劃，開挖地下停車場並設計一個活動中心暨綜合社福館的大樓，社福館內可融入日照、公幼、公托、親子館、圖書館等等多功能使用，且基地不分割剩餘的法空可以保留更完整的空間來做綠美化兼具公園遊戲場功能。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">而善捷段269地號是中央內政部營建署開發財務平衡下要標售的配餘地，原本分區是住宅用地，我們透過鄭運鵬立委跟中央爭取許久才變成機關用地，方可無償撥用給地方政府使用，面積約1000坪左右，按照此次開會的設計方案，將基地一分為二。 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;ol&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;500坪基地中規劃使用100坪作為活動中心，樓板面積為200坪。&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;另外500坪為文青派出所預定地。&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/ol&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">我認為基地一分為二這樣規劃並沒有讓這塊好不容易爭取回來的「機關用地」發揮最有效的利用，相當可惜，因為A7周邊留下能夠建設的國有地有限。 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">這次說明會我再度重申這些想法，也聽到許多市民朋友提到多元意見、參與公共政策討論都是好事，也盼望市府單位重視地方民意的多元需求，讓土地能最有效的使用！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-陳雅倫-01.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>https://www.facebook.com/groups/a7xinlinkou/permalink/480240174081236/</t>
   </si>
   <si>
-    <t>距離農曆春節不到一個月，不少剛上任的縣市長宣布好康政策，讓民眾過好年。桃園市長張善政今（29日）宣布，為肯定桃園市所有長輩終其一生為家庭、社會奉獻，市府積極照顧老年市民，老人三節禮金從原本的2000元調高至2500元，同時刪除排富條款規定。三節禮金合計7500元，再加上重陽金2500元，桃園市長者一年可拿1萬元。 
-&lt;br&gt;&lt;br&gt;
-張善政今宣布，明年起三節禮金發放金額。桃園市府社會局表示，明年春節起，市民只要符合年滿65歲（原住民年滿55歲）、設籍桃園市達6個月以上且有居住事實，即可享有每年三節（春節、中秋節、端午節）各2500元禮金，再加上重陽禮金2500元，並刪除排富條款的規定，讓原來申報綜合所得稅率在20％以上的長者，都能享有禮金。 
-&lt;br&gt;&lt;br&gt;
-社會局指出，桃園雖是六都最年輕的城市，但也面臨人口老化趨勢，符合春節禮金之長者預估36萬2621人，占全市人口約14%。三節禮金的財源明年預算編列約19.3億，初估加碼500元且不排富的話，預計會增加7.8億，不足額部分，市府會以墊付的方式支應，而重陽節禮金的財源，還會另行規畫。</t>
-  </si>
-  <si>
-    <t>https://tw.news.yahoo.com/%E5%BC%B5%E5%96%84%E6%94%BF%E7%99%BC%E9%8C%A2%E4%BA%86-%E6%A1%83%E5%9C%92-%E9%80%99%E4%BA%9B%E4%BA%BA-%E5%B9%B4%E5%8F%AF%E9%A0%98-%E8%90%AC%E5%85%83-081400503.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桃園市長張善政選前曾承諾「教育善政─顧好下一代」，提出「不分公、私立國中小，六都唯一全面免費營養午餐」、「全台灣首創！國民教育向下延伸一年，公立幼兒園，大班全部免費」、「非公立幼兒園比照公立補助的小桃津貼」等，張善政就職後接受媒體聯訪時，針對上任後第一個任務想要先做哪些部分時表示，其實有好多件事要趕快啟動，包括營養午餐、5歲童以下學雜費全免及老人三節禮金調高等部分應該都沒問題。
-&lt;br&gt;&lt;br&gt;
-「1280月票方案」也會盡速的啟動，跟交通部協調，因為交通部先前曾表示過，若地方政府要進行這個月票方案的話，可提出計畫書，市府會趕快把計畫書擬好提出跟交通部溝通，至於台北、新北跟基隆是不是一起來做，也會趕快去協商，所以他想做的不是只有1件事情，而是好幾件事情都會馬上啟動。 
-&lt;br&gt;&lt;br&gt;
-以上所提的那幾件事情就是希望100天裡可以啟動，譬如說過完寒假後，新學期營養午餐就可啟動免費及採用有機食材，讓民眾能立即感受，還有啟動公共工程體檢，雖然這需要花些時間，但在過程中會讓民眾充分了解相關進展，因此100天裡會看到市府團隊陸續的進展，讓民眾放心很多公共工程的品質的確有在改進。
-</t>
-  </si>
-  <si>
-    <t>https://news.ltn.com.tw/news/politics/breakingnews/4165135?fbclid=IwAR0i45iGDdcgGmlUo7_cQxfIKvNfZRWW5MxXCVvWZbwIS4x_XTTTmRSh8z4</t>
-  </si>
-  <si>
     <t>A7重大建設追蹤</t>
   </si>
   <si>
     <t>A.3加速都市整體發展</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">李宗豪發文: 今日與工務局汪局長一同去視察龜山重大建設，宗豪視察了三個工程，在這邊向各位鄉親朋友報告：&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">ㄧ、文青國中小：&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">幼兒園預計今年六月完工，國中小部分預計十月基礎建設完工，包含內裝預計十二月完工，文青幼兒園和國中小都能如期招生，宗豪也會繼續監督，用心保障小朋友的受教權。 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">二、牛角坡路延伸至文化一路（變二）：&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">已於111年11月開工，採用了更加安全的工法來施作，對於用路人的安全性更有保障，路旁也有規劃人行道，打通後可串連文化一路、牛角坡路及樂善一路，可緩解交通壅塞問題，預計113年底完工。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">三、文義街延伸開闢案（變三）：&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">變三進度最為領先，最快能在過年前通車。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">宗豪也將持續監督各項重大建設的工期，確保龜山居民們的權益不會受損，也持續關心工程安全問題，讓每一位勞工朋友的權益能得到保障。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-李宗豪-01.jpeg" class="img-fluid" style="width:600px"&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>公寓大廈管理2.0運動</t>
@@ -2213,115 +2009,6 @@
     <t>https://www.facebook.com/groups/a7xinlinkou/permalink/455071939931393/</t>
   </si>
   <si>
-    <t>2022龜山大坪頂藝術季</t>
-  </si>
-  <si>
-    <t>市府文化局藝文活動</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;ul  style="list-style:none;"&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;活動名稱: 2022龜山大坪頂藝術季 &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;時間: 2022/12/3(六)19:00-21:00 &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;地點: 龜山區樂善寺(桃園市龜山區樂善街206巷72號) &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt; &lt;a href="</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>https://travel.tycg.gov.tw/zh-tw/event/news/4258</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">"&gt;活動網站&lt;/a&gt; &lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/ul&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-大坪頂藝術節.jpeg" class="img-fluid" style="width:600px"&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;br&gt;&lt;br&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>https://travel.tycg.gov.tw/zh-tw/event/news/4258</t>
-  </si>
-  <si>
     <t>陳雅倫</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2335,10 +2022,6 @@
   </si>
   <si>
     <t>牛煦庭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>張善政</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2560,14 +2243,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>年長者三節禮金調高</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>全面免費營養午餐, 1280月票方案</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">重大建設進度視察 </t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2600,15 +2275,1050 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>年長者三節禮金從2000元調高至2500元一年可領一萬元 且不排富</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市府優先啟動營養午餐免費、1280月票方案</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.4強化區域交通規劃</t>
+    <t>成功爭取 #行動圖書車</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">隨著公幼、非營利幼兒園報名抽籤的日期接近，很多家長都非常關心正在興建中的兩座非營利幼兒園，紛紛來電服務處詢問，所以我也趕緊來現場確認施工進度～先講結論&lt;br&gt;&lt;br&gt;1、今年度招生簡章上會有這兩間。&lt;br&gt;
+2、新開設的幼兒園開學日期可能會晚一點，預計落在今年10月。&lt;br&gt;
+3、兩間都有2個兩歲專班、3個3-5歲混齡班。&lt;br&gt;&lt;br&gt;
+今日我和幼教科余科長、大湖國小張校長、文青國中小張校長現場確認施工狀況都如預期，除了教室、廚房、行政空間之外，也都有保留大肢體活動區讓孩子可以蹦蹦跳跳～小寶貝的廁所則是規劃在兩間教室的中間，想上廁所不用跑很遠，也兼顧安全性！&lt;br&gt;&lt;br&gt;
+另外，雅倫不斷爭取的兩歲專班，也會從去年的6班增加到今年的13個班，包含迴龍附幼、大埔附幼、幸福附幼、龜山幼兒園苓林分班、光峰非營利、文德非營利及大湖、文青非營利幼兒園等～&lt;br&gt;&lt;br&gt;
+&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-陳雅倫-06.jpeg" class="img-fluid" style="width:600px"&gt;
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">李宗豪發文: 今日與工務局汪局長一同去視察龜山重大建設，宗豪視察了三個工程，在這邊向各位鄉親朋友報告：&lt;br&gt;
+ㄧ、文青國中小：&lt;br&gt;
+幼兒園預計今年六月完工，國中小部分預計十月基礎建設完工，包含內裝預計十二月完工，文青幼兒園和國中小都能如期招生，宗豪也會繼續監督，用心保障小朋友的受教權。 &lt;br&gt;&lt;br&gt;
+二、牛角坡路延伸至文化一路（變二）：&lt;br&gt;
+已於111年11月開工，採用了更加安全的工法來施作，對於用路人的安全性更有保障，路旁也有規劃人行道，打通後可串連文化一路、牛角坡路及樂善一路，可緩解交通壅塞問題，預計113年底完工。&lt;br&gt;&lt;br&gt;
+三、文義街延伸開闢案（變三）：&lt;br&gt;
+變三進度最為領先，最快能在過年前通車。&lt;br&gt;&lt;br&gt;
+宗豪也將持續監督各項重大建設的工期，確保龜山居民們的權益不會受損，也持續關心工程安全問題，讓每一位勞工朋友的權益能得到保障。&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-李宗豪-01.jpeg" class="img-fluid" style="width:600px"&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/605276541577598/</t>
+  </si>
+  <si>
+    <t>N026</t>
+  </si>
+  <si>
+    <t>N027</t>
+  </si>
+  <si>
+    <t>N028</t>
+  </si>
+  <si>
+    <t>N029</t>
+  </si>
+  <si>
+    <t>N030</t>
+  </si>
+  <si>
+    <t>N031</t>
+  </si>
+  <si>
+    <t>N032</t>
+  </si>
+  <si>
+    <t>N033</t>
+  </si>
+  <si>
+    <t>N034</t>
+  </si>
+  <si>
+    <t>N035</t>
+  </si>
+  <si>
+    <t>N036</t>
+  </si>
+  <si>
+    <t>N037</t>
+  </si>
+  <si>
+    <t>N038</t>
+  </si>
+  <si>
+    <t>N039</t>
+  </si>
+  <si>
+    <r>
+      <t>前陣子，民眾陳情 #文青里 原有的行動圖書車因為設置地點的關係無法繼續服務，但這裡距離圖書館又非常遠，借還書不方便</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">😢
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF050505"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>因此雅倫與水資源廠長及圖書館人員共同來討論，爭取行動圖書車設置在 #文青水園前廣場，預計11月開始服務！屆時歡迎熱愛閱讀的大小朋友一起來使用喔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-022.jpeg" alt="行動圖書車" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>文青里行動圖書車設置在 #文青水園前廣場，預計11月開始服務！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>爭取文青國小家長接送區</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> #家長接送區，預計十月份前完工</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近開學，家長陸續陳情文青國中小附近沒有家長接送區，送小朋友來學校非常不方便且不安全，因此雅倫與張綾峰校長、黃錦芳里長、交通局共同討論規劃避車彎為 #家長接送區，預計十月份前完工，讓孩子上下課的環境可以更安全
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-023.jpeg" alt="文青國小家長接送區" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/594930289278890/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/585569540214965/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.5強化區域交通規劃</t>
+  </si>
+  <si>
+    <t>增設機車停車位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> A7站周邊增加了50個機車格</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>七月開始1200月票開通、大坪頂循環線開始試辦、機捷增班等，皆是希望讓大家多多搭乘大眾運輸。
+但是常常到了A7站的時候卻沒有機車位可以停，為此雅倫在議會建議、現場會勘爭取，在 #A7站周邊增加了50個機車格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">，希望可以讓通勤族更便利。
+1200上路，大眾運輸及配套措施都應該要跟著升級，然而現況公車班次極不穩定、司機員數量嚴重不足等，我會繼續爭取成立公共運輸處，提升桃園整體大眾運輸的環境！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-024.jpeg" alt="A7機車停車位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>七月開始1200月票開通、大坪頂循環線開始試辦、機捷增班等，皆是希望讓大家多多搭乘大眾運輸。
+但是常常到了A7站的時候卻沒有機車位可以停，為此雅倫在議會建議、現場會勘爭取，在 #A7站周邊增加了50個機車格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">，希望可以讓通勤族更便利。
+1200上路，大眾運輸及配套措施都應該要跟著升級，然而現況公車班次極不穩定、司機員數量嚴重不足等，我會繼續爭取成立公共運輸處，提升桃園整體大眾運輸的環境！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-025.jpeg" alt="A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>機車停車位" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/584520543653198/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/576271144478138/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.6強化區域交通規劃</t>
+  </si>
+  <si>
+    <t>公車《606》7/31要上路囉！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大坪頂循環線606</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>感謝機捷公司採納雅倫建議🙏
+機捷增班 縮短班距！
+預計7/3再增一班加班車8/1再增三班加班車
+我會繼續爭取機捷增班以及隔音罩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>爭取機捷增班</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.7強化區域交通規劃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/3日增加一班加班車, 8/1日再增三班加班車</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/560255859413000/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/555336849904901/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>試辦《公滯一》改為乾式滯洪池公園</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化一路跟樂善三路交叉口的公滯一
+鄰近 #甲子園 #華悅城 #根津苑 #水悅青青 社區</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/544863374285582/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>《大坪頂循環公車》6/8定線會勘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>預計七月份可以正式上路</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/538148898290363/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.8強化區域交通規劃</t>
+  </si>
+  <si>
+    <t>A7變一道路恐延宕生變數</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7變一道路要改地下道方案</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>好消息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🎉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【大坪頂循環線】終於要在6/8辦理定線會勘！預計七月份可以正式上路！
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-029.jpeg" alt="606公車" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">爭取ing～『公滯一』濕轉乾公園設計第一次說明會！
+希望水務局將 #排水安全 #環境整潔 #遊具設施  #休憩空間 #停車規劃 一併考量，由於滯洪池主管的機關水務局是水利專業，而公園設計的專業在工務局，我希望市府儘速跨局處討論此案，讓公滯一早日成為A7的大公園～
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-028.jpeg" alt="公滯ㄧ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>從上一屆開始討論催生，直到今日終於看到這一條新路線即將開始試跑～
+這次606是順時針單方向循環路線，起迄點為機捷體育大學站，平假日皆有行駛，每日32班次，尖峰班距20分鐘、離峰班距30分鐘。
+另外，同時間202公車會調整路線進入文德、樂學、樂學三路等新舊社區來服務。過去爭取的605B不會變，只是名稱改為607～
+以上公車都適用桃園市民卡買一送一優惠以及1200月票，希望大家多多利用，讓路線永續經營下去！
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-026.jpeg" alt="606公車" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/538666711571915/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.9強化區域交通規劃</t>
+  </si>
+  <si>
+    <t>A7 重劃區交通壅塞問題，要求市府積極處理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政交通總質詢</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;p&gt;這次總質詢市長及工務局長告訴我A7變一道路要改地下道方案。
+變一道路是文學路打通到文化一路的工程，是A7重要聯外道路，目前文青里唯一的聯外道路只能仰賴文青路，以消防安全的角度來看變一道路的開闢刻不容緩。&lt;/p&gt;
+&lt;p&gt;而過去我們也爭取內政部營建署補助10.3億給變一、二、三，目前「變三」已完工、「變二」施工中，最後一條「變一」工程，目前也已在上網招標中，不過因為疫情期間原物料上漲，壓縮到變一工程的預算，以現行高架規劃的話還差1.5億左右的缺口。&lt;/p&gt;
+&lt;p&gt;總質詢上，我原本是希望市長使用市府預算或是超徵稅額幫龜山的變一道路補足1.5億。
+工務局長回覆我不需再編1.5億，因為有可能會改為地下道的設計，會後我也再向市長求證，市長確實有意要往地下道的方向修正，但確切方案尚未正式公布。&lt;/p&gt;
+【我有幾點疑問】：
+&lt;ol&gt;
+&lt;li&gt;這邊人口稠密，變一道路刻不容緩，重新規劃設計或變更設計都需要時間，是否文學路開通又要延宕個幾年？&lt;/li&gt;
+&lt;li&gt;市長雖然表示目的是要更美觀的保存文資，但地下工程需開挖進行，文資結構是否夠穩固不會倒塌？&lt;/li&gt;
+&lt;li&gt;當初合宜住宅開發時，基地內挖出許多垃圾，高機率的推測，「變一」下方可能也有垃圾，屆時地下化開挖垃圾必需清運、還有垃圾過多地質是否穩定？&lt;/li&gt;
+&lt;li&gt;一般來講，地下工程的經費會比較高，若高架改地下，經費是否足夠？若地下化清出許多垃圾，垃圾清理運送費用也會大幅增加，屆時是否有可能又要追加預算？&lt;/li&gt;
+&lt;li&gt;最後，若市府真心要改地下道，為何現在「變一」的標案還放在招標網上？&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;請市府盡快拿出地下化版本的可行性評估，並告知民眾，改地下化需要再等多少時間？還有文資保存公園化、垃圾問題、經費問題是否真的能克服？！
+還希望張善政市長能儘快給出答案！變一道路刻不容緩！
+&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-030.jpeg" alt="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">變一道路" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">重劃區交通壅塞問題，要求市府積極處理！
+&lt;p&gt;過去近一個多月以來，我針對龜山各區的狀況質詢多位局處首長，其中「交通問題」是首要任務，今天針對幾個重大交通工程，要求市長重視處理！&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">變一道路改為地下化&lt;br&gt;
+&lt;p&gt;變一(文學路延伸至文化一路T字路口)道路工程因原物料上漲，造成經費不足，工程流標多次，工務局研議將改為地下化，我提出幾點要求：&lt;p&gt;
+&lt;ol&gt;
+&lt;li&gt; 改為地下化後，請市長確保不會再因為工程經費不足而延宕。&lt;/li&gt;
+&lt;li&gt;要求務必今年底前完成地下化的規劃設計並辦理招標。&lt;/li&gt;
+&lt;li&gt;地上文資設施的部分，請文化局開始著手規劃文資公園。&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;變一道路肩負A7 重劃區的交通重責，因此若確定要改，那規劃設計要加快，不能再拖延，否則幾年後持續地增加人口，只會面臨交通越來越壅塞。&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">青山路打通連接振興路&lt;br&gt;
+&lt;p&gt;青山路上下班尖峰時段一小時就有近8,000~10,000的車流量，我收到許多陳情，這邊塞車問題甚至已經嚴重到回堵社區車道口，因此我向交通局及工務局建議「青山路打通的可行性」，因為109年評估報告說因水土保持及坡度問題無法做拓寬或打通，我多次要求「重新評估新工法」，強調一定有可以解決的方式，感謝局長有認真看待我的建議，目前工務局與交通局已有初步研議出新方案，「青山路打通振興路或是文化一路」這是可行的，確定打通方案後，我會再跟大家報告！&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>壽山路全線拓寬&lt;br&gt;
+&lt;p&gt;壽山路是桃園到新北的重要聯外道路，目前文桃路(桃園段)已拓寬至 40米，而壽山路(新北段)卻仍只有 10-15米，雖然壽山路已準備將局部瓶頸拓寬，但我認為還是應該「全線拓寬」才有實質幫助，龜山人不是次等公民，希望張善政市長可以勸勸侯友宜市長在考慮總統大位前，應該認真看待北桃之間的建設問題！
+A7 重劃區過去三年人口爆炸性成長，目前周遭也還有其他建案正在蓋，預計將來人口還會持續增加，依現在的交通狀況，未來勢必無法負荷爆增的車流量，所以我在總質詢特別提出來說明，讓張善政市長好好了解目前遇到的狀況，希望市府能夠重視，加速完成建設，不要怠慢再生變數！&lt;/p&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-031.jpeg" alt="交通總質詢" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/535136718591581/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.10強化區域交通規劃</t>
+  </si>
+  <si>
+    <t>樂善國小」「文德非營利幼兒園」通學步道改善</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>今日與樂善黃里長及長庚林里長及議員同事們一起來關心樂善國小及文德非營利幼兒園學童通行步道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">🚶‍♂️
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我要求養工處將樂善國小近樂學路這一側的擋土牆退縮，把國小正門到側門之間的人行道銜接起來，接下來繼續走到文德非營利幼兒園及大埔派出所，這兩邊目前都沒有通學步道，小朋友必須走在大馬路上，我也要求將這兩段學童通行步道補上，讓小朋友上下課可以更安全～
+感謝市府、公所、學校、里長、家長、議員們陪我繞校園走了一大圈～養工處會進行整體規劃，我也會繼續追蹤
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-032.jpeg" alt="學童步道" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>養工處會進行整體規劃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/525875739517679/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滯洪池改公園</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水務局追蹤A7滯洪池改善進度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>【A7滯洪池改公園】&lt;br&gt;
+&lt;p&gt;#公滯一 濕轉乾做公園，目前已完成規劃設計發包，今年會爭取預算在113年施工。
+公滯一濕式轉乾式做公園獲得很大的迴響，原因之一就是因為A7一帶只有滯洪池、沒有公園綠地，所以對公園的需求非常迫切，所以我也跟局長要求。&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;第一、希望未來公滯轉公園可以再挑更多座來試辦。
+因為按照公滯一的經驗，一座滯洪池公園的規劃需要4-5年的時間才會成形，有點緩不濟急，所以我希望今年就展開會勘評估，局長是樂觀支持。&lt;/li&gt;
+&lt;li&gt;第二、公園的設計規劃。
+水務局的專業是濕式轉乾式，但是公園有公園的專業，希望水務局可以找工務局或特公盟等團體一起討論規劃，不要讓7、8千萬的滯洪池公園變成陽春公園，讓滯洪池公園變得真正好玩。&lt;/li&gt;
+&lt;li&gt;第三、迴音問題。
+因為滯洪池天生地勢的關係，再加上公滯一緊鄰高樓大廈，容易產生迴音，我請水務局在規劃設計上務必多注意。&lt;/li&gt;
+&lt;/ul&gt;
+【滯洪池管理問題】&lt;br&gt;
+&lt;p&gt;目前內政部土地重劃工程處，預計在112年底會移交8座滯洪池，8座滯洪池編號分別為公滯3、7、10、11、12、15、16、19。但是在還沒有移交前，環境髒亂、蚊蟲孳生，我也請水務局除了做好自己的滯洪池清理維護之外，也函文土重處請他們維持好滯洪池的環境。&lt;/p&gt;
+【污水下水道】&lt;br&gt;
+&lt;p&gt;除了在議會關心之外，我也私下跟水務局討論。
+目前林口都市計畫內的污水下水道預計在這個月底要招開大湖、公西、大崗的說明會，可是同一個都市計畫內、同一個生活圈、不同里別，還有部分住戶尚未接管，我也要求納入今年施作接管的範圍，同一個生活圈、一起施作。
+接下來除了龜山靠近桃園一帶的污水下水道正在推進中，大迴龍地區的污水下水道接管新莊系統正在規劃，不過受到新北市重劃區接管速度的影響，可能要等到115年才有機會開始接管，我也希望兩市積極溝通、加快速度。&lt;/p&gt;
+&lt;p&gt;再來，大南崁地區，我們龜山有三個里，南上南美大坑的污水下水道系統也尚未建置完善，我要求我們這三個里也必須納入規劃。&lt;/p&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-033.jpeg" alt="滯洪池" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/524740826297837/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.2加速宜居城市建設</t>
+  </si>
+  <si>
+    <t>議員關心A7國小學區劃分與名額總量管制問題</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育局質詢</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">爭取機場捷運晨間加班車 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>將於4/17增開一班</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/523769026395017/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/522263813212205/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜山區公立及非營利幼兒園第一階段招生名額</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年雅倫特別爭取比以往更多的 #兩歲專班</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">今天在教育局針對大家很關心的幾所幼兒園與小學狀況與局長討論，以下重點說明
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅ #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">龜山幼兒園門口動線改善
+龜山幼兒園我在今年1月份收到陳情後，1/6立即請主任前往瞭解狀況，隨後也親自帶著教育局長前往視察，這邊因為單行道與入口斜坡反方向，易造成交通問題，所以會勘決議拆除斜坡旁欄杆，整體路線則是請教育局要通盤檢討並重新規劃，我今天也請局長針對此案務必大力支持，保障小小孩通學安全。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅ #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">大坪頂國小學區劃分檢討
+服務處收到許多家長反應，文青國小距離自家走路只需五分鐘，卻因學區劃分問題，孩子要到路程 20 分鐘才會到的樂善國小就讀。我過去就曾向教育局反應學區劃分需重新檢討，雖然最後定案仍維持，但我仍不放棄，今天再次向局長要求，學區劃分應以最短通學距離為主要考量，不要讓家長奔波接送、捨近求遠！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅ #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">學校總量管制問題
+A7 地區近年人口成長快速，規劃增設文青中小學就是為了因應學童增加的問題，然而現在文青國小卻也採「總量管制」（附近另一所樂善國小也是總量管制），顯然當初人口預估及校舍量體的規劃明顯出現問題，我要求局長務必重視，別讓家長擔心孩子未來沒有學校可以唸，孩子的受教權應優先受到保障。
+近日剛公布國小入學名單，文青國小招收未滿，樂善國小額滿剩下排候補，因兩間學校都實施總量管制，不得互相轉介，因此候補學童只能選擇比較遠的大崗、大埔、文欣、長庚國小就讀，今日質詢我也要求教育局長專案評估「今年是否可以開放文青國小接受轉介」讓候補的孩子們可以轉介就近入學。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅ #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>研擬國小編列事務人員協助校園修繕
+針對目前許多國小沒有專責採購人員的問題，建議教育局編列事務人員協助，因多數學校採購人員為老師兼任，可能因為不熟悉《採購法》擔心觸法，導致校舍許多設備修繕無法順利進行，希望教育局可以謹慎考慮增編事務人員。
+最後我在會中也向教育局追蹤 #文青國中小活動中心 的工程發包狀況，我提醒局長遇到原物料上漲狀況要研擬相關配套來因應，避免工程一再延宕。而 #文青非營利幼兒園法人甄選 也要盡快在開學前完成，以免屆時影響孩童受教權。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-034.jpeg" alt="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>教育局質詢" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【時間表】平日早上
+07:22從A10山鼻站出發
+07:29 A9
+07:32 A8
+07:36 A7
+一路北上、每站都停
+08:01抵達A1台北車站&lt;/p&gt;
+&lt;p&gt;3月份雅倫在議會爭取 #機場捷運增加班次、 #縮短班距，感謝機捷先行增加A10往A1的班次，不過這對於廣大通勤族來說當然還不夠，未來1200月票即將上路，運量勢必也會再提升，我會繼續爭取增班 &lt;/p&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-035.jpeg" alt="機捷加班車" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>雅倫整理了【龜山區公立及非營利幼兒園第一階段招生名額】，今年我特別爭取比以往更多的 #兩歲專班，預祝每個孩子都可以心想事成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">❤️
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">桃園市公立及非營利  &lt;a href="https://reurl.cc/zM3kkk"&gt; 幼兒園招生網&lt;/a&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-036.jpeg" alt="增取幼兒園班" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/520521450053108/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.3加速宜居城市建設</t>
+  </si>
+  <si>
+    <t>A.4加速宜居城市建設</t>
+  </si>
+  <si>
+    <t>郵政公園要開放了嗎？</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅倫會繼續盯著！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>改善文青國中小家長接送區</t>
+  </si>
+  <si>
+    <t>學校走訪系列</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/519142216857698/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>這個是A7附近尚未開放的郵園公園，之前因為沒有機關願意備查遲遲不能開放，我覺得郵政既然已做好公園，閒置在此非常可惜！
+雅倫在經過多次跟市府討論交換意見，最後與市府、郵政、特公盟、樂善黃里長共同會勘後決議由工務局養工處備查，但遊具已經放置一段時間，需要重新送檢驗都符合規定後，再安全的開放給孩子們玩～我會繼續盯著！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-037.jpeg" alt="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>增取幼兒園班" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+昨日再度來到文青國中小跟謝里長及張校長一起關心學校進度，討論未來學生上下課家長接送區的問題，校長還提到今年開學後可能會需要的軟硬體設備，我也請校長放心，我會積極來協助跟教育局爭取
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-038.jpeg" alt="文青國小" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/511523007619619/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>青山路二段的用路安全需要加強</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>本辦接獲民眾陳情，青山路二段路邊側溝容易造成機車摔落！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;p&gt;青山路二段的用路安全需要加強</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">‼
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">本辦接獲民眾陳情，青山路二段路邊側溝容易造成機車摔落！&lt;/p&gt;
+&lt;p&gt;我們發現，屬新北市範圍內的青山路一段都有加蓋或設置護欄，但屬桃園龜山區範圍內的青山路二段，沒有加蓋、沒有護欄，騎士行經此路段時，容易感受到縣市的落差及不安全感，也可能導致疏忽摔落側溝。
+青山路二段是桃園龜山與新北往來的交通要道，車流量大、彎道多且坡度大，為了提升路段安全，交通局先前也在此實施區間測速、禁行6.5噸以上大貨車等規定。
+我請同仁去調閱此路段近一年的交通事故狀況，發現這邊去年的交通事故高達115件，顯然可見，此路段還有許多需要改善的地方。&lt;/p&gt;
+&lt;p&gt;因此宗豪邀集市府相關單位及文青里長至現場會勘，希望能改善此路段狀況，像是分隔島上已毀損的防眩板需做修繕、因車禍撞毀的行人號誌燈需儘速修復，以及側溝加蓋或設立護欄等，我也要求市府做出一份綜合評估報告，能立即調整的地方盡快來改善，以保障用路人安全。&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-039.jpeg" alt="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青國小" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2616,7 +3326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2681,12 +3391,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="PingFang TC Regular"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color rgb="FF050505"/>
       <name val="Cambria"/>
@@ -2697,6 +3401,89 @@
       <color rgb="FF050505"/>
       <name val="PMingLiU"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF050505"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF050505"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF050505"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="PingFang TC Regular"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -2720,7 +3507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2833,13 +3620,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2859,15 +3689,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2891,16 +3712,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2909,9 +3721,109 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -4036,31 +4948,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="27.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42" style="1" customWidth="1"/>
-    <col min="7" max="7" width="80.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="100.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="15" customWidth="1"/>
     <col min="9" max="9" width="70.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
     <col min="11" max="12" width="16.33203125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.5" customHeight="1">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4077,12 +4990,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -4091,764 +5004,1245 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="56.75" customHeight="1">
+    <row r="2" spans="1:11" ht="99">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="40">
+        <v>45204</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+    </row>
+    <row r="3" spans="1:11" ht="56">
+      <c r="A3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F3" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="42">
+        <v>45181</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+    </row>
+    <row r="4" spans="1:11" ht="101">
+      <c r="A4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="42">
+        <v>45159</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="1:11" ht="101">
+      <c r="A5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="42">
+        <v>45157</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+    </row>
+    <row r="6" spans="1:11" ht="84">
+      <c r="A6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="42">
+        <v>45138</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+    </row>
+    <row r="7" spans="1:11" ht="56">
+      <c r="A7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="42">
+        <v>45103</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+    </row>
+    <row r="8" spans="1:11" ht="70">
+      <c r="A8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="42">
+        <v>45092</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+    </row>
+    <row r="9" spans="1:11" ht="45">
+      <c r="A9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="42">
+        <v>45071</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" ht="393">
+      <c r="A10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="42">
+        <v>45058</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+    </row>
+    <row r="11" spans="1:11" ht="345">
+      <c r="A11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="42">
+        <v>45057</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" ht="115">
+      <c r="A12" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="42">
+        <v>45051</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+    </row>
+    <row r="13" spans="1:11" ht="409.6">
+      <c r="A13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="42">
+        <v>45029</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+    </row>
+    <row r="14" spans="1:11" ht="344">
+      <c r="A14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="42">
+        <v>45029</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="15" spans="1:11" ht="168">
+      <c r="A15" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="42">
+        <v>45027</v>
+      </c>
+      <c r="I15" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+    </row>
+    <row r="16" spans="1:11" ht="101">
+      <c r="A16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="42">
+        <v>45024</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+    </row>
+    <row r="17" spans="1:11" ht="84">
+      <c r="A17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="42">
+        <v>45020</v>
+      </c>
+      <c r="I17" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+    </row>
+    <row r="18" spans="1:11" ht="84">
+      <c r="A18" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="42">
+        <v>45016</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+    </row>
+    <row r="19" spans="1:11" ht="48">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="13">
+        <v>45002</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="144">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="13">
+        <v>45001</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="176">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="13">
+        <v>45001</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="160">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="13">
+        <v>45000</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="182">
+      <c r="A23" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23" s="15">
+        <v>44999</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="208">
+      <c r="A24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="41">
+        <v>44998</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+    </row>
+    <row r="25" spans="1:11" ht="304">
+      <c r="A25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="41">
+        <v>44993</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+    </row>
+    <row r="26" spans="1:11" ht="208">
+      <c r="A26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="41">
+        <v>44992</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+    </row>
+    <row r="27" spans="1:11" ht="176">
+      <c r="A27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="41">
+        <v>44991</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+    </row>
+    <row r="28" spans="1:11" ht="80">
+      <c r="A28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="41">
+        <v>44985</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+    </row>
+    <row r="29" spans="1:11" ht="366">
+      <c r="A29" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="41">
+        <v>44973</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+    </row>
+    <row r="30" spans="1:11" ht="48">
+      <c r="A30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="20">
-        <v>45002</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="G30" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="41">
+        <v>44969</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
     </row>
-    <row r="3" spans="1:11" ht="157.25" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="12" t="s">
+    <row r="31" spans="1:11" ht="96">
+      <c r="A31" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="41">
+        <v>44965</v>
+      </c>
+      <c r="I31" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+    </row>
+    <row r="32" spans="1:11" ht="128">
+      <c r="A32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="41">
+        <v>44964</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+    </row>
+    <row r="33" spans="1:11" ht="236">
+      <c r="A33" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="C33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="41">
+        <v>44958</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+    </row>
+    <row r="34" spans="1:11" ht="350">
+      <c r="A34" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="41">
+        <v>44942</v>
+      </c>
+      <c r="I34" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+    </row>
+    <row r="35" spans="1:11" ht="224">
+      <c r="A35" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="41">
+        <v>44937</v>
+      </c>
+      <c r="I35" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+    </row>
+    <row r="36" spans="1:11" ht="96">
+      <c r="A36" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F36" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="41">
+        <v>44937</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+    </row>
+    <row r="37" spans="1:11" ht="409.6">
+      <c r="A37" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="16">
-        <v>45001</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="G37" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="41">
+        <v>44915</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
     </row>
-    <row r="4" spans="1:11" ht="164.25" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="12" t="s">
+    <row r="38" spans="1:11" ht="133">
+      <c r="A38" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E38" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="41">
+        <v>44910</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+    </row>
+    <row r="39" spans="1:11" ht="160">
+      <c r="A39" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="16">
-        <v>45001</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="F39" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="41">
+        <v>44903</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
     </row>
-    <row r="5" spans="1:11" ht="176.25" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="12" t="s">
+    <row r="40" spans="1:11" ht="192">
+      <c r="A40" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="16">
-        <v>45000</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="193.75" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="E40" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="16">
-        <v>44998</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" ht="92.5" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="16">
-        <v>44985</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="285.5" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="16">
-        <v>44993</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="213.25" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="16">
-        <v>44992</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" ht="203.25" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="16">
-        <v>44991</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="409.5" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="F40" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="16">
-        <v>44973</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="56.25" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="16">
-        <v>44969</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="104.25" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="16">
-        <v>44965</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" ht="116.25" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="16">
-        <v>44964</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" ht="284.25" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="16">
-        <v>44942</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" ht="178.25" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="16">
-        <v>44924</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" ht="212.25" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="16">
-        <v>44920</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" ht="236.25" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="16">
-        <v>44937</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" ht="409.5" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="16">
-        <v>44915</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" ht="92.25" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="16">
-        <v>44937</v>
-      </c>
-      <c r="I20" s="14" t="s">
+      <c r="G40" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" ht="146.25" customHeight="1">
-      <c r="A21" s="10" t="s">
+      <c r="H40" s="41">
+        <v>44576</v>
+      </c>
+      <c r="I40" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="16">
-        <v>44910</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" ht="218.25" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="16">
-        <v>44958</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" ht="164.25" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="16">
-        <v>43845</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" ht="164.75" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="16">
-        <v>44903</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" ht="116.25" customHeight="1">
-      <c r="A25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="16">
-        <v>44898</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:L40">
+    <sortCondition descending="1" ref="H1:H40"/>
+  </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="#機場捷運增加班次" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G6" r:id="rId2" display="#桃園市市長" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G7" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G8" r:id="rId4" display="#垃圾問題" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G9" r:id="rId5" display="#預算來源不明" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G11" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F12" r:id="rId7" display="陳雅倫" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F13" r:id="rId8" display="孫韻璇" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G19" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G24" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G25" r:id="rId11" display="https://travel.tycg.gov.tw/zh-tw/event/news/4258" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G19" r:id="rId1" display="#機場捷運增加班次" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G24" r:id="rId2" display="#桃園市市長" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G28" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G25" r:id="rId4" display="#垃圾問題" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G26" r:id="rId5" display="#預算來源不明" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G29" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F30" r:id="rId7" display="陳雅倫" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F31" r:id="rId8" display="孫韻璇" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G37" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G39" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I3" r:id="rId11" xr:uid="{0632A143-9E23-1E42-9A94-480CFFB2E8C4}"/>
+    <hyperlink ref="I4" r:id="rId12" xr:uid="{0E2C5623-9719-1F4B-863C-66E23A884C6E}"/>
+    <hyperlink ref="I5" r:id="rId13" xr:uid="{F2FB376F-1388-6B45-B1C6-28C0EF06613C}"/>
+    <hyperlink ref="I6" r:id="rId14" xr:uid="{3B40EBBF-BC1F-D54A-9157-DD1B27EBF83E}"/>
+    <hyperlink ref="I7" r:id="rId15" xr:uid="{9E4CC1F2-3F9E-044D-B4B9-8F92D4FEEFD8}"/>
+    <hyperlink ref="I8" r:id="rId16" xr:uid="{7EDA1FCE-7A4D-664F-BEA3-1DD7835C8809}"/>
+    <hyperlink ref="I9" r:id="rId17" xr:uid="{57CE2C93-66B9-A24C-872D-96CA18664145}"/>
+    <hyperlink ref="I11" r:id="rId18" xr:uid="{28A4396B-78C2-544D-8749-F9028E9AFABB}"/>
+    <hyperlink ref="I10" r:id="rId19" xr:uid="{D93FF76B-0FE2-7244-B65A-B9059E549A88}"/>
+    <hyperlink ref="I12" r:id="rId20" xr:uid="{0A295210-1FAB-9F42-85BF-F535411914E7}"/>
+    <hyperlink ref="I13" r:id="rId21" xr:uid="{5006C36D-0D88-2B43-A8E1-215D80EEB0BA}"/>
+    <hyperlink ref="I14" r:id="rId22" xr:uid="{24816867-7600-2449-927E-C167EE617C35}"/>
+    <hyperlink ref="I15" r:id="rId23" xr:uid="{C58778F8-7EBE-A34F-835F-D8553B85A0CA}"/>
+    <hyperlink ref="I16" r:id="rId24" xr:uid="{3CACE7E1-84D1-5B4D-A003-690E79F5F3E9}"/>
+    <hyperlink ref="I17" r:id="rId25" xr:uid="{86A9EF36-E448-8544-8BE7-D4291F3BC823}"/>
+    <hyperlink ref="I23" r:id="rId26" xr:uid="{E19E4E65-5A40-7445-9E23-925DC7DAC39F}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CCA63C-557B-7144-B08C-52C30693A2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EC21C8-0978-8247-97A8-669AA3379130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="-27060" windowWidth="38820" windowHeight="24380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="26740" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="195">
   <si>
     <t>Title</t>
   </si>
@@ -111,207 +111,18 @@
     <t>長庚醫院公車站</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">f民眾反映長庚醫院公車站牌常常有進入停車塲車輛車堵在公車停車格，搭乘公車民眾需走到車道上車，容易造成危險。&lt;br&gt;&lt;br&gt;韻璇前日邀請長庚醫院及交通局共同會勘，該站位分群候車共5格公車格（依序為紅、紅、綠、綠、黃），其中2格紅色為本市公車、免費公車及部分國道路線停靠使用，經研議：國道路線及本市711路線已進駐桃園長庚轉運站，格位尖峰時段使用率已減少，取消1格紅色公車格，並依序調整公車格順序，而在往停車場等候區將多出等待空間，韻璇也請長庚醫院針對尖峰時段協助引導車輛，讓民眾安全通行。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-孫韻璇-05.jpeg" class="img-fluid" style="width:400px"&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.facebook.com/sun0976315743</t>
   </si>
   <si>
     <t>持續兌現把關交通承諾</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">先前我們收到民眾反應，文學文青 T 字路口道路轉彎的幅度小，因此車輛轉彎時速度很快，行人穿越線也順著轉彎的幅度拉長了一段距離，但卻造成過馬路時間可能不足，容易造成行人危險。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">查閱相關資料研究後，安排時間與文青里里長、交通局一同會勘，共同商討如何解決，現場勘查後結論如下：&lt;br&gt;&lt;br&gt; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">調整路口大幅度轉彎帶：與交通局研議設置標線型綠色人行道來填補彎道，讓彎道增加角度以有效減緩車速，從而限制車輛速度。&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>調整行人號誌燈：請交通局研議增加過馬路的秒數，文學路本身路面就較為寬廣，行人往往在一段距離看到秒數不足，會想要快速跑去，然又因路面彎度小、車速快，易形成交通事故，所以請交通局考慮增加秒數，避免行人為求過路而釀成&lt;br&gt;&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>李宗豪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">-04.jpeg" class="img-fluid" style="width:400px"&gt;
-</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.facebook.com/TYleehao</t>
   </si>
   <si>
     <t>青山路二段的用路安全</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">本辦接獲民眾陳情，青山路二段路邊側溝容易造成機車摔落！ 我們發現，屬新北市範圍內的青山路一段都有加蓋或設置護欄，但屬桃園龜山區範圍內的青山路二段，沒有加蓋、沒有護欄，騎士行經此路段時，容易感受到縣市的落差及不安全感，也可能導致疏忽摔落側溝。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">青山路二段是桃園龜山與新北往來的交通要道，車流量大、彎道多且坡度大，為了提升路段安全，交通局先前也在此實施區間測速、禁行6.5噸以上大貨車等規定。&lt;br&gt;&lt;br&gt;我請同仁去調閱此路段近一年的交通事故狀況，發現這邊去年的交通事故高達115件，顯然可見，此路段還有許多需要改善的地方。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>因此宗豪邀集市府相關單位及文青里長至現場會勘，希望能改善此路段狀況，像是分隔島上已毀損的防眩板需做修繕、因車禍撞毀的行人號誌燈需儘速修復，以及側溝加蓋或設立護欄等，我也要求市府做出一份綜合評估報告，能立即調整的地方盡快來改善，以保障用路人安全。&lt;br&gt;&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>李宗豪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>-03.jpeg" class="img-fluid" style="width:400px"&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.facebook.com/groups/a7xinlinkou/permalink/511523007619619/</t>
   </si>
   <si>
@@ -321,625 +132,18 @@
     <t>A.1加速宜居城市建設</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>寄養服務 讓一家人團結起來做好事</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">將更多的愛與關懷，付出在每個需要的孩童身上，讓孩童走出原生家庭的陰霾，重新蛻變～展開一段新的旅程！&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#桃園市市長</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#張善政</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> 和韻璇一樣，非常關心 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#桃園弱勢孩童</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> ，更感謝每戶寄養家庭的無私奉獻，提供孩童一個安全無虞、充滿愛心的新住所 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> 韻璇希望鄉親朋友能夠將這份愛心繼續擴大，讓桃園 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#寄養家庭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> 可以突破百戶，讓更多弱勢孩童可以順利成長 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">孩子無法選擇父母，而寄養家庭則可以提供孩童一個暫時性的避風港，讓他們可以得到妥善保護與照顧，在現今的社會裡，並非有血緣關係的才是家人只要能夠真心呵護、保護、給你溫暖的都算是哦&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">請聯繫 &lt;a href=" </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>https://www.ccf.org.tw/59/service/MTE3Ng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">"&gt;桃園家扶中心&lt;/a&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;br&gt;&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-孫韻璇-04.jpeg" class="img-fluid" style="width:400px"&gt;
-</t>
-    </r>
-  </si>
-  <si>
     <t>文桃路轉文南路交通回堵嚴重</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，韻璇邀請#樂善里黃錦芳里長、交通局、龜山分局、龜山區公所現場場勘。&lt;br&gt;&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">會勘結論因上下班交通流量大，雙向車流號誌時相設計上下午尖峰時段輪放早開三時開放文桃路左轉文南秒數增加，另文南路拓寬工程，韻璇也會積極請工務局加快推進。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-孫韻璇-03.jpeg" class="img-fluid" style="width:400px"&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>A7 區域垃圾問題</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">2023/03/08 議事堂上，再來談談 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#垃圾問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> 的困擾，我認為不是你丟我撿，民眾通報然後清潔隊員來掃這樣而已。 我知道像A7重劃區、龜山區公所周遭、楓樹、舊路、龍壽、福源、兔坑、新嶺等山區產業道路旁等地，很容易被丟棄垃圾，我跟環保局長討論這些問題該如何從根本解決，也有達到共識。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">一、針對建案週遭的垃圾，請環保局跟建商溝通 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#認養周邊道路定時清掃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">，也可以提升建商的形象，局長表示會著手來進行。&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">二、針對上述提到亂丟垃圾的熱點區域， </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#加裝縮時攝影</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">。&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">三、龜山只論戶籍人口的話，每位清潔隊員服務市民比是890人，遠高於桃園市其他行政區，更高於桃園的平均841人，也高於台北的481人與新北的750人。更何況龜山有長庚醫院、工業區、大專院校帶來的眾多流動人口，因此我要求環保局今年必須優先 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#補充龜山區清潔隊員人力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">。 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-陳雅倫-04.jpeg" class="img-fluid" style="width:600px"&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">2023/03/10 前日我在專案報告中要求環保局裝設髒亂熱點縮時攝影，今日說裝就裝，陸陸續續現勘裝設了幾個地方，也會不時換地方裝設，無論是看起來人煙稀少的產業道路、或是重劃區，亂丟垃圾、傾倒廢棄物的人千萬不要心存僥倖！！！&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>2023/03/11 &lt;a href="</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>https://news.ltn.com.tw/news/life/breakingnews/4236241?fbclid=IwAR0ODN4FCJA1AWDEB8UpTsiynNP2PbKemI9-dwmB3iRbgea7k-43NbwD3DY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">"&gt;自由時報報導&lt;/a&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;br&gt;&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-陳雅倫-07.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.facebook.com/profile.php?id=100063574997048</t>
   </si>
   <si>
     <t>北北基桃生活圈的交通月票1200</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">感謝行政院及市府團隊，最快七月，北北基桃生活圈的交通月票1200吃到飽政策上路，但是桃園市準備好了嗎？&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">1200對桃園、對龜山都非常重要，所以今日我就1200的議題跟交通局長、桃捷董事長交鋒討論超過十分鐘(議會限制提專案的議員每位發言十分鐘)。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">第一個最重要的「 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#預算來源不明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">」，當初張市長在提出通勤月票的政見時，並沒有辦法預期中央要協助補助多少，但是張市長還是勇敢提出這樣的政見，今日我在詢問局長預算來源時，局長卻無法正面回應。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">第二個大家擔心的「 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#機捷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">」會不會納入1200月票，會的。並且我也要求桃捷董事長 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#縮短班距</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">、 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#增加班次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">，經過我爭取，董事長承諾，短期計畫在今年四月份會先針對A7、A8、A9尖峰時段增加一班車，長期會在今年七月1200實施後，視運量來研究增加班次。 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">第三個 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#司機荒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> 的問題嚴峻，導致舊有公車減班、要新闢的公車開不出來，司機超時工作影響服務品質，我也請局長想辦法提升司機員的福利薪資，不要到時候1200上路、民眾卻無車可坐。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-陳雅倫-05.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>文青非營利幼兒園 興建進度</t>
   </si>
   <si>
@@ -949,316 +153,12 @@
     <t>爭取區域公車</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">由2023/02/13日起 以605B 持續營運 並由原每日10班次增加為12班次。 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-陳雅倫-03.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>文藝街紅線標示</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">孫韻璇議員發文: 里長反應文青里二期內道路開闢工程變三道路拓寬後，文藝街街口也變寬了，因道路拓寬後許多車輛就停在上面，容易導致救災車輛無法順利通行。韻璇今日與文青里里長謝嘉仁、華亞別莊管委會、區公所、營造公司、技術顧問公司共同會勘，決議在兩側都將紅線畫上，才不會讓當初拓勘道路美意打折。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-孫韻璇-01.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>2023/2月免費法律諮詢</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">李宗豪議員提供的法律諮詢服務
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;ul&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;時間：每週三下午2:00-5:00、  每週四晚間6:00-8:00&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;地址：龜山區山鶯路1巷15之1號&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;電話：(03)3207676&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/ul&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-李宗豪-02.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">陳雅倫議員分文: 很多問題在去年會議中，我就已經提出來了，包含善捷段269地號不要分割成兩塊地，而是以完整基地為規劃，開挖地下停車場並設計一個活動中心暨綜合社福館的大樓，社福館內可融入日照、公幼、公托、親子館、圖書館等等多功能使用，且基地不分割剩餘的法空可以保留更完整的空間來做綠美化兼具公園遊戲場功能。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">而善捷段269地號是中央內政部營建署開發財務平衡下要標售的配餘地，原本分區是住宅用地，我們透過鄭運鵬立委跟中央爭取許久才變成機關用地，方可無償撥用給地方政府使用，面積約1000坪左右，按照此次開會的設計方案，將基地一分為二。 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;ol&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;500坪基地中規劃使用100坪作為活動中心，樓板面積為200坪。&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;另外500坪為文青派出所預定地。&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/ol&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">我認為基地一分為二這樣規劃並沒有讓這塊好不容易爭取回來的「機關用地」發揮最有效的利用，相當可惜，因為A7周邊留下能夠建設的國有地有限。 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">這次說明會我再度重申這些想法，也聽到許多市民朋友提到多元意見、參與公共政策討論都是好事，也盼望市府單位重視地方民意的多元需求，讓土地能最有效的使用！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-陳雅倫-01.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.facebook.com/groups/a7xinlinkou/permalink/480240174081236/</t>
   </si>
   <si>
@@ -1277,1158 +177,355 @@
     <t>C.4建立數字城市規劃</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">牛煦庭發文: 台灣公寓大廈管理顧問協會籌備中。能夠協助有熱情有行動力的倡議者，我非常榮幸。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">饒後樂老師一直是我們服務處的公寓大廈管理諮詢顧問，這幾年不只協助各社區處理疑難雜症，他更集結了這個領域的熱心人士，組織協會，發動「公寓大廈管理2.0」運動。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">公寓大廈管理條例不合時宜，衍生出各種社區管理的困境，公寓大廈管理2.0將以倡議與服務並行的方式，引進新觀念、協助排除爭議、解決問題，管理品質再升級。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">這種市民朋友不常關切，但實際上和生活品質密切相關的議題，當然落在牛團隊的守備範圍，新的任期馬上開始，我們會繼續要求公部門與時俱進，認真面對社區管理的新需求。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>相關詳細資料 請參考 Facebook &lt;a href="</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>https://www.facebook.com/groups/389119991183274/posts/2083583925070197/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">"&gt;公寓大廈管理委員會交流協會&lt;/a&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-公寓大廈.jpeg" class="img-fluid" style="width:600px"&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">推動要點:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;ul&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;1. 加入長期修繕更新思考與作為 &lt;br&gt;建立與維護保持建築物良好功能，包含長期重大修繕更新的經常性關係，促使公寓大廈管理回歸並深化其管理作為，去除目前形式主義積弊。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;2. 推動公寓大廈管理 2.0 作業與服務標準&lt;br&gt;目前公寓大廈管理的法規及標準不僅不足且仍為為數眾多社區大樓難懂，因此在目前管理服務人培訓外，應檢討及建立具有實質管理機制的共同作業標準、服務標準和職業倫理。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;3. 推動顧問服務型態&lt;br&gt;管理服務人的角色若是要推廣和維護建立良好管理的技術和智慧，那目前"總幹事"被綁在單單一個封閉社區從事總務行政的服務型態恐難以促成不同社區間經驗智慧的交流運用。因此應建立和推廣以公寓大廈利益本位的管理顧問服務型態，讓總幹事的智慧交流與專業產生價值。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;4. 推動管理服務人專業工作報告與專業能力衡量制度&lt;br&gt;目前社區"總幹事"服務品質缺乏評核與監督機制，建議應該能由政府輔導成立某些合格的協會公會組織來評鑑總幹事作業品質，建立定期服務回報與專業能力衡量系統，並搭配服務與專業貢獻履歷。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;5. 改善人力派遣制度&lt;br&gt;現行公寓大廈的人力派遣現象無法吸收優秀人才投入，因此應改變目前把人當做事務機器態度，鼓勵提高勞動條件，創造服務品質，建立穩定的僱傭關係。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;6. 鼓勵管理加入人性因素&lt;br&gt;目前公寓大廈管理是以一年一約方式簽約較多，無法留下優秀人才及體質好的保全及樓管公司，因此應鼓勵建立服務品質標準與獎懲制度，鼓勵從業人員積極參與自我能力提升與服務創新活動
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;7. 最後是鼓勵運用科技&lt;br&gt;鼓勵運用科技增進管理效能，能減少人力耗損及疲勞、降低成本，目前普遍在運用上很不好，還停留在三十年前，效率太低。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/ul&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.facebook.com/18NIUstart</t>
   </si>
   <si>
     <t>牛角坡路打通文化一路進度追蹤</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>陳雅倫發文: 今日來持續追蹤A7二期計畫道路（變二）牛角坡路聯外道路新闢進度。 雅倫與黃錦芳里長共同開會追蹤進度，目前正在進行整地工作，預計兩年完工。 完工後可以將牛角坡路連通到文化一路，我也督促施工單位做好交通維持，盡量降低施工造成的不便，另外我有要求雙向都要有人行道，並做好防撞、防墜設施，讓出入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">更便利。 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-牛角坡.jpeg" class="img-fluid" style="width:600px"&gt;
-</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.facebook.com/groups/a7xinlinkou/permalink/477312367707350/</t>
   </si>
   <si>
     <t>長庚轉運站設置圖書館及青創中心</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="14"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">陳雅倫發文: 感謝鄭文燦市長大力推動，感謝長庚投資14.6億元興建，是桃園市政府與長庚合作的BOT案。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">這是一個結合公車、機捷、計程車、youbike等多運具轉乘的大型轉運站，還有580格汽車格、1040格機車車格，可以舒緩周邊交通壓力，地下連通道還可直達長庚醫院。 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">同時雅倫也爭取回饋空間設置圖書館及青創中心，預計明年中完工。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">一樓除了搭車，還有特色商店，讓轉乘的旅人可以在這愜意休憩 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="8"/>
-        <rFont val="PingFang TC Regular"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-圖書館.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>營養午餐減免補助</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">孫韻璇發文: 在萬物皆漲 但薪水沒漲的情況，韻璇想為孩子和爸爸媽媽盡一份心為生長在桃園的孩童爭取營養午餐減免補助！ &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">很慶幸！前陣子此項目已順利編列入預算希望最快在2023年2月實施。待確實執行後，相信至少能減免15萬孩童的營養午餐問題，減輕爸爸媽媽在育兒上的開支。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color indexed="13"/>
-        <rFont val="Helvetica"/>
+    <t>Covid-19 慰問金 津貼</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/photo?fbid=186226210741020&amp;set=pb.100080609260787.-2207520000.</t>
+  </si>
+  <si>
+    <t>林口交流道匝道 10度開標</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/455071939931393/</t>
+  </si>
+  <si>
+    <t>陳雅倫</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫韻璇</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李宗豪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛煦庭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>N001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>N002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>N003</t>
+  </si>
+  <si>
+    <t>N004</t>
+  </si>
+  <si>
+    <t>N005</t>
+  </si>
+  <si>
+    <t>N006</t>
+  </si>
+  <si>
+    <t>N007</t>
+  </si>
+  <si>
+    <t>N008</t>
+  </si>
+  <si>
+    <t>N009</t>
+  </si>
+  <si>
+    <t>N010</t>
+  </si>
+  <si>
+    <t>N011</t>
+  </si>
+  <si>
+    <t>N012</t>
+  </si>
+  <si>
+    <t>N013</t>
+  </si>
+  <si>
+    <t>N014</t>
+  </si>
+  <si>
+    <t>N015</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>N017</t>
+  </si>
+  <si>
+    <t>N018</t>
+  </si>
+  <si>
+    <t>N019</t>
+  </si>
+  <si>
+    <t>N020</t>
+  </si>
+  <si>
+    <t>N021</t>
+  </si>
+  <si>
+    <t>N022</t>
+  </si>
+  <si>
+    <t>N023</t>
+  </si>
+  <si>
+    <t>N024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「4/17日起」機捷通勤時間增加一班次 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">文學文青 T 字路口道路提案改善 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>改善青山路段會勘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄養家庭招募</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 交通問題改善會勘
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通問題會勘工作</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>議會呼籲環保局處理垃圾問題</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">交通套票 桃園市準備好了嗎？ </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">文青幼兒園 興建進度及招生 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>居民法律諮詢服務</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>試辦公車【長庚—迴龍】經青山路605延續 為605B 並增加兩班次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7 二期內道路開闢工程變三道路會勘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>文青里市民活動中心</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通建設</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8圖書館</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新冠肺炎慰問補助</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtitle</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>議員對文青里市民活動中心的規劃說明</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功爭取 #行動圖書車</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/605276541577598/</t>
+  </si>
+  <si>
+    <t>N026</t>
+  </si>
+  <si>
+    <t>N027</t>
+  </si>
+  <si>
+    <t>N028</t>
+  </si>
+  <si>
+    <t>N029</t>
+  </si>
+  <si>
+    <t>N030</t>
+  </si>
+  <si>
+    <t>N031</t>
+  </si>
+  <si>
+    <t>N032</t>
+  </si>
+  <si>
+    <t>N033</t>
+  </si>
+  <si>
+    <t>N034</t>
+  </si>
+  <si>
+    <t>N035</t>
+  </si>
+  <si>
+    <t>N036</t>
+  </si>
+  <si>
+    <t>N037</t>
+  </si>
+  <si>
+    <t>N038</t>
+  </si>
+  <si>
+    <t>N039</t>
+  </si>
+  <si>
+    <r>
+      <t>前陣子，民眾陳情 #文青里 原有的行動圖書車因為設置地點的關係無法繼續服務，但這裡距離圖書館又非常遠，借還書不方便</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF050505"/>
+        <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">韻璇知道，許多家長聽到這消息一定喜憂參半，擔心會不會因為「全額補助」而對菜色有所影響？請別擔心 韻璇都有替爸爸媽媽注意決議校園營養午餐減免同時，政府也十分重視孩子健康面對未來中央餐廚的環境品質、食安問題也會更加嚴謹！決不因為 免費 而讓品質打折扣，這是韻璇最不能接受的。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color indexed="13"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">我們只希望，讓桃園 國中小的孩子們在校園也可以吃的像在家一樣充滿營養又健康。也能減輕爸爸媽媽經濟上的負擔哦 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color indexed="13"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-營養午餐.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Covid-19 慰問金 津貼</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">孫韻璇發文: 對於未能挺過的病患及家屬，政府也深表難過！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;ul style="list-style:none; padding-left:0em; "&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;衛福部更將追溯自109年1月15日後，確診往生家屬，發放10萬元喪葬慰問金。&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">   &lt;li&gt;桃園市府也體恤市民辛苦，補助10萬以表慰藉（桃園市府慰問津貼經費有限，須以當時申請順序核發為準）&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/ul&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">希望能透過這份關懷的心意，撫慰COVID-19受創家屬之情緒，減輕家中的經濟負擔！本補助方案視預算為主，最晚申請期限2022/12/31 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">補助相關問題請洽：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">衛生福利部、桃園社會局救助科 沈先生 或 陳先生 (03-3322101分機6405) 洽詢 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-防疫補助.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.facebook.com/photo?fbid=186226210741020&amp;set=pb.100080609260787.-2207520000.</t>
-  </si>
-  <si>
-    <t>林口交流道匝道 10度開標</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;a href=</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">"&gt;林口交流道匝道 進度&lt;/a&gt;:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">林口交流道增設南出北入匝道工程原核定工期30個月，但流標9次，高公局調整工期時間及增加經費，工程總經費增加為37.2億元，工期增加48個月，預計2026年12月完工通車。 &lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">陳雅倫議員與新北市蔡淑君議員團隊共同邀集兩市交通局長官，在交通最尖峰時刻來關心林口交流道周邊號誌連動及交通優化問題。並建議市府將 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>#龜山一路道路拓寬工程脫鉤處理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">，因工程較單純，且A8轉運站落成，要求桃園市府先優先設計施作。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-林口交流道.jpeg" class="img-fluid" style="width:600px"&gt;
-</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/455071939931393/</t>
-  </si>
-  <si>
-    <t>陳雅倫</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>孫韻璇</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>李宗豪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛煦庭</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>N001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>N002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>N003</t>
-  </si>
-  <si>
-    <t>N004</t>
-  </si>
-  <si>
-    <t>N005</t>
-  </si>
-  <si>
-    <t>N006</t>
-  </si>
-  <si>
-    <t>N007</t>
-  </si>
-  <si>
-    <t>N008</t>
-  </si>
-  <si>
-    <t>N009</t>
-  </si>
-  <si>
-    <t>N010</t>
-  </si>
-  <si>
-    <t>N011</t>
-  </si>
-  <si>
-    <t>N012</t>
-  </si>
-  <si>
-    <t>N013</t>
-  </si>
-  <si>
-    <t>N014</t>
-  </si>
-  <si>
-    <t>N015</t>
-  </si>
-  <si>
-    <t>N016</t>
-  </si>
-  <si>
-    <t>N017</t>
-  </si>
-  <si>
-    <t>N018</t>
-  </si>
-  <si>
-    <t>N019</t>
-  </si>
-  <si>
-    <t>N020</t>
-  </si>
-  <si>
-    <t>N021</t>
-  </si>
-  <si>
-    <t>N022</t>
-  </si>
-  <si>
-    <t>N023</t>
-  </si>
-  <si>
-    <t>N024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「4/17日起」機捷通勤時間增加一班次 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">文學文青 T 字路口道路提案改善 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>改善青山路段會勘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄養家庭招募</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 交通問題改善會勘
-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通問題會勘工作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>議會呼籲環保局處理垃圾問題</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">交通套票 桃園市準備好了嗎？ </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">文青幼兒園 興建進度及招生 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>免費諮詢服務 開跑啦 &lt;br&gt;
-韻璇一直心想除了議政外，還可以多做哪些為鄉親服務，於是LINE＠就新增了 我要陳情、法律諮詢、地政服務！希望可以透過這些管道，讓鄉親朋友直接向韻璇反應，可以更快速的提供協助
-&lt;br&gt;&lt;br&gt;
-相信當生活中遇到法律問題時，難免覺得徬徨無助如果有個諮詢管道可以了解，並且告訴您該如何維護和保障自己的權益，那該有多好。
-這就是韻璇的初衷，所以特別邀請專業律師駐點服務處，希望可以替市民朋友提供諮詢，更了解接下來該如何處理；除了法律諮詢，服務處也提供地政諮詢唷
-&lt;br&gt;&lt;br&gt;
-讓不了解地政相關資訊的鄉親朋友可以先加以了解，未來再辦理相關事項時，可以更快速的辦理完成，節省您寶貴的時間以上服務只要加入韻璇Line好友，就可以讓服務更即時哦。讓我們樓上揪樓下、厝邊拉隔壁、阿公牽阿嬤、爸爸甲媽媽！
-一同加入【孫韻璇LINE＠好友】瞭解更多相關諮詢服務，歡迎有問題也可以直接留言，韻璇都會一一看過哦
-&lt;br&gt;&lt;br&gt;
-&lt;ul&gt;
-   &lt;li&gt;孫韻璇LINE ID：@sun0976315743&lt;/li&gt;
-   &lt;li&gt;法律諮詢：每週三晚上6:00~8:00. &lt;a href="</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>https://forms.gle/oN9hpTZYZ4nwWBGu5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>" &gt;預約服務&lt;/a&gt; &lt;/li&gt;
-   &lt;li&gt;地政諮詢：週一、四，下午2:00~4:00 &lt;a href="</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>https://forms.gle/wcZGdvf1XzG3nW8y9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">"&gt;預約服務&lt;/a&gt; &lt;/li&gt;
-&lt;/ul&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color indexed="13"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF050505"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
+      <t xml:space="preserve">😢
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color rgb="FF050505"/>
         <rFont val="PMingLiU"/>
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>孫韻璇-02.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>居民法律諮詢服務</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>試辦公車【長庚—迴龍】經青山路605延續 為605B 並增加兩班次</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>A7 二期內道路開闢工程變三道路會勘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">居民法律諮詢服務 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>文青里市民活動中心</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">重大建設進度視察 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>發動「公寓大廈管理2.0」運動</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通建設</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>A8圖書館</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>兒童福利</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新冠肺炎慰問補助</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subtitle</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>議員對文青里市民活動中心的規劃說明</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功爭取 #行動圖書車</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">隨著公幼、非營利幼兒園報名抽籤的日期接近，很多家長都非常關心正在興建中的兩座非營利幼兒園，紛紛來電服務處詢問，所以我也趕緊來現場確認施工進度～先講結論&lt;br&gt;&lt;br&gt;1、今年度招生簡章上會有這兩間。&lt;br&gt;
-2、新開設的幼兒園開學日期可能會晚一點，預計落在今年10月。&lt;br&gt;
-3、兩間都有2個兩歲專班、3個3-5歲混齡班。&lt;br&gt;&lt;br&gt;
-今日我和幼教科余科長、大湖國小張校長、文青國中小張校長現場確認施工狀況都如預期，除了教室、廚房、行政空間之外，也都有保留大肢體活動區讓孩子可以蹦蹦跳跳～小寶貝的廁所則是規劃在兩間教室的中間，想上廁所不用跑很遠，也兼顧安全性！&lt;br&gt;&lt;br&gt;
-另外，雅倫不斷爭取的兩歲專班，也會從去年的6班增加到今年的13個班，包含迴龍附幼、大埔附幼、幸福附幼、龜山幼兒園苓林分班、光峰非營利、文德非營利及大湖、文青非營利幼兒園等～&lt;br&gt;&lt;br&gt;
-&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-陳雅倫-06.jpeg" class="img-fluid" style="width:600px"&gt;
-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">李宗豪發文: 今日與工務局汪局長一同去視察龜山重大建設，宗豪視察了三個工程，在這邊向各位鄉親朋友報告：&lt;br&gt;
-ㄧ、文青國中小：&lt;br&gt;
-幼兒園預計今年六月完工，國中小部分預計十月基礎建設完工，包含內裝預計十二月完工，文青幼兒園和國中小都能如期招生，宗豪也會繼續監督，用心保障小朋友的受教權。 &lt;br&gt;&lt;br&gt;
-二、牛角坡路延伸至文化一路（變二）：&lt;br&gt;
-已於111年11月開工，採用了更加安全的工法來施作，對於用路人的安全性更有保障，路旁也有規劃人行道，打通後可串連文化一路、牛角坡路及樂善一路，可緩解交通壅塞問題，預計113年底完工。&lt;br&gt;&lt;br&gt;
-三、文義街延伸開闢案（變三）：&lt;br&gt;
-變三進度最為領先，最快能在過年前通車。&lt;br&gt;&lt;br&gt;
-宗豪也將持續監督各項重大建設的工期，確保龜山居民們的權益不會受損，也持續關心工程安全問題，讓每一位勞工朋友的權益能得到保障。&lt;br&gt;&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-李宗豪-01.jpeg" class="img-fluid" style="width:600px"&gt;</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/605276541577598/</t>
-  </si>
-  <si>
-    <t>N026</t>
-  </si>
-  <si>
-    <t>N027</t>
-  </si>
-  <si>
-    <t>N028</t>
-  </si>
-  <si>
-    <t>N029</t>
-  </si>
-  <si>
-    <t>N030</t>
-  </si>
-  <si>
-    <t>N031</t>
-  </si>
-  <si>
-    <t>N032</t>
-  </si>
-  <si>
-    <t>N033</t>
-  </si>
-  <si>
-    <t>N034</t>
-  </si>
-  <si>
-    <t>N035</t>
-  </si>
-  <si>
-    <t>N036</t>
-  </si>
-  <si>
-    <t>N037</t>
-  </si>
-  <si>
-    <t>N038</t>
-  </si>
-  <si>
-    <t>N039</t>
-  </si>
-  <si>
-    <r>
-      <t>前陣子，民眾陳情 #文青里 原有的行動圖書車因為設置地點的關係無法繼續服務，但這裡距離圖書館又非常遠，借還書不方便</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF050505"/>
+      <t>因此雅倫與水資源廠長及圖書館人員共同來討論，爭取行動圖書車設置在 #文青水園前廣場，預計11月開始服務！屆時歡迎熱愛閱讀的大小朋友一起來使用喔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-022.jpeg" alt="行動圖書車" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>文青里行動圖書車設置在 #文青水園前廣場，預計11月開始服務！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>爭取文青國小家長接送區</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> #家長接送區，預計十月份前完工</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近開學，家長陸續陳情文青國中小附近沒有家長接送區，送小朋友來學校非常不方便且不安全，因此雅倫與張綾峰校長、黃錦芳里長、交通局共同討論規劃避車彎為 #家長接送區，預計十月份前完工，讓孩子上下課的環境可以更安全
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-023.jpeg" alt="文青國小家長接送區" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/594930289278890/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/585569540214965/</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>增設機車停車位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> A7站周邊增加了50個機車格</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>七月開始1200月票開通、大坪頂循環線開始試辦、機捷增班等，皆是希望讓大家多多搭乘大眾運輸。
+但是常常到了A7站的時候卻沒有機車位可以停，為此雅倫在議會建議、現場會勘爭取，在 #A7站周邊增加了50個機車格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">😢
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF050505"/>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="PMingLiU"/>
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>因此雅倫與水資源廠長及圖書館人員共同來討論，爭取行動圖書車設置在 #文青水園前廣場，預計11月開始服務！屆時歡迎熱愛閱讀的大小朋友一起來使用喔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="13"/>
-        <rFont val="標楷體"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;br&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-022.jpeg" alt="行動圖書車" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>文青里行動圖書車設置在 #文青水園前廣場，預計11月開始服務！</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>爭取文青國小家長接送區</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> #家長接送區，預計十月份前完工</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近開學，家長陸續陳情文青國中小附近沒有家長接送區，送小朋友來學校非常不方便且不安全，因此雅倫與張綾峰校長、黃錦芳里長、交通局共同討論規劃避車彎為 #家長接送區，預計十月份前完工，讓孩子上下課的環境可以更安全
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-023.jpeg" alt="文青國小家長接送區" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/594930289278890/</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/585569540214965/</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.5強化區域交通規劃</t>
-  </si>
-  <si>
-    <t>增設機車停車位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> A7站周邊增加了50個機車格</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">，希望可以讓通勤族更便利。
+1200上路，大眾運輸及配套措施都應該要跟著升級，然而現況公車班次極不穩定、司機員數量嚴重不足等，我會繼續爭取成立公共運輸處，提升桃園整體大眾運輸的環境！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-024.jpeg" alt="A7機車停車位</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2437,6 +534,19 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
+      <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
       <t>七月開始1200月票開通、大坪頂循環線開始試辦、機捷增班等，皆是希望讓大家多多搭乘大眾運輸。
 但是常常到了A7站的時候卻沒有機車位可以停，為此雅倫在議會建議、現場會勘爭取，在 #A7站周邊增加了50個機車格</t>
     </r>
@@ -2468,7 +578,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-024.jpeg" alt="A7機車停車位</t>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-025.jpeg" alt="A7</t>
     </r>
     <r>
       <rPr>
@@ -2478,60 +588,6 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>七月開始1200月票開通、大坪頂循環線開始試辦、機捷增班等，皆是希望讓大家多多搭乘大眾運輸。
-但是常常到了A7站的時候卻沒有機車位可以停，為此雅倫在議會建議、現場會勘爭取，在 #A7站周邊增加了50個機車格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">，希望可以讓通勤族更便利。
-1200上路，大眾運輸及配套措施都應該要跟著升級，然而現況公車班次極不穩定、司機員數量嚴重不足等，我會繼續爭取成立公共運輸處，提升桃園整體大眾運輸的環境！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-025.jpeg" alt="A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
       <t>機車停車位" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -2543,9 +599,6 @@
   <si>
     <t>https://www.facebook.com/groups/a7xinlinkou/permalink/576271144478138/</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.6強化區域交通規劃</t>
   </si>
   <si>
     <t>公車《606》7/31要上路囉！</t>
@@ -2567,10 +620,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>A.7強化區域交通規劃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>7/3日增加一班加班車, 8/1日再增三班加班車</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2606,9 +655,6 @@
   <si>
     <t>https://www.facebook.com/groups/a7xinlinkou/permalink/538148898290363/</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.8強化區域交通規劃</t>
   </si>
   <si>
     <t>A7變一道路恐延宕生變數</t>
@@ -2696,9 +742,6 @@
   <si>
     <t>https://www.facebook.com/groups/a7xinlinkou/permalink/538666711571915/</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.9強化區域交通規劃</t>
   </si>
   <si>
     <t>A7 重劃區交通壅塞問題，要求市府積極處理</t>
@@ -2863,9 +906,6 @@
   <si>
     <t>https://www.facebook.com/groups/a7xinlinkou/permalink/535136718591581/</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.10強化區域交通規劃</t>
   </si>
   <si>
     <t>樂善國小」「文德非營利幼兒園」通學步道改善</t>
@@ -2949,9 +989,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>A.2加速宜居城市建設</t>
-  </si>
-  <si>
     <t>議員關心A7國小學區劃分與名額總量管制問題</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3180,12 +1217,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>A.3加速宜居城市建設</t>
-  </si>
-  <si>
-    <t>A.4加速宜居城市建設</t>
-  </si>
-  <si>
     <t>郵政公園要開放了嗎？</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3319,6 +1350,879 @@
       </rPr>
       <t>文青國小" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">孫韻璇發文: 對於未能挺過的病患及家屬，政府也深表難過！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">&lt;ul style="list-style:none; padding-left:0em; "&gt;
+   &lt;li&gt;衛福部更將追溯自109年1月15日後，確診往生家屬，發放10萬元喪葬慰問金。&lt;/li&gt;
+   &lt;li&gt;桃園市府也體恤市民辛苦，補助10萬以表慰藉（桃園市府慰問津貼經費有限，須以當時申請順序核發為準）&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">希望能透過這份關懷的心意，撫慰COVID-19受創家屬之情緒，減輕家中的經濟負擔！本補助方案視預算為主，最晚申請期限2022/12/31 &lt;br&gt;&lt;br&gt;
+補助相關問題請洽：
+衛生福利部、桃園社會局救助科 沈先生 或 陳先生 (03-3322101分機6405) 洽詢 &lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-001.jpeg" alt="慰問金" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;a href=</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;林口交流道匝道 進度&lt;/a&gt;:
+林口交流道增設南出北入匝道工程原核定工期30個月，但流標9次，高公局調整工期時間及增加經費，工程總經費增加為37.2億元，工期增加48個月，預計2026年12月完工通車。 &lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">陳雅倫議員與新北市蔡淑君議員團隊共同邀集兩市交通局長官，在交通最尖峰時刻來關心林口交流道周邊號誌連動及交通優化問題。並建議市府將 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#龜山一路道路拓寬工程脫鉤處理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">，因工程較單純，且A8轉運站落成，要求桃園市府先優先設計施作。
+&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-002.jpeg" alt="文青國小" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="14"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">陳雅倫發文: 感謝鄭文燦市長大力推動，感謝長庚投資14.6億元興建，是桃園市政府與長庚合作的BOT案。&lt;br&gt;&lt;br&gt;
+這是一個結合公車、機捷、計程車、youbike等多運具轉乘的大型轉運站，還有580格汽車格、1040格機車車格，可以舒緩周邊交通壓力，地下連通道還可直達長庚醫院。 &lt;br&gt;&lt;br&gt;
+同時雅倫也爭取回饋空間設置圖書館及青創中心，預計明年中完工。
+一樓除了搭車，還有特色商店，讓轉乘的旅人可以在這愜意休憩 &lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-003.jpeg" alt="轉運站" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>牛煦庭發文: 台灣公寓大廈管理顧問協會籌備中。能夠協助有熱情有行動力的倡議者，我非常榮幸。&lt;br&gt;&lt;br&gt;
+饒後樂老師一直是我們服務處的公寓大廈管理諮詢顧問，這幾年不只協助各社區處理疑難雜症，他更集結了這個領域的熱心人士，組織協會，發動「公寓大廈管理2.0」運動。
+&lt;br&gt;&lt;br&gt;
+公寓大廈管理條例不合時宜，衍生出各種社區管理的困境，公寓大廈管理2.0將以倡議與服務並行的方式，引進新觀念、協助排除爭議、解決問題，管理品質再升級。&lt;br&gt;&lt;br&gt;
+這種市民朋友不常關切，但實際上和生活品質密切相關的議題，當然落在牛團隊的守備範圍，新的任期馬上開始，我們會繼續要求公部門與時俱進，認真面對社區管理的新需求。
+&lt;br&gt;&lt;br&gt;
+相關詳細資料 請參考 Facebook &lt;a href="</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>https://www.facebook.com/groups/389119991183274/posts/2083583925070197/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;公寓大廈管理委員會交流協會&lt;/a&gt;
+&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-004.jpeg" alt="公寓管理" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;br&gt;&lt;br&gt;
+推動要點:
+&lt;ul&gt;
+   &lt;li&gt;1. 加入長期修繕更新思考與作為 &lt;br&gt;建立與維護保持建築物良好功能，包含長期重大修繕更新的經常性關係，促使公寓大廈管理回歸並深化其管理作為，去除目前形式主義積弊。
+&lt;/li&gt;
+   &lt;li&gt;2. 推動公寓大廈管理 2.0 作業與服務標準&lt;br&gt;目前公寓大廈管理的法規及標準不僅不足且仍為為數眾多社區大樓難懂，因此在目前管理服務人培訓外，應檢討及建立具有實質管理機制的共同作業標準、服務標準和職業倫理。
+&lt;/li&gt;
+   &lt;li&gt;3. 推動顧問服務型態&lt;br&gt;管理服務人的角色若是要推廣和維護建立良好管理的技術和智慧，那目前"總幹事"被綁在單單一個封閉社區從事總務行政的服務型態恐難以促成不同社區間經驗智慧的交流運用。因此應建立和推廣以公寓大廈利益本位的管理顧問服務型態，讓總幹事的智慧交流與專業產生價值。
+&lt;/li&gt;
+   &lt;li&gt;4. 推動管理服務人專業工作報告與專業能力衡量制度&lt;br&gt;目前社區"總幹事"服務品質缺乏評核與監督機制，建議應該能由政府輔導成立某些合格的協會公會組織來評鑑總幹事作業品質，建立定期服務回報與專業能力衡量系統，並搭配服務與專業貢獻履歷。
+&lt;/li&gt;
+   &lt;li&gt;5. 改善人力派遣制度&lt;br&gt;現行公寓大廈的人力派遣現象無法吸收優秀人才投入，因此應改變目前把人當做事務機器態度，鼓勵提高勞動條件，創造服務品質，建立穩定的僱傭關係。
+&lt;/li&gt;
+   &lt;li&gt;6. 鼓勵管理加入人性因素&lt;br&gt;目前公寓大廈管理是以一年一約方式簽約較多，無法留下優秀人才及體質好的保全及樓管公司，因此應鼓勵建立服務品質標準與獎懲制度，鼓勵從業人員積極參與自我能力提升與服務創新活動
+&lt;/li&gt;
+   &lt;li&gt;7. 最後是鼓勵運用科技&lt;br&gt;鼓勵運用科技增進管理效能，能減少人力耗損及疲勞、降低成本，目前普遍在運用上很不好，還停留在三十年前，效率太低。
+&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">陳雅倫發文: 今日來持續追蹤A7二期計畫道路（變二）牛角坡路聯外道路新闢進度。 雅倫與黃錦芳里長共同開會追蹤進度，目前正在進行整地工作，預計兩年完工。 完工後可以將牛角坡路連通到文化一路，我也督促施工單位做好交通維持，盡量降低施工造成的不便，另外我有要求雙向都要有人行道，並做好防撞、防墜設施，讓出入更便利。 &lt;br&gt;&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-006.jpeg" alt="變二" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">李宗豪發文: 今日與工務局汪局長一同去視察龜山重大建設，宗豪視察了三個工程，在這邊向各位鄉親朋友報告：&lt;br&gt;
+ㄧ、文青國中小：&lt;br&gt;
+幼兒園預計今年六月完工，國中小部分預計十月基礎建設完工，包含內裝預計十二月完工，文青幼兒園和國中小都能如期招生，宗豪也會繼續監督，用心保障小朋友的受教權。 &lt;br&gt;&lt;br&gt;
+二、牛角坡路延伸至文化一路（變二）：&lt;br&gt;
+已於111年11月開工，採用了更加安全的工法來施作，對於用路人的安全性更有保障，路旁也有規劃人行道，打通後可串連文化一路、牛角坡路及樂善一路，可緩解交通壅塞問題，預計113年底完工。&lt;br&gt;&lt;br&gt;
+三、文義街延伸開闢案（變三）：&lt;br&gt;
+變三進度最為領先，最快能在過年前通車。&lt;br&gt;&lt;br&gt;
+宗豪也將持續監督各項重大建設的工期，確保龜山居民們的權益不會受損，也持續關心工程安全問題，讓每一位勞工朋友的權益能得到保障。&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-005.jpeg" alt="A7建設" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">陳雅倫議員分文: 很多問題在去年會議中，我就已經提出來了，包含善捷段269地號不要分割成兩塊地，而是以完整基地為規劃，開挖地下停車場並設計一個活動中心暨綜合社福館的大樓，社福館內可融入日照、公幼、公托、親子館、圖書館等等多功能使用，且基地不分割剩餘的法空可以保留更完整的空間來做綠美化兼具公園遊戲場功能。
+&lt;br&gt;&lt;br&gt;
+而善捷段269地號是中央內政部營建署開發財務平衡下要標售的配餘地，原本分區是住宅用地，我們透過鄭運鵬立委跟中央爭取許久才變成機關用地，方可無償撥用給地方政府使用，面積約1000坪左右，按照此次開會的設計方案，將基地一分為二。 
+&lt;ol&gt;
+   &lt;li&gt;500坪基地中規劃使用100坪作為活動中心，樓板面積為200坪。&lt;/li&gt;
+   &lt;li&gt;另外500坪為文青派出所預定地。&lt;/li&gt;
+&lt;/ol&gt;
+我認為基地一分為二這樣規劃並沒有讓這塊好不容易爭取回來的「機關用地」發揮最有效的利用，相當可惜，因為A7周邊留下能夠建設的國有地有限。 &lt;br&gt;&lt;br&gt;
+這次說明會我再度重申這些想法，也聽到許多市民朋友提到多元意見、參與公共政策討論都是好事，也盼望市府單位重視地方民意的多元需求，讓土地能最有效的使用！
+&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-007.jpeg" alt="文青活動中心" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">孫韻璇發文: 在萬物皆漲 但薪水沒漲的情況，韻璇想為孩子和爸爸媽媽盡一份心為生長在桃園的孩童爭取營養午餐減免補助！ &lt;br&gt;&lt;br&gt;
+很慶幸！前陣子此項目已順利編列入預算希望最快在2023年2月實施。待確實執行後，相信至少能減免15萬孩童的營養午餐問題，減輕爸爸媽媽在育兒上的開支。&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">韻璇知道，許多家長聽到這消息一定喜憂參半，擔心會不會因為「全額補助」而對菜色有所影響？請別擔心 韻璇都有替爸爸媽媽注意決議校園營養午餐減免同時，政府也十分重視孩子健康面對未來中央餐廚的環境品質、食安問題也會更加嚴謹！決不因為 免費 而讓品質打折扣，這是韻璇最不能接受的。&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">我們只希望，讓桃園 國中小的孩子們在校園也可以吃的像在家一樣充滿營養又健康。也能減輕爸爸媽媽經濟上的負擔哦 &lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-008.jpeg" alt="營養午餐" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">李宗豪議員提供的法律諮詢服務
+&lt;ul&gt;
+   &lt;li&gt;時間：每週三下午2:00-5:00、  每週四晚間6:00-8:00&lt;/li&gt;
+   &lt;li&gt;地址：龜山區山鶯路1巷15之1號&lt;/li&gt;
+   &lt;li&gt;電話：(03)3207676&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-009.jpeg" alt="法律諮詢" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">孫韻璇議員發文: 里長反應文青里二期內道路開闢工程變三道路拓寬後，文藝街街口也變寬了，因道路拓寬後許多車輛就停在上面，容易導致救災車輛無法順利通行。韻璇今日與文青里里長謝嘉仁、華亞別莊管委會、區公所、營造公司、技術顧問公司共同會勘，決議在兩側都將紅線畫上，才不會讓當初拓勘道路美意打折。
+&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-010.jpeg" alt="文藝街" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">由2023/02/13日起 以605B 持續營運 並由原每日10班次增加為12班次。 &lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-011.jpeg" alt="公車" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>免費諮詢服務 開跑啦 &lt;br&gt;
+韻璇一直心想除了議政外，還可以多做哪些為鄉親服務，於是LINE＠就新增了 我要陳情、法律諮詢、地政服務！希望可以透過這些管道，讓鄉親朋友直接向韻璇反應，可以更快速的提供協助
+&lt;br&gt;&lt;br&gt;
+相信當生活中遇到法律問題時，難免覺得徬徨無助如果有個諮詢管道可以了解，並且告訴您該如何維護和保障自己的權益，那該有多好。
+這就是韻璇的初衷，所以特別邀請專業律師駐點服務處，希望可以替市民朋友提供諮詢，更了解接下來該如何處理；除了法律諮詢，服務處也提供地政諮詢唷
+&lt;br&gt;&lt;br&gt;
+讓不了解地政相關資訊的鄉親朋友可以先加以了解，未來再辦理相關事項時，可以更快速的辦理完成，節省您寶貴的時間以上服務只要加入韻璇Line好友，就可以讓服務更即時哦。讓我們樓上揪樓下、厝邊拉隔壁、阿公牽阿嬤、爸爸甲媽媽！
+一同加入【孫韻璇LINE＠好友】瞭解更多相關諮詢服務，歡迎有問題也可以直接留言，韻璇都會一一看過哦
+&lt;br&gt;&lt;br&gt;
+&lt;ul&gt;
+   &lt;li&gt;孫韻璇LINE ID：@sun0976315743&lt;/li&gt;
+   &lt;li&gt;法律諮詢：每週三晚上6:00~8:00. &lt;a href="</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>https://forms.gle/oN9hpTZYZ4nwWBGu5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>" &gt;預約服務&lt;/a&gt; &lt;/li&gt;
+   &lt;li&gt;地政諮詢：週一、四，下午2:00~4:00 &lt;a href="</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>https://forms.gle/wcZGdvf1XzG3nW8y9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"&gt;預約服務&lt;/a&gt; &lt;/li&gt;
+&lt;/ul&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-012.jpeg" alt="法律諮詢" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">，韻璇邀請#樂善里黃錦芳里長、交通局、龜山分局、龜山區公所現場場勘。&lt;br&gt;&lt;br&gt;
+會勘結論因上下班交通流量大，雙向車流號誌時相設計上下午尖峰時段輪放早開三時開放文桃路左轉文南秒數增加，另文南路拓寬工程，韻璇也會積極請工務局加快推進。&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-013.jpeg" alt="文桃路" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">隨著公幼、非營利幼兒園報名抽籤的日期接近，很多家長都非常關心正在興建中的兩座非營利幼兒園，紛紛來電服務處詢問，所以我也趕緊來現場確認施工進度～先講結論&lt;br&gt;&lt;br&gt;1、今年度招生簡章上會有這兩間。&lt;br&gt;
+2、新開設的幼兒園開學日期可能會晚一點，預計落在今年10月。&lt;br&gt;
+3、兩間都有2個兩歲專班、3個3-5歲混齡班。&lt;br&gt;&lt;br&gt;
+今日我和幼教科余科長、大湖國小張校長、文青國中小張校長現場確認施工狀況都如預期，除了教室、廚房、行政空間之外，也都有保留大肢體活動區讓孩子可以蹦蹦跳跳～小寶貝的廁所則是規劃在兩間教室的中間，想上廁所不用跑很遠，也兼顧安全性！&lt;br&gt;&lt;br&gt;
+另外，雅倫不斷爭取的兩歲專班，也會從去年的6班增加到今年的13個班，包含迴龍附幼、大埔附幼、幸福附幼、龜山幼兒園苓林分班、光峰非營利、文德非營利及大湖、文青非營利幼兒園等～&lt;br&gt;&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-014.jpeg" alt="文青國小" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">感謝行政院及市府團隊，最快七月，北北基桃生活圈的交通月票1200吃到飽政策上路，但是桃園市準備好了嗎？&lt;br&gt;&lt;br&gt;
+1200對桃園、對龜山都非常重要，所以今日我就1200的議題跟交通局長、桃捷董事長交鋒討論超過十分鐘(議會限制提專案的議員每位發言十分鐘)。&lt;br&gt;&lt;br&gt;
+第一個最重要的「 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#預算來源不明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">」，當初張市長在提出通勤月票的政見時，並沒有辦法預期中央要協助補助多少，但是張市長還是勇敢提出這樣的政見，今日我在詢問局長預算來源時，局長卻無法正面回應。&lt;br&gt;&lt;br&gt;
+第二個大家擔心的「 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#機捷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">」會不會納入1200月票，會的。並且我也要求桃捷董事長 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#縮短班距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">、 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#增加班次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">，經過我爭取，董事長承諾，短期計畫在今年四月份會先針對A7、A8、A9尖峰時段增加一班車，長期會在今年七月1200實施後，視運量來研究增加班次。 &lt;br&gt;&lt;br&gt;
+第三個 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#司機荒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 的問題嚴峻，導致舊有公車減班、要新闢的公車開不出來，司機超時工作影響服務品質，我也請局長想辦法提升司機員的福利薪資，不要到時候1200上路、民眾卻無車可坐。&lt;br&gt;&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-015.jpeg" alt="交通月票" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2023/03/08 議事堂上，再來談談 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#垃圾問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 的困擾，我認為不是你丟我撿，民眾通報然後清潔隊員來掃這樣而已。 我知道像A7重劃區、龜山區公所周遭、楓樹、舊路、龍壽、福源、兔坑、新嶺等山區產業道路旁等地，很容易被丟棄垃圾，我跟環保局長討論這些問題該如何從根本解決，也有達到共識。&lt;br&gt;&lt;br&gt;
+一、針對建案週遭的垃圾，請環保局跟建商溝通 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#認養周邊道路定時清掃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">，也可以提升建商的形象，局長表示會著手來進行。&lt;br&gt;
+二、針對上述提到亂丟垃圾的熱點區域， </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#加裝縮時攝影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">。&lt;br&gt;
+三、龜山只論戶籍人口的話，每位清潔隊員服務市民比是890人，遠高於桃園市其他行政區，更高於桃園的平均841人，也高於台北的481人與新北的750人。更何況龜山有長庚醫院、工業區、大專院校帶來的眾多流動人口，因此我要求環保局今年必須優先 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#補充龜山區清潔隊員人力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。 &lt;br&gt;&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-016.jpeg" alt="垃圾問題" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;br&gt;&lt;br&gt;
+2023/03/10 前日我在專案報告中要求環保局裝設髒亂熱點縮時攝影，今日說裝就裝，陸陸續續現勘裝設了幾個地方，也會不時換地方裝設，無論是看起來人煙稀少的產業道路、或是重劃區，亂丟垃圾、傾倒廢棄物的人千萬不要心存僥倖！！！&lt;br&gt;
+2023/03/11 &lt;a href="</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>https://news.ltn.com.tw/news/life/breakingnews/4236241?fbclid=IwAR0ODN4FCJA1AWDEB8UpTsiynNP2PbKemI9-dwmB3iRbgea7k-43NbwD3DY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"&gt;自由時報報導&lt;/a&gt;
+&lt;br&gt;&lt;br&gt;
+&lt;img src="fig/XLK-511-Announcement/A7XLK-5101-陳雅倫-07.jpeg" class="img-fluid" style="width:600px"&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-016B.jpeg" alt="垃圾問題" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">寄養服務 讓一家人團結起來做好事&lt;br&gt;&lt;br&gt;
+將更多的愛與關懷，付出在每個需要的孩童身上，讓孩童走出原生家庭的陰霾，重新蛻變～展開一段新的旅程！&lt;br&gt;&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#桃園市市長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#張善政</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 和韻璇一樣，非常關心 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#桃園弱勢孩童</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> ，更感謝每戶寄養家庭的無私奉獻，提供孩童一個安全無虞、充滿愛心的新住所 &lt;br&gt;&lt;br&gt;
+ 韻璇希望鄉親朋友能夠將這份愛心繼續擴大，讓桃園 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>#寄養家庭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 可以突破百戶，讓更多弱勢孩童可以順利成長 &lt;br&gt;&lt;br&gt;
+孩子無法選擇父母，而寄養家庭則可以提供孩童一個暫時性的避風港，讓他們可以得到妥善保護與照顧，在現今的社會裡，並非有血緣關係的才是家人只要能夠真心呵護、保護、給你溫暖的都算是哦&lt;br&gt;&lt;br&gt;
+請聯繫 &lt;a href=" </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>https://www.ccf.org.tw/59/service/MTE3Ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="標楷體"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;桃園家扶中心&lt;/a&gt;
+&lt;br&gt;&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-017.jpeg" alt="寄養服務" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>本辦接獲民眾陳情，青山路二段路邊側溝容易造成機車摔落！ 我們發現，屬新北市範圍內的青山路一段都有加蓋或設置護欄，但屬桃園龜山區範圍內的青山路二段，沒有加蓋、沒有護欄，騎士行經此路段時，容易感受到縣市的落差及不安全感，也可能導致疏忽摔落側溝。&lt;br&gt;&lt;br&gt;
+青山路二段是桃園龜山與新北往來的交通要道，車流量大、彎道多且坡度大，為了提升路段安全，交通局先前也在此實施區間測速、禁行6.5噸以上大貨車等規定。&lt;br&gt;&lt;br&gt;我請同仁去調閱此路段近一年的交通事故狀況，發現這邊去年的交通事故高達115件，顯然可見，此路段還有許多需要改善的地方。&lt;br&gt;&lt;br&gt;
+因此宗豪邀集市府相關單位及文青里長至現場會勘，希望能改善此路段狀況，像是分隔島上已毀損的防眩板需做修繕、因車禍撞毀的行人號誌燈需儘速修復，以及側溝加蓋或設立護欄等，我也要求市府做出一份綜合評估報告，能立即調整的地方盡快來改善，以保障用路人安全。&lt;br&gt;&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-018.jpeg" alt="青山路安全" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">先前我們收到民眾反應，文學文青 T 字路口道路轉彎的幅度小，因此車輛轉彎時速度很快，行人穿越線也順著轉彎的幅度拉長了一段距離，但卻造成過馬路時間可能不足，容易造成行人危險。&lt;br&gt;&lt;br&gt;
+查閱相關資料研究後，安排時間與文青里里長、交通局一同會勘，共同商討如何解決，現場勘查後結論如下：&lt;br&gt;&lt;br&gt; 
+調整路口大幅度轉彎帶：與交通局研議設置標線型綠色人行道來填補彎道，讓彎道增加角度以有效減緩車速，從而限制車輛速度。&lt;br&gt;
+調整行人號誌燈：請交通局研議增加過馬路的秒數，文學路本身路面就較為寬廣，行人往往在一段距離看到秒數不足，會想要快速跑去，然又因路面彎度小、車速快，易形成交通事故，所以請交通局考慮增加秒數，避免行人為求過路而釀成&lt;br&gt;&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-020.jpeg" alt="文青路口" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">f民眾反映長庚醫院公車站牌常常有進入停車塲車輛車堵在公車停車格，搭乘公車民眾需走到車道上車，容易造成危險。&lt;br&gt;&lt;br&gt;韻璇前日邀請長庚醫院及交通局共同會勘，該站位分群候車共5格公車格（依序為紅、紅、綠、綠、黃），其中2格紅色為本市公車、免費公車及部分國道路線停靠使用，經研議：國道路線及本市711路線已進駐桃園長庚轉運站，格位尖峰時段使用率已減少，取消1格紅色公車格，並依序調整公車格順序，而在往停車場等候區將多出等待空間，韻璇也請長庚醫院針對尖峰時段協助引導車輛，讓民眾安全通行。
+&lt;br&gt;&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-019.jpeg" alt="公車站" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3326,7 +2230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3388,19 +2292,6 @@
       <sz val="9"/>
       <name val="Wawati TC"/>
       <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF050505"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF050505"/>
-      <name val="PMingLiU"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -3479,12 +2370,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="PingFang TC Regular"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3665,11 +2550,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3730,16 +2615,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -3760,7 +2639,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -3769,25 +2648,22 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -3805,19 +2681,34 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4951,10 +3842,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13"/>
@@ -4990,7 +3881,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -5006,44 +3897,44 @@
     </row>
     <row r="2" spans="1:11" ht="99">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="40">
+      <c r="E2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="37">
         <v>45204</v>
       </c>
-      <c r="I2" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="I2" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="56">
       <c r="A3" s="7" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>9</v>
@@ -5051,495 +3942,495 @@
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="42">
+      <c r="F3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="39">
         <v>45181</v>
       </c>
-      <c r="I3" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="I3" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="1:11" ht="101">
       <c r="A4" s="7" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="42">
+        <v>10</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="39">
         <v>45159</v>
       </c>
-      <c r="I4" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+      <c r="I4" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="101">
       <c r="A5" s="7" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="42">
+        <v>10</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="39">
         <v>45157</v>
       </c>
-      <c r="I5" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
+      <c r="I5" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="84">
       <c r="A6" s="7" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="H6" s="42">
+        <v>10</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="39">
         <v>45138</v>
       </c>
-      <c r="I6" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="I6" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="56">
       <c r="A7" s="7" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="42">
+        <v>10</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="39">
         <v>45103</v>
       </c>
-      <c r="I7" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
+      <c r="I7" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="70">
       <c r="A8" s="7" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="42">
+        <v>20</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="39">
         <v>45092</v>
       </c>
-      <c r="I8" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="I8" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" ht="45">
       <c r="A9" s="7" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="42">
+        <v>10</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="39">
         <v>45071</v>
       </c>
-      <c r="I9" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
+      <c r="I9" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="393">
       <c r="A10" s="7" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="42">
+        <v>10</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="39">
         <v>45058</v>
       </c>
-      <c r="I10" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
+      <c r="I10" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
     </row>
     <row r="11" spans="1:11" ht="345">
       <c r="A11" s="7" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="42">
+        <v>10</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="39">
         <v>45057</v>
       </c>
-      <c r="I11" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
+      <c r="I11" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="12" spans="1:11" ht="115">
       <c r="A12" s="7" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="42">
+        <v>10</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="39">
         <v>45051</v>
       </c>
-      <c r="I12" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
+      <c r="I12" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
     </row>
     <row r="13" spans="1:11" ht="409.6">
       <c r="A13" s="7" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="42">
+        <v>20</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="39">
         <v>45029</v>
       </c>
-      <c r="I13" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+      <c r="I13" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="344">
       <c r="A14" s="7" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="H14" s="42">
+        <v>20</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="39">
         <v>45029</v>
       </c>
-      <c r="I14" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
+      <c r="I14" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="168">
       <c r="A15" s="7" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="H15" s="42">
+        <v>10</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="39">
         <v>45027</v>
       </c>
-      <c r="I15" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
+      <c r="I15" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="101">
       <c r="A16" s="7" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="H16" s="42">
+        <v>20</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="39">
         <v>45024</v>
       </c>
-      <c r="I16" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
+      <c r="I16" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="84">
       <c r="A17" s="7" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="H17" s="42">
+        <v>20</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="39">
         <v>45020</v>
       </c>
-      <c r="I17" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
+      <c r="I17" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="84">
-      <c r="A18" s="23" t="s">
-        <v>199</v>
+      <c r="A18" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="H18" s="42">
+        <v>20</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="39">
         <v>45016</v>
       </c>
-      <c r="I18" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="I18" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="48">
       <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>9</v>
@@ -5548,7 +4439,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>11</v>
@@ -5562,15 +4453,15 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="144">
+    <row r="20" spans="1:11" ht="176">
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>9</v>
@@ -5579,29 +4470,29 @@
         <v>10</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="H20" s="13">
         <v>45001</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" ht="176">
+    <row r="21" spans="1:11" ht="208">
       <c r="A21" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>9</v>
@@ -5610,29 +4501,29 @@
         <v>10</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="H21" s="13">
         <v>45001</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="160">
+    <row r="22" spans="1:11" ht="192">
       <c r="A22" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>9</v>
@@ -5641,120 +4532,120 @@
         <v>10</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="H22" s="13">
         <v>45000</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="182">
+    <row r="23" spans="1:11" ht="196">
       <c r="A23" s="17" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="H23" s="15">
+      <c r="G23" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="48">
         <v>44999</v>
       </c>
-      <c r="I23" s="21" t="s">
-        <v>204</v>
+      <c r="I23" s="49" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="208">
+    <row r="24" spans="1:11" ht="240">
       <c r="A24" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="41">
+        <v>20</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="38">
         <v>44998</v>
       </c>
-      <c r="I24" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
+      <c r="I24" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
     </row>
-    <row r="25" spans="1:11" ht="304">
+    <row r="25" spans="1:11" ht="395">
       <c r="A25" s="17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="38">
+        <v>44993</v>
+      </c>
+      <c r="I25" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="41">
-        <v>44993</v>
-      </c>
-      <c r="I25" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
     </row>
-    <row r="26" spans="1:11" ht="208">
+    <row r="26" spans="1:11" ht="240">
       <c r="A26" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>9</v>
@@ -5762,61 +4653,61 @@
       <c r="E26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="41">
+      <c r="F26" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" s="38">
         <v>44992</v>
       </c>
-      <c r="I26" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
+      <c r="I26" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
     </row>
-    <row r="27" spans="1:11" ht="176">
+    <row r="27" spans="1:11" ht="208">
       <c r="A27" s="17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" s="38">
+        <v>44991</v>
+      </c>
+      <c r="I27" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" s="41">
-        <v>44991</v>
-      </c>
-      <c r="I27" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
     </row>
-    <row r="28" spans="1:11" ht="80">
+    <row r="28" spans="1:11" ht="112">
       <c r="A28" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>9</v>
@@ -5824,61 +4715,61 @@
       <c r="E28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="34" t="s">
+      <c r="F28" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" s="38">
+        <v>44985</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+    </row>
+    <row r="29" spans="1:11" ht="335">
+      <c r="A29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="41">
-        <v>44985</v>
-      </c>
-      <c r="I28" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-    </row>
-    <row r="29" spans="1:11" ht="366">
-      <c r="A29" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="B29" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="41">
+        <v>20</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="38">
         <v>44973</v>
       </c>
-      <c r="I29" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
+      <c r="I29" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
     </row>
-    <row r="30" spans="1:11" ht="48">
+    <row r="30" spans="1:11" ht="80">
       <c r="A30" s="17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>9</v>
@@ -5886,30 +4777,30 @@
       <c r="E30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="41">
+      <c r="F30" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="38">
         <v>44969</v>
       </c>
-      <c r="I30" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
+      <c r="I30" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
     </row>
-    <row r="31" spans="1:11" ht="96">
+    <row r="31" spans="1:11" ht="128">
       <c r="A31" s="17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>9</v>
@@ -5917,154 +4808,148 @@
       <c r="E31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="41">
+      <c r="F31" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31" s="38">
         <v>44965</v>
       </c>
-      <c r="I31" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
+      <c r="I31" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
     </row>
-    <row r="32" spans="1:11" ht="128">
+    <row r="32" spans="1:11" ht="160">
       <c r="A32" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="41">
+        <v>20</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" s="38">
         <v>44964</v>
       </c>
-      <c r="I32" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
+      <c r="I32" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
     </row>
     <row r="33" spans="1:11" ht="236">
       <c r="A33" s="17" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" s="38">
+        <v>44958</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+    </row>
+    <row r="34" spans="1:11" ht="365">
+      <c r="A34" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="41">
-        <v>44958</v>
-      </c>
-      <c r="I33" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-    </row>
-    <row r="34" spans="1:11" ht="350">
-      <c r="A34" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="C34" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="41">
+        <v>20</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="38">
         <v>44942</v>
       </c>
-      <c r="I34" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
+      <c r="I34" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
     </row>
     <row r="35" spans="1:11" ht="224">
       <c r="A35" s="17" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" s="41">
+        <v>32</v>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="G35" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" s="38">
         <v>44937</v>
       </c>
-      <c r="I35" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
+      <c r="I35" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
     </row>
-    <row r="36" spans="1:11" ht="96">
+    <row r="36" spans="1:11" ht="128">
       <c r="A36" s="17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>9</v>
@@ -6072,92 +4957,90 @@
       <c r="E36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" s="41">
+      <c r="F36" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="H36" s="38">
         <v>44937</v>
       </c>
-      <c r="I36" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
+      <c r="I36" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
     </row>
     <row r="37" spans="1:11" ht="409.6">
       <c r="A37" s="17" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" s="38">
+        <v>44915</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+    </row>
+    <row r="38" spans="1:11" ht="128">
+      <c r="A38" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" s="41">
-        <v>44915</v>
-      </c>
-      <c r="I37" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-    </row>
-    <row r="38" spans="1:11" ht="133">
-      <c r="A38" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="H38" s="38">
+        <v>44910</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+    </row>
+    <row r="39" spans="1:11" ht="176">
+      <c r="A39" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="41">
-        <v>44910</v>
-      </c>
-      <c r="I38" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-    </row>
-    <row r="39" spans="1:11" ht="160">
-      <c r="A39" s="24" t="s">
-        <v>59</v>
-      </c>
       <c r="B39" s="5" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>9</v>
@@ -6165,55 +5048,53 @@
       <c r="E39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="41">
+      <c r="F39" s="24"/>
+      <c r="G39" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="38">
         <v>44903</v>
       </c>
-      <c r="I39" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
+      <c r="I39" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
     </row>
     <row r="40" spans="1:11" ht="192">
-      <c r="A40" s="22" t="s">
-        <v>56</v>
+      <c r="A40" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="41">
+        <v>20</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" s="38">
         <v>44576</v>
       </c>
-      <c r="I40" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
+      <c r="I40" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:L40">
-    <sortCondition descending="1" ref="H1:H40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I40">
+    <sortCondition descending="1" ref="H2:H40"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EC21C8-0978-8247-97A8-669AA3379130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526D4298-D11D-C746-AAEF-247ED1978EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="26740" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="198">
   <si>
     <t>Title</t>
   </si>
@@ -477,10 +477,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>增設機車停車位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> A7站周邊增加了50個機車格</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -535,60 +531,6 @@
         <charset val="136"/>
       </rPr>
       <t>" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>七月開始1200月票開通、大坪頂循環線開始試辦、機捷增班等，皆是希望讓大家多多搭乘大眾運輸。
-但是常常到了A7站的時候卻沒有機車位可以停，為此雅倫在議會建議、現場會勘爭取，在 #A7站周邊增加了50個機車格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">，希望可以讓通勤族更便利。
-1200上路，大眾運輸及配套措施都應該要跟著升級，然而現況公車班次極不穩定、司機員數量嚴重不足等，我會繼續爭取成立公共運輸處，提升桃園整體大眾運輸的環境！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-025.jpeg" alt="A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>機車停車位" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -632,20 +574,12 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>試辦《公滯一》改為乾式滯洪池公園</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>文化一路跟樂善三路交叉口的公滯一
 鄰近 #甲子園 #華悅城 #根津苑 #水悅青青 社區</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>https://www.facebook.com/groups/a7xinlinkou/permalink/544863374285582/</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>《大坪頂循環公車》6/8定線會勘</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2223,6 +2157,71 @@
 &lt;br&gt;&lt;br&gt;
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-019.jpeg" alt="公車站" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>N025</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>增設機車停車位-2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>增設機車停車位-1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p&gt;機捷運量增加，配套也要跟上，增加站外停車格，持續照顧通勤族🙌🏻
+1200月票上路，搭乘機捷的民眾增加，轉乘的停車需求也浮現，機捷站外的停車格已經供不應求。
+我從去年就向局處建議，到今年在議會上也不斷提出通勤族停車空間的需求，終於有一小步的改變，成功爭取✅在機捷A7站外新增50個機車停車格🎉需要騎車轉乘機捷的民眾可以多加利用。&lt;/p&gt;
+&lt;p&gt;建議也可以多利用大眾運輸工具轉乘：&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;✅607「長庚醫院-迴龍」公車正式上路&lt;/li&gt;
+&lt;li&gt;✅606「大坪頂循環線」公車試辦中&lt;li&gt;
+&lt;/ul&gt;
+&lt;p&gt;這二條都是方便民眾轉乘機捷A7、A8站的公車路線，服務大坪頂地區鄉親通勤、通學、就醫需求，鼓勵大家多搭乘，未來才有機會為大家爭取更多路線，讓大眾運輸服務路網更綿密。&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-025.jpeg" alt="A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>機車停車位" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 爭取A7站外機車格，騎機車轉乘機捷的通勤族可以多加利用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大坪頂循環公車 6/8定線會勘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>試辦公滯一改為乾式滯洪池公園</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3842,10 +3841,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13"/>
@@ -3959,7 +3958,7 @@
     </row>
     <row r="4" spans="1:11" ht="101">
       <c r="A4" s="7" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>72</v>
@@ -3974,10 +3973,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>115</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>116</v>
       </c>
       <c r="H4" s="39">
         <v>45159</v>
@@ -3988,12 +3987,12 @@
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
     </row>
-    <row r="5" spans="1:11" ht="101">
+    <row r="5" spans="1:11" ht="182">
       <c r="A5" s="7" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>47</v>
@@ -4005,23 +4004,23 @@
         <v>10</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="H5" s="39">
         <v>45157</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="84">
       <c r="A6" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>93</v>
@@ -4036,23 +4035,23 @@
         <v>10</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H6" s="39">
         <v>45138</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J6" s="43"/>
       <c r="K6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="56">
       <c r="A7" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>94</v>
@@ -4067,23 +4066,23 @@
         <v>10</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H7" s="39">
         <v>45103</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J7" s="43"/>
       <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="70">
       <c r="A8" s="7" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>95</v>
@@ -4098,23 +4097,23 @@
         <v>20</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H8" s="39">
         <v>45092</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J8" s="43"/>
       <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" ht="45">
       <c r="A9" s="7" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>96</v>
@@ -4129,23 +4128,23 @@
         <v>10</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>131</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>135</v>
       </c>
       <c r="H9" s="39">
         <v>45071</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J9" s="43"/>
       <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="393">
       <c r="A10" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>98</v>
@@ -4160,23 +4159,23 @@
         <v>10</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H10" s="39">
         <v>45058</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J10" s="43"/>
       <c r="K10" s="43"/>
     </row>
     <row r="11" spans="1:11" ht="345">
       <c r="A11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>97</v>
@@ -4191,23 +4190,23 @@
         <v>10</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H11" s="39">
         <v>45057</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J11" s="43"/>
       <c r="K11" s="43"/>
     </row>
     <row r="12" spans="1:11" ht="115">
       <c r="A12" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>99</v>
@@ -4222,23 +4221,23 @@
         <v>10</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H12" s="39">
         <v>45051</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J12" s="43"/>
       <c r="K12" s="43"/>
     </row>
     <row r="13" spans="1:11" ht="409.6">
       <c r="A13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>100</v>
@@ -4253,23 +4252,23 @@
         <v>20</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H13" s="39">
         <v>45029</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J13" s="43"/>
       <c r="K13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="344">
       <c r="A14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>101</v>
@@ -4284,23 +4283,23 @@
         <v>20</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H14" s="39">
         <v>45029</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J14" s="43"/>
       <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="168">
       <c r="A15" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>102</v>
@@ -4315,23 +4314,23 @@
         <v>10</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H15" s="39">
         <v>45027</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="101">
       <c r="A16" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>103</v>
@@ -4346,23 +4345,23 @@
         <v>20</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H16" s="39">
         <v>45024</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="84">
       <c r="A17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>104</v>
@@ -4377,23 +4376,23 @@
         <v>20</v>
       </c>
       <c r="F17" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="34" t="s">
         <v>165</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>169</v>
       </c>
       <c r="H17" s="39">
         <v>45020</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="84">
       <c r="A18" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>105</v>
@@ -4408,16 +4407,16 @@
         <v>20</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H18" s="39">
         <v>45016</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
@@ -4473,7 +4472,7 @@
         <v>78</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H20" s="13">
         <v>45001</v>
@@ -4504,7 +4503,7 @@
         <v>74</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H21" s="13">
         <v>45001</v>
@@ -4535,7 +4534,7 @@
         <v>75</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H22" s="13">
         <v>45000</v>
@@ -4548,7 +4547,7 @@
     </row>
     <row r="23" spans="1:11" ht="196">
       <c r="A23" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>106</v>
@@ -4563,16 +4562,16 @@
         <v>10</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H23" s="48">
         <v>44999</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="240">
@@ -4595,7 +4594,7 @@
         <v>76</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H24" s="38">
         <v>44998</v>
@@ -4626,7 +4625,7 @@
         <v>79</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H25" s="38">
         <v>44993</v>
@@ -4657,7 +4656,7 @@
         <v>80</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H26" s="38">
         <v>44992</v>
@@ -4688,7 +4687,7 @@
         <v>81</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H27" s="38">
         <v>44991</v>
@@ -4719,7 +4718,7 @@
         <v>77</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H28" s="38">
         <v>44985</v>
@@ -4750,7 +4749,7 @@
         <v>82</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H29" s="38">
         <v>44973</v>
@@ -4781,7 +4780,7 @@
         <v>83</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H30" s="38">
         <v>44969</v>
@@ -4812,7 +4811,7 @@
         <v>84</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H31" s="38">
         <v>44965</v>
@@ -4841,7 +4840,7 @@
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="32" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H32" s="38">
         <v>44964</v>
@@ -4870,7 +4869,7 @@
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="29" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H33" s="38">
         <v>44958</v>
@@ -4901,7 +4900,7 @@
         <v>90</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H34" s="38">
         <v>44942</v>
@@ -4930,7 +4929,7 @@
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="32" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H35" s="38">
         <v>44937</v>
@@ -4961,7 +4960,7 @@
         <v>86</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H36" s="38">
         <v>44937</v>
@@ -4990,7 +4989,7 @@
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H37" s="38">
         <v>44915</v>
@@ -5021,7 +5020,7 @@
         <v>87</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H38" s="38">
         <v>44910</v>
@@ -5050,7 +5049,7 @@
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="51" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H39" s="38">
         <v>44903</v>
@@ -5081,7 +5080,7 @@
         <v>88</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H40" s="38">
         <v>44576</v>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526D4298-D11D-C746-AAEF-247ED1978EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9193876-6E94-E544-AE3A-914758F2DDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="26740" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="200">
   <si>
     <t>Title</t>
   </si>
@@ -60,7 +60,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">3月份雅倫在議會爭取 </t>
     </r>
@@ -70,7 +69,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#機場捷運增加班次</t>
     </r>
@@ -79,7 +77,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">、 </t>
     </r>
@@ -89,7 +86,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#縮短班距</t>
     </r>
@@ -98,7 +94,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">，感謝機捷先行增加A10往A1的班次，未來月票即將上路，運量勢必也會再提升，針對我們這個生活圈大量的通勤族，我會繼續爭取增班
 </t>
@@ -444,7 +439,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> &lt;br&gt;
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-022.jpeg" alt="行動圖書車" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
@@ -1303,7 +1297,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">孫韻璇發文: 對於未能挺過的病患及家屬，政府也深表難過！
 </t>
@@ -1313,7 +1306,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">&lt;ul style="list-style:none; padding-left:0em; "&gt;
    &lt;li&gt;衛福部更將追溯自109年1月15日後，確診往生家屬，發放10萬元喪葬慰問金。&lt;/li&gt;
@@ -1326,7 +1318,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">希望能透過這份關懷的心意，撫慰COVID-19受創家屬之情緒，減輕家中的經濟負擔！本補助方案視預算為主，最晚申請期限2022/12/31 &lt;br&gt;&lt;br&gt;
 補助相關問題請洽：
@@ -1355,7 +1346,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM</t>
     </r>
@@ -1364,7 +1354,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">"&gt;林口交流道匝道 進度&lt;/a&gt;:
 林口交流道增設南出北入匝道工程原核定工期30個月，但流標9次，高公局調整工期時間及增加經費，工程總經費增加為37.2億元，工期增加48個月，預計2026年12月完工通車。 &lt;br&gt;&lt;br&gt;
@@ -1375,7 +1364,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">陳雅倫議員與新北市蔡淑君議員團隊共同邀集兩市交通局長官，在交通最尖峰時刻來關心林口交流道周邊號誌連動及交通優化問題。並建議市府將 </t>
     </r>
@@ -1385,7 +1373,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#龜山一路道路拓寬工程脫鉤處理</t>
     </r>
@@ -1394,7 +1381,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">，因工程較單純，且A8轉運站落成，要求桃園市府先優先設計施作。
 &lt;br&gt;&lt;br&gt;
@@ -1405,7 +1391,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-002.jpeg" alt="文青國小" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 </t>
@@ -1418,7 +1403,6 @@
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1428,7 +1412,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">陳雅倫發文: 感謝鄭文燦市長大力推動，感謝長庚投資14.6億元興建，是桃園市政府與長庚合作的BOT案。&lt;br&gt;&lt;br&gt;
 這是一個結合公車、機捷、計程車、youbike等多運具轉乘的大型轉運站，還有580格汽車格、1040格機車車格，可以舒緩周邊交通壓力，地下連通道還可直達長庚醫院。 &lt;br&gt;&lt;br&gt;
@@ -1464,7 +1447,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>https://www.facebook.com/groups/389119991183274/posts/2083583925070197/</t>
     </r>
@@ -1473,7 +1455,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">"&gt;公寓大廈管理委員會交流協會&lt;/a&gt;
 &lt;br&gt;&lt;br&gt;
@@ -1484,7 +1465,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-004.jpeg" alt="公寓管理" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;br&gt;&lt;br&gt;
@@ -1532,7 +1512,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-005.jpeg" alt="A7建設" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     </r>
@@ -1557,7 +1536,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-007.jpeg" alt="文青活動中心" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 </t>
@@ -1570,7 +1548,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">孫韻璇發文: 在萬物皆漲 但薪水沒漲的情況，韻璇想為孩子和爸爸媽媽盡一份心為生長在桃園的孩童爭取營養午餐減免補助！ &lt;br&gt;&lt;br&gt;
 很慶幸！前陣子此項目已順利編列入預算希望最快在2023年2月實施。待確實執行後，相信至少能減免15萬孩童的營養午餐問題，減輕爸爸媽媽在育兒上的開支。&lt;br&gt;&lt;br&gt;
@@ -1591,7 +1568,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">韻璇知道，許多家長聽到這消息一定喜憂參半，擔心會不會因為「全額補助」而對菜色有所影響？請別擔心 韻璇都有替爸爸媽媽注意決議校園營養午餐減免同時，政府也十分重視孩子健康面對未來中央餐廚的環境品質、食安問題也會更加嚴謹！決不因為 免費 而讓品質打折扣，這是韻璇最不能接受的。&lt;br&gt;&lt;br&gt;
 </t>
@@ -1611,7 +1587,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">我們只希望，讓桃園 國中小的孩子們在校園也可以吃的像在家一樣充滿營養又健康。也能減輕爸爸媽媽經濟上的負擔哦 &lt;br&gt;&lt;br&gt;
 </t>
@@ -1653,7 +1628,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-009.jpeg" alt="法律諮詢" sizes="sm:100vw md:150vw lg:200vw" /&gt;
@@ -1667,7 +1641,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">孫韻璇議員發文: 里長反應文青里二期內道路開闢工程變三道路拓寬後，文藝街街口也變寬了，因道路拓寬後許多車輛就停在上面，容易導致救災車輛無法順利通行。韻璇今日與文青里里長謝嘉仁、華亞別莊管委會、區公所、營造公司、技術顧問公司共同會勘，決議在兩側都將紅線畫上，才不會讓當初拓勘道路美意打折。
 &lt;br&gt;&lt;br&gt;
@@ -1678,7 +1651,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-010.jpeg" alt="文藝街" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
@@ -1691,7 +1663,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">由2023/02/13日起 以605B 持續營運 並由原每日10班次增加為12班次。 &lt;br&gt;&lt;br&gt;
 </t>
@@ -1701,7 +1672,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-011.jpeg" alt="公車" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
@@ -1729,7 +1699,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>https://forms.gle/oN9hpTZYZ4nwWBGu5</t>
     </r>
@@ -1738,7 +1707,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>" &gt;預約服務&lt;/a&gt; &lt;/li&gt;
    &lt;li&gt;地政諮詢：週一、四，下午2:00~4:00 &lt;a href="</t>
@@ -1749,7 +1717,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>https://forms.gle/wcZGdvf1XzG3nW8y9</t>
     </r>
@@ -1758,7 +1725,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>"&gt;預約服務&lt;/a&gt; &lt;/li&gt;
 &lt;/ul&gt;
@@ -1773,7 +1739,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重</t>
     </r>
@@ -1782,7 +1747,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">，韻璇邀請#樂善里黃錦芳里長、交通局、龜山分局、龜山區公所現場場勘。&lt;br&gt;&lt;br&gt;
 會勘結論因上下班交通流量大，雙向車流號誌時相設計上下午尖峰時段輪放早開三時開放文桃路左轉文南秒數增加，另文南路拓寬工程，韻璇也會積極請工務局加快推進。&lt;br&gt;&lt;br&gt;
@@ -1793,7 +1757,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-013.jpeg" alt="文桃路" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     </r>
@@ -1821,7 +1784,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#預算來源不明</t>
     </r>
@@ -1830,7 +1792,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">」，當初張市長在提出通勤月票的政見時，並沒有辦法預期中央要協助補助多少，但是張市長還是勇敢提出這樣的政見，今日我在詢問局長預算來源時，局長卻無法正面回應。&lt;br&gt;&lt;br&gt;
 第二個大家擔心的「 </t>
@@ -1841,7 +1802,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#機捷</t>
     </r>
@@ -1850,7 +1810,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">」會不會納入1200月票，會的。並且我也要求桃捷董事長 </t>
     </r>
@@ -1860,7 +1819,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#縮短班距</t>
     </r>
@@ -1869,7 +1827,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">、 </t>
     </r>
@@ -1879,7 +1836,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#增加班次</t>
     </r>
@@ -1888,7 +1844,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">，經過我爭取，董事長承諾，短期計畫在今年四月份會先針對A7、A8、A9尖峰時段增加一班車，長期會在今年七月1200實施後，視運量來研究增加班次。 &lt;br&gt;&lt;br&gt;
 第三個 </t>
@@ -1899,7 +1854,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#司機荒</t>
     </r>
@@ -1908,7 +1862,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> 的問題嚴峻，導致舊有公車減班、要新闢的公車開不出來，司機超時工作影響服務品質，我也請局長想辦法提升司機員的福利薪資，不要到時候1200上路、民眾卻無車可坐。&lt;br&gt;&lt;br&gt;
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-015.jpeg" alt="交通月票" sizes="sm:100vw md:150vw lg:200vw" /&gt;
@@ -1926,7 +1879,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#垃圾問題</t>
     </r>
@@ -1935,7 +1887,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> 的困擾，我認為不是你丟我撿，民眾通報然後清潔隊員來掃這樣而已。 我知道像A7重劃區、龜山區公所周遭、楓樹、舊路、龍壽、福源、兔坑、新嶺等山區產業道路旁等地，很容易被丟棄垃圾，我跟環保局長討論這些問題該如何從根本解決，也有達到共識。&lt;br&gt;&lt;br&gt;
 一、針對建案週遭的垃圾，請環保局跟建商溝通 </t>
@@ -1946,7 +1897,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#認養周邊道路定時清掃</t>
     </r>
@@ -1955,7 +1905,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">，也可以提升建商的形象，局長表示會著手來進行。&lt;br&gt;
 二、針對上述提到亂丟垃圾的熱點區域， </t>
@@ -1966,7 +1915,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#加裝縮時攝影</t>
     </r>
@@ -1975,7 +1923,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">。&lt;br&gt;
 三、龜山只論戶籍人口的話，每位清潔隊員服務市民比是890人，遠高於桃園市其他行政區，更高於桃園的平均841人，也高於台北的481人與新北的750人。更何況龜山有長庚醫院、工業區、大專院校帶來的眾多流動人口，因此我要求環保局今年必須優先 </t>
@@ -1986,7 +1933,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#補充龜山區清潔隊員人力</t>
     </r>
@@ -1995,7 +1941,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>。 &lt;br&gt;&lt;br&gt;
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-016.jpeg" alt="垃圾問題" sizes="sm:100vw md:150vw lg:200vw" /&gt;
@@ -2009,7 +1954,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>https://news.ltn.com.tw/news/life/breakingnews/4236241?fbclid=IwAR0ODN4FCJA1AWDEB8UpTsiynNP2PbKemI9-dwmB3iRbgea7k-43NbwD3DY</t>
     </r>
@@ -2018,7 +1962,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>"&gt;自由時報報導&lt;/a&gt;
 &lt;br&gt;&lt;br&gt;
@@ -2039,7 +1982,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#桃園市市長</t>
     </r>
@@ -2048,7 +1990,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2058,7 +1999,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#張善政</t>
     </r>
@@ -2067,7 +2007,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> 和韻璇一樣，非常關心 </t>
     </r>
@@ -2077,7 +2016,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#桃園弱勢孩童</t>
     </r>
@@ -2086,7 +2024,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> ，更感謝每戶寄養家庭的無私奉獻，提供孩童一個安全無虞、充滿愛心的新住所 &lt;br&gt;&lt;br&gt;
  韻璇希望鄉親朋友能夠將這份愛心繼續擴大，讓桃園 </t>
@@ -2097,7 +2034,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>#寄養家庭</t>
     </r>
@@ -2106,7 +2042,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> 可以突破百戶，讓更多弱勢孩童可以順利成長 &lt;br&gt;&lt;br&gt;
 孩子無法選擇父母，而寄養家庭則可以提供孩童一個暫時性的避風港，讓他們可以得到妥善保護與照顧，在現今的社會裡，並非有血緣關係的才是家人只要能夠真心呵護、保護、給你溫暖的都算是哦&lt;br&gt;&lt;br&gt;
@@ -2118,7 +2053,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t>https://www.ccf.org.tw/59/service/MTE3Ng</t>
     </r>
@@ -2127,7 +2061,6 @@
         <sz val="12"/>
         <color indexed="13"/>
         <rFont val="標楷體"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">"&gt;桃園家扶中心&lt;/a&gt;
 &lt;br&gt;&lt;br&gt;
@@ -2224,12 +2157,141 @@
     <t>試辦公滯一改為乾式滯洪池公園</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>feedback</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6478257715634974/?mibextid=oMANbw"&gt; FB A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">重劃區大小事&lt;/a&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>10/07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>連續假日期間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>捷運站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>仍有許多違規停放機車被拖吊！雖然在地居民樂見警方的執法，請議員能持續協助:
+&lt;ul&gt;
+&lt;li&gt;在正常上班上學日, A7站前的機車停車位仍有不足。影響TPASS 轉通勤人員的轉乘。&lt;/li&gt;
+&lt;li&gt;在廣19地下停車場完成前, 請考量居民的&lt;a href="https://a7kanban09.netlify.app/expectations/%E5%A2%9E%E8%A8%AD%E5%85%AC%E5%85%B1%E6%A9%9F%E8%BB%8A%E5%81%9C%E8%BB%8A%E5%A0%B4"&gt; 建議案 010&lt;/a&gt;, 再延伸A7站前文化一路的機車停車區。  &lt;/li&gt;
+&lt;li&gt;請於議會期間能代表感謝交通局/警察局 的違規停車整頓措施，居民普遍是熱烈的正面支持。也請在拖吊區能有明顯標示。在違規開單區域能先配合里長有充分的勸導推廣時間，讓購物臨停居民有適應期。  &lt;/li&gt;
+&lt;/ul&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -2253,21 +2315,18 @@
       <sz val="12"/>
       <color indexed="13"/>
       <name val="標楷體"/>
-      <charset val="136"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="13"/>
       <name val="標楷體"/>
-      <charset val="136"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="標楷體"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="15"/>
@@ -2279,13 +2338,11 @@
       <sz val="12"/>
       <color indexed="14"/>
       <name val="標楷體"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="標楷體"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2369,6 +2426,19 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2553,7 +2623,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2708,6 +2778,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3838,13 +3911,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13"/>
@@ -3855,15 +3928,15 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="100.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="70.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
-    <col min="11" max="12" width="16.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="16.33203125" style="1"/>
+    <col min="7" max="8" width="100.6640625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="70.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="16.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:12" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3885,16 +3958,19 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3"/>
       <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="99">
+    <row r="2" spans="1:12" ht="103">
       <c r="A2" s="4" t="s">
         <v>91</v>
       </c>
@@ -3916,16 +3992,17 @@
       <c r="G2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="30"/>
+      <c r="I2" s="37">
         <v>45204</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="J2" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="40"/>
       <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
     </row>
-    <row r="3" spans="1:11" ht="56">
+    <row r="3" spans="1:12" ht="56">
       <c r="A3" s="7" t="s">
         <v>109</v>
       </c>
@@ -3947,16 +4024,17 @@
       <c r="G3" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="31"/>
+      <c r="I3" s="39">
         <v>45181</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="J3" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="43"/>
       <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
     </row>
-    <row r="4" spans="1:11" ht="101">
+    <row r="4" spans="1:12" ht="140">
       <c r="A4" s="7" t="s">
         <v>193</v>
       </c>
@@ -3978,16 +4056,19 @@
       <c r="G4" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="39">
         <v>45159</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="J4" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="43"/>
       <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
     </row>
-    <row r="5" spans="1:11" ht="182">
+    <row r="5" spans="1:12" ht="182">
       <c r="A5" s="7" t="s">
         <v>192</v>
       </c>
@@ -4009,16 +4090,19 @@
       <c r="G5" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="39">
         <v>45157</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="J5" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="43"/>
       <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
-    <row r="6" spans="1:11" ht="84">
+    <row r="6" spans="1:12" ht="84">
       <c r="A6" s="7" t="s">
         <v>119</v>
       </c>
@@ -4040,16 +4124,17 @@
       <c r="G6" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="31"/>
+      <c r="I6" s="39">
         <v>45138</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="J6" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="J6" s="43"/>
       <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
     </row>
-    <row r="7" spans="1:11" ht="56">
+    <row r="7" spans="1:12" ht="56">
       <c r="A7" s="7" t="s">
         <v>121</v>
       </c>
@@ -4071,16 +4156,17 @@
       <c r="G7" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="36"/>
+      <c r="I7" s="39">
         <v>45103</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="J7" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="J7" s="43"/>
       <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
     </row>
-    <row r="8" spans="1:11" ht="70">
+    <row r="8" spans="1:12" ht="70">
       <c r="A8" s="7" t="s">
         <v>197</v>
       </c>
@@ -4102,16 +4188,17 @@
       <c r="G8" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="33"/>
+      <c r="I8" s="39">
         <v>45092</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="J8" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="43"/>
       <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
     </row>
-    <row r="9" spans="1:11" ht="45">
+    <row r="9" spans="1:12" ht="45">
       <c r="A9" s="7" t="s">
         <v>196</v>
       </c>
@@ -4133,16 +4220,17 @@
       <c r="G9" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="33"/>
+      <c r="I9" s="39">
         <v>45071</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="J9" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="J9" s="43"/>
       <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
     </row>
-    <row r="10" spans="1:11" ht="393">
+    <row r="10" spans="1:12" ht="393">
       <c r="A10" s="7" t="s">
         <v>135</v>
       </c>
@@ -4164,16 +4252,17 @@
       <c r="G10" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="35"/>
+      <c r="I10" s="39">
         <v>45058</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="J10" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="J10" s="43"/>
       <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
     </row>
-    <row r="11" spans="1:11" ht="345">
+    <row r="11" spans="1:12" ht="345">
       <c r="A11" s="7" t="s">
         <v>129</v>
       </c>
@@ -4195,16 +4284,17 @@
       <c r="G11" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="34"/>
+      <c r="I11" s="39">
         <v>45057</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="J11" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="J11" s="43"/>
       <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="115">
+    <row r="12" spans="1:12" ht="115">
       <c r="A12" s="7" t="s">
         <v>140</v>
       </c>
@@ -4226,16 +4316,17 @@
       <c r="G12" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="33"/>
+      <c r="I12" s="39">
         <v>45051</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="J12" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="43"/>
       <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="409.6">
+    <row r="13" spans="1:12" ht="409.6">
       <c r="A13" s="7" t="s">
         <v>144</v>
       </c>
@@ -4257,16 +4348,17 @@
       <c r="G13" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="31"/>
+      <c r="I13" s="39">
         <v>45029</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="J13" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="J13" s="43"/>
       <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
     </row>
-    <row r="14" spans="1:11" ht="344">
+    <row r="14" spans="1:12" ht="344">
       <c r="A14" s="7" t="s">
         <v>148</v>
       </c>
@@ -4288,16 +4380,17 @@
       <c r="G14" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="34"/>
+      <c r="I14" s="39">
         <v>45029</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="J14" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="43"/>
       <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
     </row>
-    <row r="15" spans="1:11" ht="168">
+    <row r="15" spans="1:12" ht="168">
       <c r="A15" s="7" t="s">
         <v>150</v>
       </c>
@@ -4319,16 +4412,17 @@
       <c r="G15" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="35"/>
+      <c r="I15" s="39">
         <v>45027</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="J15" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="J15" s="43"/>
       <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
     </row>
-    <row r="16" spans="1:11" ht="101">
+    <row r="16" spans="1:12" ht="101">
       <c r="A16" s="7" t="s">
         <v>154</v>
       </c>
@@ -4350,16 +4444,17 @@
       <c r="G16" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="33"/>
+      <c r="I16" s="39">
         <v>45024</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="J16" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="J16" s="43"/>
       <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
     </row>
-    <row r="17" spans="1:11" ht="84">
+    <row r="17" spans="1:12" ht="84">
       <c r="A17" s="7" t="s">
         <v>160</v>
       </c>
@@ -4381,16 +4476,17 @@
       <c r="G17" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="34"/>
+      <c r="I17" s="39">
         <v>45020</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="J17" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="J17" s="43"/>
       <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
     </row>
-    <row r="18" spans="1:11" ht="84">
+    <row r="18" spans="1:12" ht="84">
       <c r="A18" s="21" t="s">
         <v>162</v>
       </c>
@@ -4412,16 +4508,17 @@
       <c r="G18" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="31"/>
+      <c r="I18" s="39">
         <v>45016</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="J18" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="J18" s="43"/>
       <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
     </row>
-    <row r="19" spans="1:11" ht="48">
+    <row r="19" spans="1:12" ht="51">
       <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
@@ -4443,16 +4540,17 @@
       <c r="G19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="10"/>
+      <c r="I19" s="13">
         <v>45002</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="12"/>
       <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="176">
+    <row r="20" spans="1:12" ht="187">
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
@@ -4474,16 +4572,17 @@
       <c r="G20" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="10"/>
+      <c r="I20" s="13">
         <v>45001</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="12"/>
       <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:11" ht="208">
+    <row r="21" spans="1:12" ht="221">
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
@@ -4505,16 +4604,17 @@
       <c r="G21" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="10"/>
+      <c r="I21" s="13">
         <v>45001</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="12"/>
       <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="192">
+    <row r="22" spans="1:12" ht="204">
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
@@ -4536,16 +4636,17 @@
       <c r="G22" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="10"/>
+      <c r="I22" s="13">
         <v>45000</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="J22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="12"/>
       <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="196">
+    <row r="23" spans="1:12" ht="196">
       <c r="A23" s="17" t="s">
         <v>168</v>
       </c>
@@ -4567,14 +4668,15 @@
       <c r="G23" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="47"/>
+      <c r="I23" s="48">
         <v>44999</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="J23" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="240">
+    <row r="24" spans="1:12" ht="255">
       <c r="A24" s="17" t="s">
         <v>19</v>
       </c>
@@ -4596,16 +4698,17 @@
       <c r="G24" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="32"/>
+      <c r="I24" s="38">
         <v>44998</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="J24" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="46"/>
       <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
     </row>
-    <row r="25" spans="1:11" ht="395">
+    <row r="25" spans="1:12" ht="409.6">
       <c r="A25" s="17" t="s">
         <v>22</v>
       </c>
@@ -4627,16 +4730,17 @@
       <c r="G25" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="32"/>
+      <c r="I25" s="38">
         <v>44993</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="J25" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="46"/>
       <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
     </row>
-    <row r="26" spans="1:11" ht="240">
+    <row r="26" spans="1:12" ht="255">
       <c r="A26" s="17" t="s">
         <v>24</v>
       </c>
@@ -4658,16 +4762,17 @@
       <c r="G26" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="32"/>
+      <c r="I26" s="38">
         <v>44992</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="J26" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="46"/>
       <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
     </row>
-    <row r="27" spans="1:11" ht="208">
+    <row r="27" spans="1:12" ht="221">
       <c r="A27" s="17" t="s">
         <v>25</v>
       </c>
@@ -4689,16 +4794,17 @@
       <c r="G27" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="32"/>
+      <c r="I27" s="38">
         <v>44991</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="J27" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="46"/>
       <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
     </row>
-    <row r="28" spans="1:11" ht="112">
+    <row r="28" spans="1:12" ht="119">
       <c r="A28" s="17" t="s">
         <v>21</v>
       </c>
@@ -4720,16 +4826,17 @@
       <c r="G28" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="32"/>
+      <c r="I28" s="38">
         <v>44985</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="J28" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="46"/>
       <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
     </row>
-    <row r="29" spans="1:11" ht="335">
+    <row r="29" spans="1:12" ht="356">
       <c r="A29" s="17" t="s">
         <v>26</v>
       </c>
@@ -4751,16 +4858,17 @@
       <c r="G29" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="32"/>
+      <c r="I29" s="38">
         <v>44973</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="J29" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="46"/>
       <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
     </row>
-    <row r="30" spans="1:11" ht="80">
+    <row r="30" spans="1:12" ht="85">
       <c r="A30" s="17" t="s">
         <v>27</v>
       </c>
@@ -4782,16 +4890,17 @@
       <c r="G30" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="32"/>
+      <c r="I30" s="38">
         <v>44969</v>
       </c>
-      <c r="I30" s="41" t="s">
+      <c r="J30" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J30" s="46"/>
       <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
     </row>
-    <row r="31" spans="1:11" ht="128">
+    <row r="31" spans="1:12" ht="136">
       <c r="A31" s="17" t="s">
         <v>28</v>
       </c>
@@ -4813,16 +4922,17 @@
       <c r="G31" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="32"/>
+      <c r="I31" s="38">
         <v>44965</v>
       </c>
-      <c r="I31" s="41" t="s">
+      <c r="J31" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="46"/>
       <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
     </row>
-    <row r="32" spans="1:11" ht="160">
+    <row r="32" spans="1:12" ht="170">
       <c r="A32" s="17" t="s">
         <v>29</v>
       </c>
@@ -4842,16 +4952,17 @@
       <c r="G32" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="32"/>
+      <c r="I32" s="38">
         <v>44964</v>
       </c>
-      <c r="I32" s="41" t="s">
+      <c r="J32" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="46"/>
       <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
     </row>
-    <row r="33" spans="1:11" ht="236">
+    <row r="33" spans="1:12" ht="247">
       <c r="A33" s="17" t="s">
         <v>40</v>
       </c>
@@ -4871,16 +4982,17 @@
       <c r="G33" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="29"/>
+      <c r="I33" s="38">
         <v>44958</v>
       </c>
-      <c r="I33" s="41" t="s">
+      <c r="J33" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="46"/>
       <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
     </row>
-    <row r="34" spans="1:11" ht="365">
+    <row r="34" spans="1:12" ht="388">
       <c r="A34" s="17" t="s">
         <v>85</v>
       </c>
@@ -4902,16 +5014,17 @@
       <c r="G34" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="32"/>
+      <c r="I34" s="38">
         <v>44942</v>
       </c>
-      <c r="I34" s="41" t="s">
+      <c r="J34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="46"/>
       <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
     </row>
-    <row r="35" spans="1:11" ht="224">
+    <row r="35" spans="1:12" ht="238">
       <c r="A35" s="17" t="s">
         <v>31</v>
       </c>
@@ -4931,16 +5044,17 @@
       <c r="G35" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="32"/>
+      <c r="I35" s="38">
         <v>44937</v>
       </c>
-      <c r="I35" s="41" t="s">
+      <c r="J35" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="46"/>
       <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
     </row>
-    <row r="36" spans="1:11" ht="128">
+    <row r="36" spans="1:12" ht="136">
       <c r="A36" s="17" t="s">
         <v>37</v>
       </c>
@@ -4962,16 +5076,17 @@
       <c r="G36" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="50"/>
+      <c r="I36" s="38">
         <v>44937</v>
       </c>
-      <c r="I36" s="41" t="s">
+      <c r="J36" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="46"/>
       <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
     </row>
-    <row r="37" spans="1:11" ht="409.6">
+    <row r="37" spans="1:12" ht="409.6">
       <c r="A37" s="17" t="s">
         <v>33</v>
       </c>
@@ -4991,16 +5106,17 @@
       <c r="G37" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="32"/>
+      <c r="I37" s="38">
         <v>44915</v>
       </c>
-      <c r="I37" s="41" t="s">
+      <c r="J37" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="46"/>
       <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
     </row>
-    <row r="38" spans="1:11" ht="128">
+    <row r="38" spans="1:12" ht="153">
       <c r="A38" s="17" t="s">
         <v>39</v>
       </c>
@@ -5022,16 +5138,17 @@
       <c r="G38" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="51"/>
+      <c r="I38" s="38">
         <v>44910</v>
       </c>
-      <c r="I38" s="41" t="s">
+      <c r="J38" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J38" s="46"/>
       <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
     </row>
-    <row r="39" spans="1:11" ht="176">
+    <row r="39" spans="1:12" ht="187">
       <c r="A39" s="22" t="s">
         <v>43</v>
       </c>
@@ -5051,16 +5168,17 @@
       <c r="G39" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="51"/>
+      <c r="I39" s="38">
         <v>44903</v>
       </c>
-      <c r="I39" s="41" t="s">
+      <c r="J39" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="J39" s="46"/>
       <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
     </row>
-    <row r="40" spans="1:11" ht="192">
+    <row r="40" spans="1:12" ht="204">
       <c r="A40" s="20" t="s">
         <v>41</v>
       </c>
@@ -5082,18 +5200,19 @@
       <c r="G40" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="51"/>
+      <c r="I40" s="38">
         <v>44576</v>
       </c>
-      <c r="I40" s="41" t="s">
+      <c r="J40" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="J40" s="46"/>
       <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I40">
-    <sortCondition descending="1" ref="H2:H40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J40">
+    <sortCondition descending="1" ref="I2:I40"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -5107,22 +5226,22 @@
     <hyperlink ref="F31" r:id="rId8" display="孫韻璇" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="G37" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="G39" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I3" r:id="rId11" xr:uid="{0632A143-9E23-1E42-9A94-480CFFB2E8C4}"/>
-    <hyperlink ref="I4" r:id="rId12" xr:uid="{0E2C5623-9719-1F4B-863C-66E23A884C6E}"/>
-    <hyperlink ref="I5" r:id="rId13" xr:uid="{F2FB376F-1388-6B45-B1C6-28C0EF06613C}"/>
-    <hyperlink ref="I6" r:id="rId14" xr:uid="{3B40EBBF-BC1F-D54A-9157-DD1B27EBF83E}"/>
-    <hyperlink ref="I7" r:id="rId15" xr:uid="{9E4CC1F2-3F9E-044D-B4B9-8F92D4FEEFD8}"/>
-    <hyperlink ref="I8" r:id="rId16" xr:uid="{7EDA1FCE-7A4D-664F-BEA3-1DD7835C8809}"/>
-    <hyperlink ref="I9" r:id="rId17" xr:uid="{57CE2C93-66B9-A24C-872D-96CA18664145}"/>
-    <hyperlink ref="I11" r:id="rId18" xr:uid="{28A4396B-78C2-544D-8749-F9028E9AFABB}"/>
-    <hyperlink ref="I10" r:id="rId19" xr:uid="{D93FF76B-0FE2-7244-B65A-B9059E549A88}"/>
-    <hyperlink ref="I12" r:id="rId20" xr:uid="{0A295210-1FAB-9F42-85BF-F535411914E7}"/>
-    <hyperlink ref="I13" r:id="rId21" xr:uid="{5006C36D-0D88-2B43-A8E1-215D80EEB0BA}"/>
-    <hyperlink ref="I14" r:id="rId22" xr:uid="{24816867-7600-2449-927E-C167EE617C35}"/>
-    <hyperlink ref="I15" r:id="rId23" xr:uid="{C58778F8-7EBE-A34F-835F-D8553B85A0CA}"/>
-    <hyperlink ref="I16" r:id="rId24" xr:uid="{3CACE7E1-84D1-5B4D-A003-690E79F5F3E9}"/>
-    <hyperlink ref="I17" r:id="rId25" xr:uid="{86A9EF36-E448-8544-8BE7-D4291F3BC823}"/>
-    <hyperlink ref="I23" r:id="rId26" xr:uid="{E19E4E65-5A40-7445-9E23-925DC7DAC39F}"/>
+    <hyperlink ref="J3" r:id="rId11" xr:uid="{0632A143-9E23-1E42-9A94-480CFFB2E8C4}"/>
+    <hyperlink ref="J4" r:id="rId12" xr:uid="{0E2C5623-9719-1F4B-863C-66E23A884C6E}"/>
+    <hyperlink ref="J5" r:id="rId13" xr:uid="{F2FB376F-1388-6B45-B1C6-28C0EF06613C}"/>
+    <hyperlink ref="J6" r:id="rId14" xr:uid="{3B40EBBF-BC1F-D54A-9157-DD1B27EBF83E}"/>
+    <hyperlink ref="J7" r:id="rId15" xr:uid="{9E4CC1F2-3F9E-044D-B4B9-8F92D4FEEFD8}"/>
+    <hyperlink ref="J8" r:id="rId16" xr:uid="{7EDA1FCE-7A4D-664F-BEA3-1DD7835C8809}"/>
+    <hyperlink ref="J9" r:id="rId17" xr:uid="{57CE2C93-66B9-A24C-872D-96CA18664145}"/>
+    <hyperlink ref="J11" r:id="rId18" xr:uid="{28A4396B-78C2-544D-8749-F9028E9AFABB}"/>
+    <hyperlink ref="J10" r:id="rId19" xr:uid="{D93FF76B-0FE2-7244-B65A-B9059E549A88}"/>
+    <hyperlink ref="J12" r:id="rId20" xr:uid="{0A295210-1FAB-9F42-85BF-F535411914E7}"/>
+    <hyperlink ref="J13" r:id="rId21" xr:uid="{5006C36D-0D88-2B43-A8E1-215D80EEB0BA}"/>
+    <hyperlink ref="J14" r:id="rId22" xr:uid="{24816867-7600-2449-927E-C167EE617C35}"/>
+    <hyperlink ref="J15" r:id="rId23" xr:uid="{C58778F8-7EBE-A34F-835F-D8553B85A0CA}"/>
+    <hyperlink ref="J16" r:id="rId24" xr:uid="{3CACE7E1-84D1-5B4D-A003-690E79F5F3E9}"/>
+    <hyperlink ref="J17" r:id="rId25" xr:uid="{86A9EF36-E448-8544-8BE7-D4291F3BC823}"/>
+    <hyperlink ref="J23" r:id="rId26" xr:uid="{E19E4E65-5A40-7445-9E23-925DC7DAC39F}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BADE462-6EE0-274C-A2EB-635D5F0C31DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C59E7B-98F1-A842-8E9D-3A0403A05BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13760" yWindow="-26760" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="10820" yWindow="-26720" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="212">
   <si>
     <t>Title</t>
   </si>
@@ -2555,6 +2555,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>N041</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2569,10 +2573,8 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">😣
 </t>
@@ -2591,10 +2593,8 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
       </rPr>
       <t>‼️
 👍</t>
@@ -2613,7 +2613,7 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
+        <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
       </rPr>
       <t>💪🏻</t>
@@ -2630,13 +2630,78 @@
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-040.jpeg" alt="慰問金" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> #大埔轉運站 的退場機制</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>B. 營造永續環境</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">B.2 強化空汙管制作業 </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6578091492318262/"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">大埔轉運站 &lt;/a&gt;&lt;br&gt;
+2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！
+大埔轉運站原承諾在地鄉親垃圾不過夜，僅負擔轉運功能，但近期因欣榮焚化爐整改，引發桃園市垃圾危機，現在垃圾不只過夜、還過好幾夜！長期堆置的垃圾產生酸臭味，刺鼻難聞。
+近年來龜山人口成長迅速，儼然已成為人口密集區，雅倫認為市府必須設法解決大埔轉運站惱人的惡臭，並研擬退場機制！&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-041.jpeg" alt="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>慰問金" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期因欣榮焚化爐整改，引發桃園市垃圾危機</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/1951117865015671/permalink/6578091492318262/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2745,13 +2810,46 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
       <family val="1"/>
       <charset val="136"/>
     </font>
@@ -2776,7 +2874,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2940,6 +3038,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2949,7 +3069,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3067,9 +3187,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3098,6 +3215,33 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3415,21 +3559,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="47" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="21" style="4" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="30.1640625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="100.6640625" style="40" customWidth="1"/>
+    <col min="7" max="8" width="100.6640625" style="39" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="27" customWidth="1"/>
     <col min="10" max="10" width="70.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="4" customWidth="1"/>
@@ -3437,7 +3581,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3470,105 +3614,105 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="104">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:12" ht="146">
+      <c r="A2" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53">
+        <v>45233</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+    </row>
+    <row r="3" spans="1:12" ht="113">
+      <c r="A3" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B3" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F3" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="I2" s="27">
+      <c r="G3" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="27">
         <v>45225</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J3" s="48" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99">
-      <c r="A3" s="42" t="s">
+    <row r="4" spans="1:12" ht="99">
+      <c r="A4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9">
+      <c r="H4" s="8"/>
+      <c r="I4" s="9">
         <v>45204</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
-    <row r="4" spans="1:12" ht="80">
-      <c r="A4" s="43" t="s">
+    <row r="5" spans="1:12" ht="80">
+      <c r="A5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13">
-        <v>45181</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" spans="1:12" ht="176">
-      <c r="A5" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
@@ -3580,32 +3724,30 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H5" s="12"/>
       <c r="I5" s="13">
-        <v>45159</v>
+        <v>45181</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" ht="208">
-      <c r="A6" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>31</v>
+    <row r="6" spans="1:12" ht="176">
+      <c r="A6" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>13</v>
@@ -3614,32 +3756,32 @@
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="13">
-        <v>45157</v>
+        <v>45159</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" ht="128">
-      <c r="A7" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
+    <row r="7" spans="1:12" ht="208">
+      <c r="A7" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>13</v>
@@ -3648,27 +3790,29 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="I7" s="13">
-        <v>45138</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>40</v>
+        <v>45157</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" ht="56">
-      <c r="A8" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>42</v>
+    <row r="8" spans="1:12" ht="128">
+      <c r="A8" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
@@ -3680,59 +3824,59 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="12"/>
       <c r="I8" s="13">
-        <v>45103</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>45</v>
+        <v>45138</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="80">
-      <c r="A9" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="1:12" ht="56">
+      <c r="A9" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="17"/>
       <c r="I9" s="13">
-        <v>45092</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>50</v>
+        <v>45103</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="48">
-      <c r="A10" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>52</v>
+    <row r="10" spans="1:12" ht="80">
+      <c r="A10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>12</v>
@@ -3741,33 +3885,33 @@
         <v>13</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="13">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="409.6">
-      <c r="A11" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>57</v>
+    <row r="11" spans="1:12" ht="48">
+      <c r="A11" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>13</v>
@@ -3776,30 +3920,30 @@
         <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="13">
-        <v>45058</v>
+        <v>45071</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="409.6">
-      <c r="A12" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
+      <c r="A12" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>13</v>
@@ -3808,29 +3952,29 @@
         <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="13">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="128">
-      <c r="A13" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="6" t="s">
+    <row r="13" spans="1:12" ht="409.6">
+      <c r="A13" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -3840,62 +3984,62 @@
         <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="13">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="409.6">
-      <c r="A14" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="1:12" ht="128">
+      <c r="A14" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13">
-        <v>45029</v>
+        <v>45051</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="408">
-      <c r="A15" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>77</v>
+    <row r="15" spans="1:12" ht="409.6">
+      <c r="A15" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>13</v>
@@ -3904,91 +4048,91 @@
         <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="13">
         <v>45029</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" ht="192">
-      <c r="A16" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
+    <row r="16" spans="1:12" ht="408">
+      <c r="A16" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>83</v>
+        <v>14</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" ht="112">
-      <c r="A17" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="7" t="s">
+    <row r="17" spans="1:12" ht="192">
+      <c r="A17" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="13">
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" ht="110">
-      <c r="A18" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>92</v>
+    <row r="18" spans="1:12" ht="112">
+      <c r="A18" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>12</v>
@@ -4000,29 +4144,29 @@
         <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="13">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:12" ht="96">
-      <c r="A19" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="6" t="s">
+    <row r="19" spans="1:12" ht="110">
+      <c r="A19" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -4032,27 +4176,27 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="13">
-        <v>45016</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>100</v>
+        <v>45020</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" ht="48">
+    <row r="20" spans="1:12" ht="96">
       <c r="A20" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>12</v>
@@ -4061,33 +4205,33 @@
         <v>13</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21">
-        <v>45002</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+        <v>98</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13">
+        <v>45016</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" ht="176">
-      <c r="A21" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>108</v>
+    <row r="21" spans="1:12" ht="48">
+      <c r="A21" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>13</v>
@@ -4095,31 +4239,31 @@
       <c r="E21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>109</v>
+      <c r="F21" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="21">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
     </row>
-    <row r="22" spans="1:12" ht="208">
-      <c r="A22" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>113</v>
+    <row r="22" spans="1:12" ht="176">
+      <c r="A22" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>13</v>
@@ -4127,30 +4271,30 @@
       <c r="E22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>114</v>
+      <c r="F22" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="21">
         <v>45001</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
     </row>
-    <row r="23" spans="1:12" ht="192">
-      <c r="A23" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="6" t="s">
+    <row r="23" spans="1:12" ht="208">
+      <c r="A23" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -4160,27 +4304,27 @@
         <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="21">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
     </row>
-    <row r="24" spans="1:12" ht="240">
-      <c r="A24" s="45" t="s">
-        <v>122</v>
+    <row r="24" spans="1:12" ht="192">
+      <c r="A24" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>32</v>
@@ -4191,61 +4335,61 @@
       <c r="E24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27">
-        <v>44999</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>126</v>
-      </c>
+      <c r="F24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21">
+        <v>45000</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" ht="240">
-      <c r="A25" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>128</v>
+      <c r="A25" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31">
-        <v>44998</v>
-      </c>
-      <c r="J25" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27">
+        <v>44999</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" ht="395">
-      <c r="A26" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>132</v>
+    <row r="26" spans="1:12" ht="240">
+      <c r="A26" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>13</v>
@@ -4253,28 +4397,28 @@
       <c r="E26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="25" t="s">
-        <v>133</v>
+      <c r="F26" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="31">
-        <v>44993</v>
+        <v>44998</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
     </row>
-    <row r="27" spans="1:12" ht="240">
-      <c r="A27" s="45" t="s">
-        <v>136</v>
+    <row r="27" spans="1:12" ht="395">
+      <c r="A27" s="44" t="s">
+        <v>131</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>12</v>
@@ -4283,17 +4427,17 @@
         <v>13</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="31">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="J27" s="32" t="s">
         <v>135</v>
@@ -4301,12 +4445,12 @@
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
     </row>
-    <row r="28" spans="1:12" ht="208">
-      <c r="A28" s="45" t="s">
-        <v>140</v>
+    <row r="28" spans="1:12" ht="240">
+      <c r="A28" s="44" t="s">
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
@@ -4315,17 +4459,17 @@
         <v>13</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H28" s="30"/>
       <c r="I28" s="31">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>135</v>
@@ -4333,44 +4477,44 @@
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
     </row>
-    <row r="29" spans="1:12" ht="112">
-      <c r="A29" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>145</v>
+    <row r="29" spans="1:12" ht="208">
+      <c r="A29" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>146</v>
+        <v>14</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="31">
-        <v>44985</v>
+        <v>44991</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
     </row>
-    <row r="30" spans="1:12" ht="335">
-      <c r="A30" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>149</v>
+    <row r="30" spans="1:12" ht="112">
+      <c r="A30" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>108</v>
@@ -4379,17 +4523,17 @@
         <v>13</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>150</v>
+        <v>20</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="31">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="J30" s="32" t="s">
         <v>111</v>
@@ -4397,47 +4541,47 @@
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="1:12" ht="80">
-      <c r="A31" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>153</v>
+    <row r="31" spans="1:12" ht="335">
+      <c r="A31" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>154</v>
+        <v>14</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>150</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="31">
-        <v>44969</v>
+        <v>44973</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" ht="128">
-      <c r="A32" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>157</v>
+    <row r="32" spans="1:12" ht="80">
+      <c r="A32" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>13</v>
@@ -4446,60 +4590,62 @@
         <v>20</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="31">
-        <v>44965</v>
+        <v>44969</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
     </row>
-    <row r="33" spans="1:12" ht="160">
-      <c r="A33" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>161</v>
+    <row r="33" spans="1:12" ht="128">
+      <c r="A33" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="25"/>
+        <v>20</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="G33" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="31">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K33" s="33"/>
       <c r="L33" s="33"/>
     </row>
-    <row r="34" spans="1:12" ht="236">
-      <c r="A34" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>164</v>
+    <row r="34" spans="1:12" ht="160">
+      <c r="A34" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>13</v>
@@ -4508,28 +4654,28 @@
         <v>14</v>
       </c>
       <c r="F34" s="25"/>
-      <c r="G34" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="H34" s="34"/>
+      <c r="G34" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="30"/>
       <c r="I34" s="31">
-        <v>44958</v>
+        <v>44964</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
     </row>
-    <row r="35" spans="1:12" ht="365">
-      <c r="A35" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>167</v>
+    <row r="35" spans="1:12" ht="236">
+      <c r="A35" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>13</v>
@@ -4537,152 +4683,150 @@
       <c r="E35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="30"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="34"/>
       <c r="I35" s="31">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
     </row>
-    <row r="36" spans="1:12" ht="224">
-      <c r="A36" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>172</v>
+    <row r="36" spans="1:12" ht="365">
+      <c r="A36" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>168</v>
+      </c>
       <c r="G36" s="30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="31">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
     </row>
-    <row r="37" spans="1:12" ht="128">
-      <c r="A37" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>176</v>
+    <row r="37" spans="1:12" ht="224">
+      <c r="A37" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="H37" s="35"/>
+        <v>173</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="30"/>
       <c r="I37" s="31">
         <v>44937</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
     </row>
-    <row r="38" spans="1:12" ht="409.6">
-      <c r="A38" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>181</v>
+    <row r="38" spans="1:12" ht="128">
+      <c r="A38" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="H38" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" s="35"/>
       <c r="I38" s="31">
-        <v>44915</v>
+        <v>44937</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
-    <row r="39" spans="1:12" ht="144">
-      <c r="A39" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>188</v>
+    <row r="39" spans="1:12" ht="409.6">
+      <c r="A39" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="H39" s="37"/>
+        <v>184</v>
+      </c>
+      <c r="F39" s="36"/>
+      <c r="G39" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H39" s="30"/>
       <c r="I39" s="31">
-        <v>44910</v>
+        <v>44915</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
     </row>
-    <row r="40" spans="1:12" ht="176">
-      <c r="A40" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>192</v>
+    <row r="40" spans="1:12" ht="144">
+      <c r="A40" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>12</v>
@@ -4691,84 +4835,117 @@
         <v>13</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="36"/>
+        <v>173</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>189</v>
+      </c>
       <c r="G40" s="37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H40" s="37"/>
       <c r="I40" s="31">
-        <v>44903</v>
+        <v>44910</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
     </row>
-    <row r="41" spans="1:12" ht="192">
-      <c r="A41" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>196</v>
+    <row r="41" spans="1:12" ht="176">
+      <c r="A41" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>197</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F41" s="36"/>
       <c r="G41" s="37" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H41" s="37"/>
       <c r="I41" s="31">
-        <v>44576</v>
+        <v>44903</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
+    </row>
+    <row r="42" spans="1:12" ht="192">
+      <c r="A42" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H42" s="37"/>
+      <c r="I42" s="31">
+        <v>44576</v>
+      </c>
+      <c r="J42" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
-    <hyperlink ref="G25" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
-    <hyperlink ref="G29" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
-    <hyperlink ref="G26" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
-    <hyperlink ref="G27" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
-    <hyperlink ref="G30" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
-    <hyperlink ref="F31" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
-    <hyperlink ref="F32" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
-    <hyperlink ref="G38" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
-    <hyperlink ref="G40" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
-    <hyperlink ref="J4" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
-    <hyperlink ref="J5" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
-    <hyperlink ref="J6" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
-    <hyperlink ref="J7" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
-    <hyperlink ref="J8" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
-    <hyperlink ref="J9" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
-    <hyperlink ref="J10" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
-    <hyperlink ref="J12" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
-    <hyperlink ref="J11" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
-    <hyperlink ref="J13" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
-    <hyperlink ref="J14" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
-    <hyperlink ref="J15" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
-    <hyperlink ref="J16" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
-    <hyperlink ref="J17" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
-    <hyperlink ref="J18" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
-    <hyperlink ref="J24" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
-    <hyperlink ref="J2" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
+    <hyperlink ref="G21" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
+    <hyperlink ref="G26" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
+    <hyperlink ref="G30" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
+    <hyperlink ref="G27" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
+    <hyperlink ref="G28" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
+    <hyperlink ref="G31" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
+    <hyperlink ref="F32" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
+    <hyperlink ref="F33" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
+    <hyperlink ref="G39" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
+    <hyperlink ref="G41" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
+    <hyperlink ref="J5" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
+    <hyperlink ref="J6" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
+    <hyperlink ref="J7" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
+    <hyperlink ref="J8" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
+    <hyperlink ref="J9" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
+    <hyperlink ref="J10" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
+    <hyperlink ref="J11" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
+    <hyperlink ref="J13" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
+    <hyperlink ref="J12" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
+    <hyperlink ref="J14" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
+    <hyperlink ref="J15" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
+    <hyperlink ref="J16" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
+    <hyperlink ref="J17" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
+    <hyperlink ref="J18" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
+    <hyperlink ref="J19" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
+    <hyperlink ref="J25" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
+    <hyperlink ref="J3" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
+    <hyperlink ref="J2" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C59E7B-98F1-A842-8E9D-3A0403A05BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51343C5-DCA6-2D4F-8F39-EC645DDB3B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10820" yWindow="-26720" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
@@ -2644,6 +2644,14 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>近期因欣榮焚化爐整改，引發桃園市垃圾危機</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/1951117865015671/permalink/6578091492318262/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2651,7 +2659,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>&lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6578091492318262/"&gt;</t>
+      <t>自由時報 2023/11/02&lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2686,14 +2694,6 @@
       </rPr>
       <t>慰問金" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>近期因欣榮焚化爐整改，引發桃園市垃圾危機</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/1951117865015671/permalink/6578091492318262/</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3561,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3614,7 +3614,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="146">
+    <row r="2" spans="1:12" ht="164">
       <c r="A2" s="45" t="s">
         <v>206</v>
       </c>
@@ -3631,17 +3631,17 @@
         <v>208</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H2" s="52"/>
       <c r="I2" s="53">
         <v>45233</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51343C5-DCA6-2D4F-8F39-EC645DDB3B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CC6896-324D-B14B-9BD0-24F6029ECDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10820" yWindow="-26720" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
@@ -2656,10 +2656,20 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>自由時報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>自由時報 2023/11/02&lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;</t>
+      <t xml:space="preserve"> 2023/11/02&lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2672,7 +2682,8 @@
       <t xml:space="preserve">大埔轉運站 &lt;/a&gt;&lt;br&gt;
 2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！
 大埔轉運站原承諾在地鄉親垃圾不過夜，僅負擔轉運功能，但近期因欣榮焚化爐整改，引發桃園市垃圾危機，現在垃圾不只過夜、還過好幾夜！長期堆置的垃圾產生酸臭味，刺鼻難聞。
-近年來龜山人口成長迅速，儼然已成為人口密集區，雅倫認為市府必須設法解決大埔轉運站惱人的惡臭，並研擬退場機制！&lt;br&gt;
+近年來龜山人口成長迅速，儼然已成為人口密集區，自由時報 2023/11/02&lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;大埔轉運站 &lt;/a&gt;&lt;br&gt;
+2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！雅倫認為市府必須設法解決大埔轉運站惱人的惡臭，並研擬退場機制！&lt;br&gt;
 </t>
     </r>
     <r>
@@ -2694,7 +2705,6 @@
       </rPr>
       <t>慰問金" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     </r>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3561,8 +3571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3614,7 +3624,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="164">
+    <row r="2" spans="1:12" ht="212">
       <c r="A2" s="45" t="s">
         <v>206</v>
       </c>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CC6896-324D-B14B-9BD0-24F6029ECDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA225E28-F832-A14B-A3A2-A5BD801B17C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10820" yWindow="-26720" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="219">
   <si>
     <t>Title</t>
   </si>
@@ -2705,6 +2705,81 @@
       </rPr>
       <t>慰問金" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>爭取大崗高中設立</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N042</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛煦庭</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.3 加速都市整體發展</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>侯友宜:與地方連線爭取大崗高中設立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_x0011__x0000_㔠_x0000__x0001__x000C__x0000_7_x0000__x0000__x0000__x0000__x0001__x0000_Ù_x0000_ź耂ÿ&lt;a href="https://www.storm.mg/article/4893534"&gt;新新聞 2023/11/03&lt;/a&gt; 龜山造勢力挺牛煦庭 侯友宜:與地方連線爭取大崗高中設立 &lt;br&gt;
+國民黨總統參選人侯友宜昨（2）日晚間到桃園龜山大坪頂，出席立委參選人牛煦庭造勢晚會，與桃園市長張善政、立法委員洪孟楷、游毓蘭、桃園市議員凌濤、孫韻璇，共同站台力挺牛煦庭。侯友宜承諾會和張善政、牛煦庭連成一心，連結中央與地方的力量，為龜山地區完成大崗高中的設立，
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-042.jpeg" alt="大岡高中" sizes="sm:100vw md:150vw lg:200vw" /&gt;_x0000__x0017_/_x0018__x0001__x000C__x0000_7_x0000__x0000__x0000__x0000__x0001__x0000_Ú_x0000_$耀$https://www.storm.mg/article/4893534_x0001__x000C__x0000_7_x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000_䀻_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_S_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_苠╬_x0001__x0000__x0015_䀀_x0000__x0000__x0004__x0000__x0002__x0000__x0000__x0000__x0000_䀈_x0000__x0000__x0000_뿰_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_S_x0000_V_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_茠╬_x0001__x0000__x0016_䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_f_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_╝_x0001__x0000_ˠ䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀀_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ି_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䠀╻_x0001__x0000_ˡ䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀸_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ୁ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䣀╻_x0001__x0000_ˢ䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀀_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_େ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䤀╻_x0001__x0000_ˣ䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀸_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୉_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䧀╻_x0001__x0000_ˤ䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀀_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୏_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䨀╻_x0001__x0000_˥䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀸_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୑_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䫀╻_x0001__x0000_˦䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀀_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ୗ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䬀╻_x0001__x0000_˧䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀸_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୙_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䯀╻_x0001__x0000_˨䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ୟ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䰀╻_x0001__x0000_˩䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䁒_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ୡ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䳀╻_x0001__x0000_˪䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୧_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䴀╻_x0001__x0000_˫䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䁒_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୩_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䷀╻_x0001__x0000_ˬ䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୯_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_一╻_x0001__x0000_˭䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀴_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ୱ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_什╻_x0001__x0000_ˮ䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000_耀䁉_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୷_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_伀╻_x0001__x0000_˯䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀴_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୹_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_俀╻_x0001__x0000_˰䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_╻_x0001__x0000_˱䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀴_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_஁_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_À╻_x0001__x0000_˲䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀽_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_இ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ā╻_x0001__x0000_˳䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀴_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_உ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ǀ╻_x0001__x0000_˴䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ஏ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ȁ╻_x0001__x0000_˵䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀴_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_஑_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ˀ╻_x0001__x0000_˶䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀜_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_஗_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_닰֖_x0001__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0008__x0000__x0000__x0000__x0008__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0006__x0000__xFFFF__xFFFF__x0000_䋈_x0000_䋈_x0000__x0000_自動_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䋈_x0000_䋈_xFFFF_ÿ白色, 背景 1_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0001__x0000__x0000_䋈_x0000_䋈_x0000__x0000_黑色, 文字 1 _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0002__x0000__x0000_䋈_x0000_䋈æ淺灰, 背景 2_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0003__x0000__x0000_䋈_x0000_䋈呄j藍灰色, 文字 2_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0004__x0000__x0000_䋈_x0000_䋈牄Ä藍色, 輔色 1_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0005__x0000__x0000_䋈_x0000_䋈緭1橙色, 輔色 2_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0006__x0000__x0000_䋈_x0000_䋈ꖥ¥灰色, 輔色 3_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0007__x0000__x0000_䋈_x0000_䋈샿_x0000_金色, 輔色 4_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0008__x0000__x0000_䋈_x0000_䋈魛Õ藍色, 輔色 5_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000_	_x0000__x0000_䋈_x0000_䋈군G綠色, 輔色 6_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000_
+_x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_잹_x0001_Āᒄ꜀볒_x0001_ሀ_x0000__x0000__x0000_ሀ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_잹_x0001_Āᒄ眀鍂_x0001_ሀ_x0000__x0000__x0000_ሀ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_잹_x0001_Āᒄ_x0001_ሀ_x0000__x0000__x0000_ሀ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_蟿궔듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿蟿궔蟿궔듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;a href="https://www.storm.mg/article/4893534"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新新聞 2023/11/03&lt;/a&gt; 龜山造勢力挺牛煦庭 侯友宜:與地方連線爭取大崗高中設立 &lt;br&gt;
+國民黨總統參選人侯友宜昨（2）日晚間到桃園龜山大坪頂，出席立委參選人牛煦庭造勢晚會，與桃園市長張善政、立法委員洪孟楷、游毓蘭、桃園市議員凌濤、孫韻璇，共同站台力挺牛煦庭。侯友宜承諾會和張善政、牛煦庭連成一心，連結中央與地方的力量，為龜山地區完成大崗高中的設立，
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-042.jpeg" alt="大岡高中" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.storm.mg/article/4893534</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3079,7 +3154,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3252,6 +3327,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3569,10 +3650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3624,137 +3705,137 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="212">
+    <row r="2" spans="1:12" ht="409.6">
       <c r="A2" s="45" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>207</v>
+        <v>213</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H2" s="52"/>
       <c r="I2" s="53">
         <v>45233</v>
       </c>
-      <c r="J2" s="57" t="s">
-        <v>210</v>
+      <c r="J2" s="59" t="s">
+        <v>218</v>
       </c>
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>
     </row>
-    <row r="3" spans="1:12" ht="113">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:12" ht="212">
+      <c r="A3" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53">
+        <v>45233</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+    </row>
+    <row r="4" spans="1:12" ht="113">
+      <c r="A4" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B4" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F4" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G4" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I4" s="27">
         <v>45225</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J4" s="48" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="99">
-      <c r="A4" s="41" t="s">
+    <row r="5" spans="1:12" ht="99">
+      <c r="A5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9">
+      <c r="H5" s="8"/>
+      <c r="I5" s="9">
         <v>45204</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
-    <row r="5" spans="1:12" ht="80">
-      <c r="A5" s="42" t="s">
+    <row r="6" spans="1:12" ht="80">
+      <c r="A6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13">
-        <v>45181</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" ht="176">
-      <c r="A6" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
@@ -3766,32 +3847,30 @@
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H6" s="12"/>
       <c r="I6" s="13">
-        <v>45159</v>
+        <v>45181</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" ht="208">
+    <row r="7" spans="1:12" ht="176">
       <c r="A7" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>13</v>
@@ -3800,32 +3879,32 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="13">
-        <v>45157</v>
+        <v>45159</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" ht="128">
+    <row r="8" spans="1:12" ht="208">
       <c r="A8" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>13</v>
@@ -3834,27 +3913,29 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="I8" s="13">
-        <v>45138</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>40</v>
+        <v>45157</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="56">
+    <row r="9" spans="1:12" ht="128">
       <c r="A9" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>12</v>
@@ -3866,59 +3947,59 @@
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="12"/>
       <c r="I9" s="13">
-        <v>45103</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>45</v>
+        <v>45138</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="80">
+    <row r="10" spans="1:12" ht="56">
       <c r="A10" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="17"/>
       <c r="I10" s="13">
-        <v>45092</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>50</v>
+        <v>45103</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="48">
+    <row r="11" spans="1:12" ht="80">
       <c r="A11" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>12</v>
@@ -3927,33 +4008,33 @@
         <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="13">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="409.6">
+    <row r="12" spans="1:12" ht="48">
       <c r="A12" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>13</v>
@@ -3962,30 +4043,30 @@
         <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="13">
-        <v>45058</v>
+        <v>45071</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" ht="409.6">
       <c r="A13" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>13</v>
@@ -3994,29 +4075,29 @@
         <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="13">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="128">
+    <row r="14" spans="1:12" ht="409.6">
       <c r="A14" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -4026,62 +4107,62 @@
         <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="409.6">
+    <row r="15" spans="1:12" ht="128">
       <c r="A15" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="13">
-        <v>45029</v>
+        <v>45051</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" ht="408">
+    <row r="16" spans="1:12" ht="409.6">
       <c r="A16" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>13</v>
@@ -4090,91 +4171,91 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13">
         <v>45029</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" ht="192">
+    <row r="17" spans="1:12" ht="408">
       <c r="A17" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>83</v>
+        <v>14</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="13">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" ht="112">
+    <row r="18" spans="1:12" ht="192">
       <c r="A18" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="13">
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:12" ht="110">
+    <row r="19" spans="1:12" ht="112">
       <c r="A19" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>12</v>
@@ -4186,29 +4267,29 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="13">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" ht="96">
-      <c r="A20" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="6" t="s">
+    <row r="20" spans="1:12" ht="110">
+      <c r="A20" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -4218,27 +4299,27 @@
         <v>14</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13">
-        <v>45016</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>100</v>
+        <v>45020</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" ht="48">
-      <c r="A21" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>102</v>
+    <row r="21" spans="1:12" ht="96">
+      <c r="A21" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>12</v>
@@ -4247,33 +4328,33 @@
         <v>13</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21">
-        <v>45002</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+        <v>98</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13">
+        <v>45016</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" ht="176">
+    <row r="22" spans="1:12" ht="48">
       <c r="A22" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>13</v>
@@ -4281,31 +4362,31 @@
       <c r="E22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>109</v>
+      <c r="F22" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="21">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
     </row>
-    <row r="23" spans="1:12" ht="208">
+    <row r="23" spans="1:12" ht="176">
       <c r="A23" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>13</v>
@@ -4313,30 +4394,30 @@
       <c r="E23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>114</v>
+      <c r="F23" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="21">
         <v>45001</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
     </row>
-    <row r="24" spans="1:12" ht="192">
+    <row r="24" spans="1:12" ht="208">
       <c r="A24" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -4346,27 +4427,27 @@
         <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H24" s="20"/>
       <c r="I24" s="21">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
     </row>
-    <row r="25" spans="1:12" ht="240">
-      <c r="A25" s="44" t="s">
-        <v>122</v>
+    <row r="25" spans="1:12" ht="192">
+      <c r="A25" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>32</v>
@@ -4377,61 +4458,61 @@
       <c r="E25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27">
-        <v>44999</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>126</v>
-      </c>
+      <c r="F25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21">
+        <v>45000</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" ht="240">
       <c r="A26" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="31">
-        <v>44998</v>
-      </c>
-      <c r="J26" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27">
+        <v>44999</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" ht="395">
+    <row r="27" spans="1:12" ht="240">
       <c r="A27" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>13</v>
@@ -4439,28 +4520,28 @@
       <c r="E27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>133</v>
+      <c r="F27" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="31">
-        <v>44993</v>
+        <v>44998</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
     </row>
-    <row r="28" spans="1:12" ht="240">
+    <row r="28" spans="1:12" ht="395">
       <c r="A28" s="44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
@@ -4469,17 +4550,17 @@
         <v>13</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H28" s="30"/>
       <c r="I28" s="31">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>135</v>
@@ -4487,12 +4568,12 @@
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
     </row>
-    <row r="29" spans="1:12" ht="208">
+    <row r="29" spans="1:12" ht="240">
       <c r="A29" s="44" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>12</v>
@@ -4501,17 +4582,17 @@
         <v>13</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="31">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="J29" s="32" t="s">
         <v>135</v>
@@ -4519,44 +4600,44 @@
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
     </row>
-    <row r="30" spans="1:12" ht="112">
+    <row r="30" spans="1:12" ht="208">
       <c r="A30" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>146</v>
+        <v>14</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="31">
-        <v>44985</v>
+        <v>44991</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="1:12" ht="335">
+    <row r="31" spans="1:12" ht="112">
       <c r="A31" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>108</v>
@@ -4565,17 +4646,17 @@
         <v>13</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>150</v>
+        <v>20</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="31">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="J31" s="32" t="s">
         <v>111</v>
@@ -4583,47 +4664,47 @@
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" ht="80">
+    <row r="32" spans="1:12" ht="335">
       <c r="A32" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>154</v>
+        <v>14</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>150</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="31">
-        <v>44969</v>
+        <v>44973</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
     </row>
-    <row r="33" spans="1:12" ht="128">
+    <row r="33" spans="1:12" ht="80">
       <c r="A33" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>13</v>
@@ -4632,60 +4713,62 @@
         <v>20</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="31">
-        <v>44965</v>
+        <v>44969</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K33" s="33"/>
       <c r="L33" s="33"/>
     </row>
-    <row r="34" spans="1:12" ht="160">
+    <row r="34" spans="1:12" ht="128">
       <c r="A34" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="25"/>
+        <v>20</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="G34" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H34" s="30"/>
       <c r="I34" s="31">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
     </row>
-    <row r="35" spans="1:12" ht="236">
+    <row r="35" spans="1:12" ht="160">
       <c r="A35" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>13</v>
@@ -4694,28 +4777,28 @@
         <v>14</v>
       </c>
       <c r="F35" s="25"/>
-      <c r="G35" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="H35" s="34"/>
+      <c r="G35" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="30"/>
       <c r="I35" s="31">
-        <v>44958</v>
+        <v>44964</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
     </row>
-    <row r="36" spans="1:12" ht="365">
+    <row r="36" spans="1:12" ht="236">
       <c r="A36" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>13</v>
@@ -4723,152 +4806,150 @@
       <c r="E36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="H36" s="30"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" s="34"/>
       <c r="I36" s="31">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
     </row>
-    <row r="37" spans="1:12" ht="224">
+    <row r="37" spans="1:12" ht="365">
       <c r="A37" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>168</v>
+      </c>
       <c r="G37" s="30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="31">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
     </row>
-    <row r="38" spans="1:12" ht="128">
+    <row r="38" spans="1:12" ht="224">
       <c r="A38" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="H38" s="35"/>
+        <v>173</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="30"/>
       <c r="I38" s="31">
         <v>44937</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
-    <row r="39" spans="1:12" ht="409.6">
+    <row r="39" spans="1:12" ht="128">
       <c r="A39" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F39" s="36"/>
-      <c r="G39" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="H39" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" s="35"/>
       <c r="I39" s="31">
-        <v>44915</v>
+        <v>44937</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
     </row>
-    <row r="40" spans="1:12" ht="144">
+    <row r="40" spans="1:12" ht="409.6">
       <c r="A40" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="H40" s="37"/>
+        <v>184</v>
+      </c>
+      <c r="F40" s="36"/>
+      <c r="G40" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" s="30"/>
       <c r="I40" s="31">
-        <v>44910</v>
+        <v>44915</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
     </row>
-    <row r="41" spans="1:12" ht="176">
-      <c r="A41" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>192</v>
+    <row r="41" spans="1:12" ht="144">
+      <c r="A41" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>12</v>
@@ -4877,85 +4958,118 @@
         <v>13</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="36"/>
+        <v>173</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>189</v>
+      </c>
       <c r="G41" s="37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H41" s="37"/>
       <c r="I41" s="31">
-        <v>44903</v>
+        <v>44910</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
     </row>
-    <row r="42" spans="1:12" ht="192">
-      <c r="A42" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>196</v>
+    <row r="42" spans="1:12" ht="176">
+      <c r="A42" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>197</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F42" s="36"/>
       <c r="G42" s="37" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H42" s="37"/>
       <c r="I42" s="31">
-        <v>44576</v>
+        <v>44903</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
+    </row>
+    <row r="43" spans="1:12" ht="192">
+      <c r="A43" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H43" s="37"/>
+      <c r="I43" s="31">
+        <v>44576</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G21" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
-    <hyperlink ref="G26" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
-    <hyperlink ref="G30" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
-    <hyperlink ref="G27" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
-    <hyperlink ref="G28" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
-    <hyperlink ref="G31" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
-    <hyperlink ref="F32" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
-    <hyperlink ref="F33" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
-    <hyperlink ref="G39" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
-    <hyperlink ref="G41" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
-    <hyperlink ref="J5" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
-    <hyperlink ref="J6" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
-    <hyperlink ref="J7" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
-    <hyperlink ref="J8" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
-    <hyperlink ref="J9" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
-    <hyperlink ref="J10" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
-    <hyperlink ref="J11" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
-    <hyperlink ref="J13" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
-    <hyperlink ref="J12" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
-    <hyperlink ref="J14" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
-    <hyperlink ref="J15" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
-    <hyperlink ref="J16" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
-    <hyperlink ref="J17" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
-    <hyperlink ref="J18" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
-    <hyperlink ref="J19" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
-    <hyperlink ref="J25" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
-    <hyperlink ref="J3" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
-    <hyperlink ref="J2" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
+    <hyperlink ref="G22" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
+    <hyperlink ref="G27" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
+    <hyperlink ref="G31" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
+    <hyperlink ref="G28" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
+    <hyperlink ref="G29" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
+    <hyperlink ref="G32" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
+    <hyperlink ref="F33" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
+    <hyperlink ref="F34" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
+    <hyperlink ref="G40" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
+    <hyperlink ref="G42" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
+    <hyperlink ref="J6" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
+    <hyperlink ref="J7" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
+    <hyperlink ref="J8" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
+    <hyperlink ref="J9" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
+    <hyperlink ref="J10" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
+    <hyperlink ref="J11" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
+    <hyperlink ref="J12" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
+    <hyperlink ref="J14" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
+    <hyperlink ref="J13" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
+    <hyperlink ref="J15" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
+    <hyperlink ref="J16" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
+    <hyperlink ref="J17" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
+    <hyperlink ref="J18" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
+    <hyperlink ref="J19" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
+    <hyperlink ref="J20" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
+    <hyperlink ref="J26" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
+    <hyperlink ref="J4" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
+    <hyperlink ref="J3" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
+    <hyperlink ref="J2" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA225E28-F832-A14B-A3A2-A5BD801B17C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857EA32B-9958-AF4D-A504-A44944251D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10820" yWindow="-26720" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
@@ -2724,37 +2724,6 @@
   </si>
   <si>
     <r>
-      <t>侯友宜:與地方連線爭取大崗高中設立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_x0011__x0000_㔠_x0000__x0001__x000C__x0000_7_x0000__x0000__x0000__x0000__x0001__x0000_Ù_x0000_ź耂ÿ&lt;a href="https://www.storm.mg/article/4893534"&gt;新新聞 2023/11/03&lt;/a&gt; 龜山造勢力挺牛煦庭 侯友宜:與地方連線爭取大崗高中設立 &lt;br&gt;
-國民黨總統參選人侯友宜昨（2）日晚間到桃園龜山大坪頂，出席立委參選人牛煦庭造勢晚會，與桃園市長張善政、立法委員洪孟楷、游毓蘭、桃園市議員凌濤、孫韻璇，共同站台力挺牛煦庭。侯友宜承諾會和張善政、牛煦庭連成一心，連結中央與地方的力量，為龜山地區完成大崗高中的設立，
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-042.jpeg" alt="大岡高中" sizes="sm:100vw md:150vw lg:200vw" /&gt;_x0000__x0017_/_x0018__x0001__x000C__x0000_7_x0000__x0000__x0000__x0000__x0001__x0000_Ú_x0000_$耀$https://www.storm.mg/article/4893534_x0001__x000C__x0000_7_x0000__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000_䀻_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_S_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_苠╬_x0001__x0000__x0015_䀀_x0000__x0000__x0004__x0000__x0002__x0000__x0000__x0000__x0000_䀈_x0000__x0000__x0000_뿰_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_S_x0000_V_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_茠╬_x0001__x0000__x0016_䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_f_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_╝_x0001__x0000_ˠ䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀀_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ି_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䠀╻_x0001__x0000_ˡ䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀸_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ୁ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䣀╻_x0001__x0000_ˢ䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀀_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_େ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䤀╻_x0001__x0000_ˣ䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀸_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୉_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䧀╻_x0001__x0000_ˤ䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀀_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୏_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䨀╻_x0001__x0000_˥䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀸_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୑_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䫀╻_x0001__x0000_˦䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀀_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ୗ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䬀╻_x0001__x0000_˧䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀸_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୙_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䯀╻_x0001__x0000_˨䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ୟ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䰀╻_x0001__x0000_˩䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䁒_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ୡ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䳀╻_x0001__x0000_˪䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୧_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䴀╻_x0001__x0000_˫䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䁒_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୩_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䷀╻_x0001__x0000_ˬ䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୯_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_一╻_x0001__x0000_˭䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀴_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ୱ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_什╻_x0001__x0000_ˮ䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000_耀䁉_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୷_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_伀╻_x0001__x0000_˯䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀴_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୹_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_俀╻_x0001__x0000_˰䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_୿_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_╻_x0001__x0000_˱䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀴_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_஁_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_À╻_x0001__x0000_˲䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀽_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_இ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ā╻_x0001__x0000_˳䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀴_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_உ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ǀ╻_x0001__x0000_˴䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ஏ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_Ȁ╻_x0001__x0000_˵䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀴_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_஑_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ˀ╻_x0001__x0000_˶䀀_x0000__x0000__x0004__x0000__x0001__x0000__x0000__x0000__x0000_䀜_x0000__x0000__x0000_㿰_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_஗_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_닰֖_x0001__x0000__x0000__x0000__x0001__x0000__x0000__x0000__x0000__x0000__x0008__x0000__x0000__x0000__x0008__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0006__x0000__xFFFF__xFFFF__x0000_䋈_x0000_䋈_x0000__x0000_自動_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000_䋈_x0000_䋈_xFFFF_ÿ白色, 背景 1_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0001__x0000__x0000_䋈_x0000_䋈_x0000__x0000_黑色, 文字 1 _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0002__x0000__x0000_䋈_x0000_䋈æ淺灰, 背景 2_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0003__x0000__x0000_䋈_x0000_䋈呄j藍灰色, 文字 2_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0004__x0000__x0000_䋈_x0000_䋈牄Ä藍色, 輔色 1_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0005__x0000__x0000_䋈_x0000_䋈緭1橙色, 輔色 2_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0006__x0000__x0000_䋈_x0000_䋈ꖥ¥灰色, 輔色 3_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0007__x0000__x0000_䋈_x0000_䋈샿_x0000_金色, 輔色 4_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0008__x0000__x0000_䋈_x0000_䋈魛Õ藍色, 輔色 5_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000_	_x0000__x0000_䋈_x0000_䋈군G綠色, 輔色 6_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000_
-_x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__xFFFF__xFFFF__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_잹_x0001_Āᒄ꜀볒_x0001_ሀ_x0000__x0000__x0000_ሀ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪⋿㔪᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟᧿⠟_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_잹_x0001_Āᒄ眀鍂_x0001_ሀ_x0000__x0000__x0000_ሀ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩ꏿ뚩_xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF__xD9FF_ꏿ뚩_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_잹_x0001_Āᒄ_x0001_ሀ_x0000__x0000__x0000_ሀ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_蟿궔듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿蟿궔蟿궔듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿듿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
@@ -2779,6 +2748,29 @@
   </si>
   <si>
     <t>https://www.storm.mg/article/4893534</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>侯友宜:與地方連線爭取大崗高中設立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>_x0011_</t>
+    </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3154,7 +3146,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3333,6 +3325,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3652,8 +3647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3705,7 +3700,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="409.6">
+    <row r="2" spans="1:12" ht="113">
       <c r="A2" s="45" t="s">
         <v>212</v>
       </c>
@@ -3721,18 +3716,18 @@
       <c r="E2" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>216</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>217</v>
       </c>
       <c r="H2" s="52"/>
       <c r="I2" s="53">
         <v>45233</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857EA32B-9958-AF4D-A504-A44944251D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834A3BD9-5491-E34D-831E-0087C306B89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="-26720" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="8720" yWindow="-25620" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="224">
   <si>
     <t>Title</t>
   </si>
@@ -2771,6 +2771,45 @@
       </rPr>
       <t>_x0011_</t>
     </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N043</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/11/07 市政總質詢</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳雅倫要求張善政解決公車脫班問題 加速龜山變一道路工程</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;a href="https://www.tycg.gov.tw/ch/home.jsp?id=10412&amp;parentpath=0%2C10401&amp;mcustomize=news_view_small.jsp&amp;dataserno=202311070006&amp;aplistdn=ou%3Dnews%2Cou%3Dchinese%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;toolsflag=Y&amp;fbclid=IwAR2lBCTiWHGGenIknPSg9Kern_U27AgDPVcIQr6h5jYTR3yCHABNXlCLzbk"&gt;11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月7日市政總質詢：陳雅倫議員&lt;/a&gt; 對A7建設的相關質詢匯總！&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-043.jpeg" alt="市政總質詢" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://today.line.me/tw/v2/article/Ggl0nW8</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3146,7 +3185,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3328,6 +3367,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3645,10 +3699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3700,169 +3754,169 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="113">
-      <c r="A2" s="45" t="s">
-        <v>212</v>
+    <row r="2" spans="1:12" ht="116">
+      <c r="A2" s="61" t="s">
+        <v>220</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63">
+        <v>45238</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+    </row>
+    <row r="3" spans="1:12" ht="113">
+      <c r="A3" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F3" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G3" s="56" t="s">
         <v>216</v>
-      </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53">
-        <v>45233</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-    </row>
-    <row r="3" spans="1:12" ht="212">
-      <c r="A3" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>211</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="53">
         <v>45233</v>
       </c>
-      <c r="J3" s="57" t="s">
-        <v>210</v>
+      <c r="J3" s="59" t="s">
+        <v>217</v>
       </c>
       <c r="K3" s="54"/>
       <c r="L3" s="54"/>
     </row>
-    <row r="4" spans="1:12" ht="113">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:12" ht="212">
+      <c r="A4" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53">
+        <v>45233</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+    </row>
+    <row r="5" spans="1:12" ht="113">
+      <c r="A5" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B5" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F5" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G5" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I5" s="27">
         <v>45225</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J5" s="48" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="99">
-      <c r="A5" s="41" t="s">
+    <row r="6" spans="1:12" ht="99">
+      <c r="A6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9">
+      <c r="H6" s="8"/>
+      <c r="I6" s="9">
         <v>45204</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="80">
-      <c r="A6" s="42" t="s">
+    <row r="7" spans="1:12" ht="80">
+      <c r="A7" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13">
-        <v>45181</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" ht="176">
-      <c r="A7" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
@@ -3874,32 +3928,30 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H7" s="12"/>
       <c r="I7" s="13">
-        <v>45159</v>
+        <v>45181</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" ht="208">
+    <row r="8" spans="1:12" ht="176">
       <c r="A8" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>13</v>
@@ -3908,32 +3960,32 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="13">
-        <v>45157</v>
+        <v>45159</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="128">
+    <row r="9" spans="1:12" ht="208">
       <c r="A9" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>13</v>
@@ -3942,27 +3994,29 @@
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="I9" s="13">
-        <v>45138</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>40</v>
+        <v>45157</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="56">
+    <row r="10" spans="1:12" ht="128">
       <c r="A10" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>12</v>
@@ -3974,59 +4028,59 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="12"/>
       <c r="I10" s="13">
-        <v>45103</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>45</v>
+        <v>45138</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="80">
+    <row r="11" spans="1:12" ht="56">
       <c r="A11" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="17"/>
       <c r="I11" s="13">
-        <v>45092</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>50</v>
+        <v>45103</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="48">
+    <row r="12" spans="1:12" ht="80">
       <c r="A12" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>12</v>
@@ -4035,33 +4089,33 @@
         <v>13</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="13">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="409.6">
+    <row r="13" spans="1:12" ht="48">
       <c r="A13" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>13</v>
@@ -4070,30 +4124,30 @@
         <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="13">
-        <v>45058</v>
+        <v>45071</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="409.6">
       <c r="A14" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>13</v>
@@ -4102,29 +4156,29 @@
         <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="128">
+    <row r="15" spans="1:12" ht="409.6">
       <c r="A15" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -4134,62 +4188,62 @@
         <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="13">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" ht="409.6">
+    <row r="16" spans="1:12" ht="128">
       <c r="A16" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13">
-        <v>45029</v>
+        <v>45051</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" ht="408">
+    <row r="17" spans="1:12" ht="409.6">
       <c r="A17" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>13</v>
@@ -4198,91 +4252,91 @@
         <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="13">
         <v>45029</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" ht="192">
+    <row r="18" spans="1:12" ht="408">
       <c r="A18" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>83</v>
+        <v>14</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="13">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:12" ht="112">
+    <row r="19" spans="1:12" ht="192">
       <c r="A19" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="13">
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" ht="110">
+    <row r="20" spans="1:12" ht="112">
       <c r="A20" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>12</v>
@@ -4294,29 +4348,29 @@
         <v>14</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" ht="96">
-      <c r="A21" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="6" t="s">
+    <row r="21" spans="1:12" ht="110">
+      <c r="A21" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -4326,27 +4380,27 @@
         <v>14</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="13">
-        <v>45016</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>100</v>
+        <v>45020</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" ht="48">
-      <c r="A22" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>102</v>
+    <row r="22" spans="1:12" ht="96">
+      <c r="A22" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>12</v>
@@ -4355,33 +4409,33 @@
         <v>13</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21">
-        <v>45002</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+        <v>98</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13">
+        <v>45016</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" ht="176">
+    <row r="23" spans="1:12" ht="48">
       <c r="A23" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>13</v>
@@ -4389,31 +4443,31 @@
       <c r="E23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>109</v>
+      <c r="F23" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="21">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
     </row>
-    <row r="24" spans="1:12" ht="208">
+    <row r="24" spans="1:12" ht="176">
       <c r="A24" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>13</v>
@@ -4421,30 +4475,30 @@
       <c r="E24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>114</v>
+      <c r="F24" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H24" s="20"/>
       <c r="I24" s="21">
         <v>45001</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
     </row>
-    <row r="25" spans="1:12" ht="192">
+    <row r="25" spans="1:12" ht="208">
       <c r="A25" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -4454,27 +4508,27 @@
         <v>20</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="21">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
     </row>
-    <row r="26" spans="1:12" ht="240">
-      <c r="A26" s="44" t="s">
-        <v>122</v>
+    <row r="26" spans="1:12" ht="192">
+      <c r="A26" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>32</v>
@@ -4485,61 +4539,61 @@
       <c r="E26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27">
-        <v>44999</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>126</v>
-      </c>
+      <c r="F26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21">
+        <v>45000</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="1:12" ht="240">
       <c r="A27" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31">
-        <v>44998</v>
-      </c>
-      <c r="J27" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27">
+        <v>44999</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" ht="395">
+    <row r="28" spans="1:12" ht="240">
       <c r="A28" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>13</v>
@@ -4547,28 +4601,28 @@
       <c r="E28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="25" t="s">
-        <v>133</v>
+      <c r="F28" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H28" s="30"/>
       <c r="I28" s="31">
-        <v>44993</v>
+        <v>44998</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
     </row>
-    <row r="29" spans="1:12" ht="240">
+    <row r="29" spans="1:12" ht="395">
       <c r="A29" s="44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>12</v>
@@ -4577,17 +4631,17 @@
         <v>13</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="31">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="J29" s="32" t="s">
         <v>135</v>
@@ -4595,12 +4649,12 @@
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
     </row>
-    <row r="30" spans="1:12" ht="208">
+    <row r="30" spans="1:12" ht="240">
       <c r="A30" s="44" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>12</v>
@@ -4609,17 +4663,17 @@
         <v>13</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="31">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="J30" s="32" t="s">
         <v>135</v>
@@ -4627,44 +4681,44 @@
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="1:12" ht="112">
+    <row r="31" spans="1:12" ht="208">
       <c r="A31" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>146</v>
+        <v>14</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="31">
-        <v>44985</v>
+        <v>44991</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" ht="335">
+    <row r="32" spans="1:12" ht="112">
       <c r="A32" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>108</v>
@@ -4673,17 +4727,17 @@
         <v>13</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>150</v>
+        <v>20</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="31">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="J32" s="32" t="s">
         <v>111</v>
@@ -4691,47 +4745,47 @@
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
     </row>
-    <row r="33" spans="1:12" ht="80">
+    <row r="33" spans="1:12" ht="335">
       <c r="A33" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>154</v>
+        <v>14</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>150</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="31">
-        <v>44969</v>
+        <v>44973</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="K33" s="33"/>
       <c r="L33" s="33"/>
     </row>
-    <row r="34" spans="1:12" ht="128">
+    <row r="34" spans="1:12" ht="80">
       <c r="A34" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>13</v>
@@ -4740,60 +4794,62 @@
         <v>20</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H34" s="30"/>
       <c r="I34" s="31">
-        <v>44965</v>
+        <v>44969</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
     </row>
-    <row r="35" spans="1:12" ht="160">
+    <row r="35" spans="1:12" ht="128">
       <c r="A35" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="25"/>
+        <v>20</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="G35" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="31">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
     </row>
-    <row r="36" spans="1:12" ht="236">
+    <row r="36" spans="1:12" ht="160">
       <c r="A36" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>13</v>
@@ -4802,28 +4858,28 @@
         <v>14</v>
       </c>
       <c r="F36" s="25"/>
-      <c r="G36" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="H36" s="34"/>
+      <c r="G36" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="H36" s="30"/>
       <c r="I36" s="31">
-        <v>44958</v>
+        <v>44964</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
     </row>
-    <row r="37" spans="1:12" ht="365">
+    <row r="37" spans="1:12" ht="236">
       <c r="A37" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>13</v>
@@ -4831,152 +4887,150 @@
       <c r="E37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="H37" s="30"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" s="34"/>
       <c r="I37" s="31">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
     </row>
-    <row r="38" spans="1:12" ht="224">
+    <row r="38" spans="1:12" ht="365">
       <c r="A38" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F38" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>168</v>
+      </c>
       <c r="G38" s="30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="31">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
-    <row r="39" spans="1:12" ht="128">
+    <row r="39" spans="1:12" ht="224">
       <c r="A39" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="H39" s="35"/>
+        <v>173</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="30"/>
       <c r="I39" s="31">
         <v>44937</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
     </row>
-    <row r="40" spans="1:12" ht="409.6">
+    <row r="40" spans="1:12" ht="128">
       <c r="A40" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="H40" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" s="35"/>
       <c r="I40" s="31">
-        <v>44915</v>
+        <v>44937</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
     </row>
-    <row r="41" spans="1:12" ht="144">
+    <row r="41" spans="1:12" ht="409.6">
       <c r="A41" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="H41" s="37"/>
+        <v>184</v>
+      </c>
+      <c r="F41" s="36"/>
+      <c r="G41" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="30"/>
       <c r="I41" s="31">
-        <v>44910</v>
+        <v>44915</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
     </row>
-    <row r="42" spans="1:12" ht="176">
-      <c r="A42" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>192</v>
+    <row r="42" spans="1:12" ht="144">
+      <c r="A42" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>12</v>
@@ -4985,86 +5039,119 @@
         <v>13</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="36"/>
+        <v>173</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>189</v>
+      </c>
       <c r="G42" s="37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H42" s="37"/>
       <c r="I42" s="31">
-        <v>44903</v>
+        <v>44910</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
     </row>
-    <row r="43" spans="1:12" ht="192">
-      <c r="A43" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>196</v>
+    <row r="43" spans="1:12" ht="176">
+      <c r="A43" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>197</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F43" s="36"/>
       <c r="G43" s="37" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H43" s="37"/>
       <c r="I43" s="31">
-        <v>44576</v>
+        <v>44903</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K43" s="33"/>
       <c r="L43" s="33"/>
+    </row>
+    <row r="44" spans="1:12" ht="192">
+      <c r="A44" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H44" s="37"/>
+      <c r="I44" s="31">
+        <v>44576</v>
+      </c>
+      <c r="J44" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G22" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
-    <hyperlink ref="G27" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
-    <hyperlink ref="G31" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
-    <hyperlink ref="G28" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
-    <hyperlink ref="G29" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
-    <hyperlink ref="G32" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
-    <hyperlink ref="F33" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
-    <hyperlink ref="F34" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
-    <hyperlink ref="G40" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
-    <hyperlink ref="G42" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
-    <hyperlink ref="J6" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
-    <hyperlink ref="J7" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
-    <hyperlink ref="J8" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
-    <hyperlink ref="J9" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
-    <hyperlink ref="J10" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
-    <hyperlink ref="J11" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
-    <hyperlink ref="J12" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
-    <hyperlink ref="J14" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
-    <hyperlink ref="J13" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
-    <hyperlink ref="J15" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
-    <hyperlink ref="J16" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
-    <hyperlink ref="J17" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
-    <hyperlink ref="J18" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
-    <hyperlink ref="J19" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
-    <hyperlink ref="J20" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
-    <hyperlink ref="J26" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
-    <hyperlink ref="J4" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
-    <hyperlink ref="J3" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
-    <hyperlink ref="J2" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
+    <hyperlink ref="G23" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
+    <hyperlink ref="G28" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
+    <hyperlink ref="G32" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
+    <hyperlink ref="G29" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
+    <hyperlink ref="G30" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
+    <hyperlink ref="G33" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
+    <hyperlink ref="F34" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
+    <hyperlink ref="F35" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
+    <hyperlink ref="G41" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
+    <hyperlink ref="G43" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
+    <hyperlink ref="J7" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
+    <hyperlink ref="J8" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
+    <hyperlink ref="J9" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
+    <hyperlink ref="J10" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
+    <hyperlink ref="J11" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
+    <hyperlink ref="J12" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
+    <hyperlink ref="J13" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
+    <hyperlink ref="J15" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
+    <hyperlink ref="J14" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
+    <hyperlink ref="J16" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
+    <hyperlink ref="J17" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
+    <hyperlink ref="J18" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
+    <hyperlink ref="J19" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
+    <hyperlink ref="J20" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
+    <hyperlink ref="J21" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
+    <hyperlink ref="J27" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
+    <hyperlink ref="J5" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
+    <hyperlink ref="J4" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
+    <hyperlink ref="J3" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
+    <hyperlink ref="J2" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834A3BD9-5491-E34D-831E-0087C306B89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D2590B-5732-EC47-8832-E2BBE7AB5F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8720" yWindow="-25620" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
@@ -3185,7 +3185,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3367,21 +3367,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3701,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3755,7 +3740,7 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" ht="116">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="45" t="s">
         <v>220</v>
       </c>
       <c r="B2" s="49" t="s">
@@ -3773,18 +3758,18 @@
       <c r="F2" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63">
+      <c r="H2" s="52"/>
+      <c r="I2" s="53">
         <v>45238</v>
       </c>
       <c r="J2" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="113">
       <c r="A3" s="45" t="s">

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D2590B-5732-EC47-8832-E2BBE7AB5F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECDAF21-9CB6-5E4D-957F-73B64DD09F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="-25620" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="17680" yWindow="-25020" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="229">
   <si>
     <t>Title</t>
   </si>
@@ -2810,6 +2810,48 @@
   </si>
   <si>
     <t>https://today.line.me/tw/v2/article/Ggl0nW8</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N044</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>建設小型綠化休憩公園</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/285954148759768/permalink/1294033397951833/?mibextid=uJjRxr</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>會勘籌畫A7文青里至青年公園產業道路侧公有土地</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;p&gt;
+&lt;a href="https://www.facebook.com/groups/285954148759768/permalink/1294033397951833/?mibextid=uJjRxr"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園市龜山區文青社區發展協會 2023/11/08 &lt;/a&gt;
+李宗豪市議員及服務處林建宗主任桃園市政府農業局及龜山區公所  , 一起會勘籌畫A7文青里至青年公園產業道路侧公有土地，建設小型綠化休憩公園，第一次現場會勘檢討。（文青路395巷）&lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-044.jpeg" alt="李宗豪服務" sizes="sm:100vw md:150vw lg:200vw" /&gt;
+&lt;/p&gt;</t>
+    </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3684,10 +3726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3739,201 +3781,201 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="116">
+    <row r="2" spans="1:12" ht="148">
       <c r="A2" s="45" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H2" s="52"/>
       <c r="I2" s="53">
         <v>45238</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>
     </row>
-    <row r="3" spans="1:12" ht="113">
+    <row r="3" spans="1:12" ht="116">
       <c r="A3" s="45" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>218</v>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>221</v>
       </c>
       <c r="G3" s="56" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="53">
-        <v>45233</v>
+        <v>45238</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K3" s="54"/>
       <c r="L3" s="54"/>
     </row>
-    <row r="4" spans="1:12" ht="212">
+    <row r="4" spans="1:12" ht="113">
       <c r="A4" s="45" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>207</v>
+        <v>213</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>209</v>
+        <v>215</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>218</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="53">
         <v>45233</v>
       </c>
-      <c r="J4" s="57" t="s">
-        <v>210</v>
+      <c r="J4" s="59" t="s">
+        <v>217</v>
       </c>
       <c r="K4" s="54"/>
       <c r="L4" s="54"/>
     </row>
-    <row r="5" spans="1:12" ht="113">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:12" ht="212">
+      <c r="A5" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53">
+        <v>45233</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+    </row>
+    <row r="6" spans="1:12" ht="113">
+      <c r="A6" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B6" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F6" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G6" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I6" s="27">
         <v>45225</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J6" s="48" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="99">
-      <c r="A6" s="41" t="s">
+    <row r="7" spans="1:12" ht="99">
+      <c r="A7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9">
+      <c r="H7" s="8"/>
+      <c r="I7" s="9">
         <v>45204</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="80">
-      <c r="A7" s="42" t="s">
+    <row r="8" spans="1:12" ht="80">
+      <c r="A8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13">
-        <v>45181</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="1:12" ht="176">
-      <c r="A8" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
@@ -3945,32 +3987,30 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H8" s="12"/>
       <c r="I8" s="13">
-        <v>45159</v>
+        <v>45181</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="208">
+    <row r="9" spans="1:12" ht="176">
       <c r="A9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>13</v>
@@ -3979,32 +4019,32 @@
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="13">
-        <v>45157</v>
+        <v>45159</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="128">
+    <row r="10" spans="1:12" ht="208">
       <c r="A10" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>13</v>
@@ -4013,27 +4053,29 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="I10" s="13">
-        <v>45138</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>40</v>
+        <v>45157</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="56">
+    <row r="11" spans="1:12" ht="128">
       <c r="A11" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>
@@ -4045,59 +4087,59 @@
         <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="12"/>
       <c r="I11" s="13">
-        <v>45103</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>45</v>
+        <v>45138</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="80">
+    <row r="12" spans="1:12" ht="56">
       <c r="A12" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="17"/>
       <c r="I12" s="13">
-        <v>45092</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>50</v>
+        <v>45103</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="48">
+    <row r="13" spans="1:12" ht="80">
       <c r="A13" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>12</v>
@@ -4106,33 +4148,33 @@
         <v>13</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="13">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="409.6">
+    <row r="14" spans="1:12" ht="48">
       <c r="A14" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>13</v>
@@ -4141,30 +4183,30 @@
         <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13">
-        <v>45058</v>
+        <v>45071</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="409.6">
       <c r="A15" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>13</v>
@@ -4173,29 +4215,29 @@
         <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="13">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" ht="128">
+    <row r="16" spans="1:12" ht="409.6">
       <c r="A16" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -4205,62 +4247,62 @@
         <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" ht="409.6">
+    <row r="17" spans="1:12" ht="128">
       <c r="A17" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="13">
-        <v>45029</v>
+        <v>45051</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" ht="408">
+    <row r="18" spans="1:12" ht="409.6">
       <c r="A18" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>13</v>
@@ -4269,91 +4311,91 @@
         <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="13">
         <v>45029</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:12" ht="192">
+    <row r="19" spans="1:12" ht="408">
       <c r="A19" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>83</v>
+        <v>14</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="13">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" ht="112">
+    <row r="20" spans="1:12" ht="192">
       <c r="A20" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13">
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" ht="110">
+    <row r="21" spans="1:12" ht="112">
       <c r="A21" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>12</v>
@@ -4365,29 +4407,29 @@
         <v>14</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="13">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" ht="96">
-      <c r="A22" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="6" t="s">
+    <row r="22" spans="1:12" ht="110">
+      <c r="A22" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -4397,27 +4439,27 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="13">
-        <v>45016</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>100</v>
+        <v>45020</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" ht="48">
-      <c r="A23" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>102</v>
+    <row r="23" spans="1:12" ht="96">
+      <c r="A23" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>12</v>
@@ -4426,33 +4468,33 @@
         <v>13</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21">
-        <v>45002</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+        <v>98</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13">
+        <v>45016</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" ht="176">
+    <row r="24" spans="1:12" ht="48">
       <c r="A24" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>13</v>
@@ -4460,31 +4502,31 @@
       <c r="E24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="24" t="s">
-        <v>109</v>
+      <c r="F24" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H24" s="20"/>
       <c r="I24" s="21">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
     </row>
-    <row r="25" spans="1:12" ht="208">
+    <row r="25" spans="1:12" ht="176">
       <c r="A25" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>13</v>
@@ -4492,30 +4534,30 @@
       <c r="E25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>114</v>
+      <c r="F25" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="21">
         <v>45001</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
     </row>
-    <row r="26" spans="1:12" ht="192">
+    <row r="26" spans="1:12" ht="208">
       <c r="A26" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -4525,27 +4567,27 @@
         <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="21">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
     </row>
-    <row r="27" spans="1:12" ht="240">
-      <c r="A27" s="44" t="s">
-        <v>122</v>
+    <row r="27" spans="1:12" ht="192">
+      <c r="A27" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>32</v>
@@ -4556,61 +4598,61 @@
       <c r="E27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27">
-        <v>44999</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>126</v>
-      </c>
+      <c r="F27" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21">
+        <v>45000</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
     </row>
     <row r="28" spans="1:12" ht="240">
       <c r="A28" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31">
-        <v>44998</v>
-      </c>
-      <c r="J28" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27">
+        <v>44999</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" ht="395">
+    <row r="29" spans="1:12" ht="240">
       <c r="A29" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>13</v>
@@ -4618,28 +4660,28 @@
       <c r="E29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="25" t="s">
-        <v>133</v>
+      <c r="F29" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="31">
-        <v>44993</v>
+        <v>44998</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
     </row>
-    <row r="30" spans="1:12" ht="240">
+    <row r="30" spans="1:12" ht="395">
       <c r="A30" s="44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>12</v>
@@ -4648,17 +4690,17 @@
         <v>13</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="31">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="J30" s="32" t="s">
         <v>135</v>
@@ -4666,12 +4708,12 @@
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="1:12" ht="208">
+    <row r="31" spans="1:12" ht="240">
       <c r="A31" s="44" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>12</v>
@@ -4680,17 +4722,17 @@
         <v>13</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="31">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="J31" s="32" t="s">
         <v>135</v>
@@ -4698,44 +4740,44 @@
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" ht="112">
+    <row r="32" spans="1:12" ht="208">
       <c r="A32" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>146</v>
+        <v>14</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="31">
-        <v>44985</v>
+        <v>44991</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
     </row>
-    <row r="33" spans="1:12" ht="335">
+    <row r="33" spans="1:12" ht="112">
       <c r="A33" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>108</v>
@@ -4744,17 +4786,17 @@
         <v>13</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>150</v>
+        <v>20</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="31">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="J33" s="32" t="s">
         <v>111</v>
@@ -4762,47 +4804,47 @@
       <c r="K33" s="33"/>
       <c r="L33" s="33"/>
     </row>
-    <row r="34" spans="1:12" ht="80">
+    <row r="34" spans="1:12" ht="335">
       <c r="A34" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>154</v>
+        <v>14</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>150</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H34" s="30"/>
       <c r="I34" s="31">
-        <v>44969</v>
+        <v>44973</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
     </row>
-    <row r="35" spans="1:12" ht="128">
+    <row r="35" spans="1:12" ht="80">
       <c r="A35" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>13</v>
@@ -4811,60 +4853,62 @@
         <v>20</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="31">
-        <v>44965</v>
+        <v>44969</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
     </row>
-    <row r="36" spans="1:12" ht="160">
+    <row r="36" spans="1:12" ht="128">
       <c r="A36" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="25"/>
+        <v>20</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="G36" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="31">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
     </row>
-    <row r="37" spans="1:12" ht="236">
+    <row r="37" spans="1:12" ht="160">
       <c r="A37" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>13</v>
@@ -4873,28 +4917,28 @@
         <v>14</v>
       </c>
       <c r="F37" s="25"/>
-      <c r="G37" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37" s="34"/>
+      <c r="G37" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" s="30"/>
       <c r="I37" s="31">
-        <v>44958</v>
+        <v>44964</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
     </row>
-    <row r="38" spans="1:12" ht="365">
+    <row r="38" spans="1:12" ht="236">
       <c r="A38" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>13</v>
@@ -4902,152 +4946,150 @@
       <c r="E38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="H38" s="30"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" s="34"/>
       <c r="I38" s="31">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
-    <row r="39" spans="1:12" ht="224">
+    <row r="39" spans="1:12" ht="365">
       <c r="A39" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>168</v>
+      </c>
       <c r="G39" s="30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="31">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
     </row>
-    <row r="40" spans="1:12" ht="128">
+    <row r="40" spans="1:12" ht="224">
       <c r="A40" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="H40" s="35"/>
+        <v>173</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H40" s="30"/>
       <c r="I40" s="31">
         <v>44937</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
     </row>
-    <row r="41" spans="1:12" ht="409.6">
+    <row r="41" spans="1:12" ht="128">
       <c r="A41" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="H41" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H41" s="35"/>
       <c r="I41" s="31">
-        <v>44915</v>
+        <v>44937</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
     </row>
-    <row r="42" spans="1:12" ht="144">
+    <row r="42" spans="1:12" ht="409.6">
       <c r="A42" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="G42" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="H42" s="37"/>
+        <v>184</v>
+      </c>
+      <c r="F42" s="36"/>
+      <c r="G42" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42" s="30"/>
       <c r="I42" s="31">
-        <v>44910</v>
+        <v>44915</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
     </row>
-    <row r="43" spans="1:12" ht="176">
-      <c r="A43" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>192</v>
+    <row r="43" spans="1:12" ht="144">
+      <c r="A43" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>12</v>
@@ -5056,87 +5098,120 @@
         <v>13</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="36"/>
+        <v>173</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>189</v>
+      </c>
       <c r="G43" s="37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H43" s="37"/>
       <c r="I43" s="31">
-        <v>44903</v>
+        <v>44910</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="K43" s="33"/>
       <c r="L43" s="33"/>
     </row>
-    <row r="44" spans="1:12" ht="192">
-      <c r="A44" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>196</v>
+    <row r="44" spans="1:12" ht="176">
+      <c r="A44" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>197</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F44" s="36"/>
       <c r="G44" s="37" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H44" s="37"/>
       <c r="I44" s="31">
-        <v>44576</v>
+        <v>44903</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
+    </row>
+    <row r="45" spans="1:12" ht="192">
+      <c r="A45" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H45" s="37"/>
+      <c r="I45" s="31">
+        <v>44576</v>
+      </c>
+      <c r="J45" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
-    <hyperlink ref="G28" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
-    <hyperlink ref="G32" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
-    <hyperlink ref="G29" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
-    <hyperlink ref="G30" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
-    <hyperlink ref="G33" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
-    <hyperlink ref="F34" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
-    <hyperlink ref="F35" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
-    <hyperlink ref="G41" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
-    <hyperlink ref="G43" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
-    <hyperlink ref="J7" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
-    <hyperlink ref="J8" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
-    <hyperlink ref="J9" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
-    <hyperlink ref="J10" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
-    <hyperlink ref="J11" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
-    <hyperlink ref="J12" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
-    <hyperlink ref="J13" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
-    <hyperlink ref="J15" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
-    <hyperlink ref="J14" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
-    <hyperlink ref="J16" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
-    <hyperlink ref="J17" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
-    <hyperlink ref="J18" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
-    <hyperlink ref="J19" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
-    <hyperlink ref="J20" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
-    <hyperlink ref="J21" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
-    <hyperlink ref="J27" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
-    <hyperlink ref="J5" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
-    <hyperlink ref="J4" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
-    <hyperlink ref="J3" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
-    <hyperlink ref="J2" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
+    <hyperlink ref="G24" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
+    <hyperlink ref="G29" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
+    <hyperlink ref="G33" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
+    <hyperlink ref="G30" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
+    <hyperlink ref="G31" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
+    <hyperlink ref="G34" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
+    <hyperlink ref="F35" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
+    <hyperlink ref="F36" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
+    <hyperlink ref="G42" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
+    <hyperlink ref="G44" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
+    <hyperlink ref="J8" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
+    <hyperlink ref="J9" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
+    <hyperlink ref="J10" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
+    <hyperlink ref="J11" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
+    <hyperlink ref="J12" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
+    <hyperlink ref="J13" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
+    <hyperlink ref="J14" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
+    <hyperlink ref="J16" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
+    <hyperlink ref="J15" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
+    <hyperlink ref="J17" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
+    <hyperlink ref="J18" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
+    <hyperlink ref="J19" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
+    <hyperlink ref="J20" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
+    <hyperlink ref="J21" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
+    <hyperlink ref="J22" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
+    <hyperlink ref="J28" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
+    <hyperlink ref="J6" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
+    <hyperlink ref="J5" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
+    <hyperlink ref="J4" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
+    <hyperlink ref="J3" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
+    <hyperlink ref="J2" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECDAF21-9CB6-5E4D-957F-73B64DD09F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC15847-FCF4-7D4E-B59D-90DD203C7D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17680" yWindow="-25020" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="5860" yWindow="-24260" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="235">
   <si>
     <t>Title</t>
   </si>
@@ -2852,6 +2852,31 @@
 &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-044.jpeg" alt="李宗豪服務" sizes="sm:100vw md:150vw lg:200vw" /&gt;
 &lt;/p&gt;</t>
     </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N045</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.1 提升環境保護作業</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tyenews.com/2023/11/450256/?fbclid=IwAR224p-QIgEzXoODiFJNPKP8v8zp0tNcojflCYdPzU7lpd7DisTMiShhfW4</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳雅倫關心桃園「垃圾危機」</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜山區大埔垃圾轉運站飄出酸臭味，要求張善政市府團隊提出大埔轉運站撤離時間表</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳雅倫表示，桃園市因為垃圾處理不當，讓大埔轉運站變成暫置場，垃圾堆放引發惡臭，龜山市民成為人體空氣清靜機，龜山更不是垃圾山，市府應提出大埔轉運站撤離時間表。
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-045.jpeg" alt="雅倫服務" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3227,7 +3252,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3409,6 +3434,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3726,10 +3763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="H3" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3781,233 +3818,233 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="148">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:12" ht="80">
+      <c r="A2" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63">
+        <v>45237</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+    </row>
+    <row r="3" spans="1:12" ht="148">
+      <c r="A3" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B3" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F3" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G3" s="56" t="s">
         <v>228</v>
-      </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53">
-        <v>45238</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-    </row>
-    <row r="3" spans="1:12" ht="116">
-      <c r="A3" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>222</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="53">
         <v>45238</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K3" s="54"/>
       <c r="L3" s="54"/>
     </row>
-    <row r="4" spans="1:12" ht="113">
+    <row r="4" spans="1:12" ht="116">
       <c r="A4" s="45" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>218</v>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>221</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="53">
-        <v>45233</v>
+        <v>45238</v>
       </c>
       <c r="J4" s="59" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K4" s="54"/>
       <c r="L4" s="54"/>
     </row>
-    <row r="5" spans="1:12" ht="212">
+    <row r="5" spans="1:12" ht="113">
       <c r="A5" s="45" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>207</v>
+        <v>213</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>209</v>
+        <v>215</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>218</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="53">
         <v>45233</v>
       </c>
-      <c r="J5" s="57" t="s">
-        <v>210</v>
+      <c r="J5" s="59" t="s">
+        <v>217</v>
       </c>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
     </row>
-    <row r="6" spans="1:12" ht="113">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:12" ht="212">
+      <c r="A6" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53">
+        <v>45233</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="1:12" ht="113">
+      <c r="A7" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B7" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F7" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G7" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I7" s="27">
         <v>45225</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J7" s="48" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="99">
-      <c r="A7" s="41" t="s">
+    <row r="8" spans="1:12" ht="99">
+      <c r="A8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9">
+      <c r="H8" s="8"/>
+      <c r="I8" s="9">
         <v>45204</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
-    <row r="8" spans="1:12" ht="80">
-      <c r="A8" s="42" t="s">
+    <row r="9" spans="1:12" ht="80">
+      <c r="A9" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13">
-        <v>45181</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="1:12" ht="176">
-      <c r="A9" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>12</v>
@@ -4019,32 +4056,30 @@
         <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H9" s="12"/>
       <c r="I9" s="13">
-        <v>45159</v>
+        <v>45181</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="208">
+    <row r="10" spans="1:12" ht="176">
       <c r="A10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>13</v>
@@ -4053,32 +4088,32 @@
         <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="13">
-        <v>45157</v>
+        <v>45159</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="128">
+    <row r="11" spans="1:12" ht="208">
       <c r="A11" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>13</v>
@@ -4087,27 +4122,29 @@
         <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="I11" s="13">
-        <v>45138</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>40</v>
+        <v>45157</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="56">
+    <row r="12" spans="1:12" ht="128">
       <c r="A12" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>12</v>
@@ -4119,59 +4156,59 @@
         <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="12"/>
       <c r="I12" s="13">
-        <v>45103</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>45</v>
+        <v>45138</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="80">
+    <row r="13" spans="1:12" ht="56">
       <c r="A13" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="17"/>
       <c r="I13" s="13">
-        <v>45092</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>50</v>
+        <v>45103</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="48">
+    <row r="14" spans="1:12" ht="80">
       <c r="A14" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>12</v>
@@ -4180,33 +4217,33 @@
         <v>13</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="409.6">
+    <row r="15" spans="1:12" ht="48">
       <c r="A15" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>13</v>
@@ -4215,30 +4252,30 @@
         <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="13">
-        <v>45058</v>
+        <v>45071</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="409.6">
       <c r="A16" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>13</v>
@@ -4247,29 +4284,29 @@
         <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="13">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" ht="128">
+    <row r="17" spans="1:12" ht="409.6">
       <c r="A17" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -4279,62 +4316,62 @@
         <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="13">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" ht="409.6">
+    <row r="18" spans="1:12" ht="128">
       <c r="A18" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="13">
-        <v>45029</v>
+        <v>45051</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:12" ht="408">
+    <row r="19" spans="1:12" ht="409.6">
       <c r="A19" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>13</v>
@@ -4343,91 +4380,91 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="13">
         <v>45029</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" ht="192">
+    <row r="20" spans="1:12" ht="408">
       <c r="A20" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>83</v>
+        <v>14</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" ht="112">
+    <row r="21" spans="1:12" ht="192">
       <c r="A21" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>88</v>
+        <v>20</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="13">
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" ht="110">
+    <row r="22" spans="1:12" ht="112">
       <c r="A22" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>12</v>
@@ -4439,29 +4476,29 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="13">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" ht="96">
-      <c r="A23" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="6" t="s">
+    <row r="23" spans="1:12" ht="110">
+      <c r="A23" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -4471,27 +4508,27 @@
         <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="13">
-        <v>45016</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>100</v>
+        <v>45020</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" ht="48">
-      <c r="A24" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>102</v>
+    <row r="24" spans="1:12" ht="96">
+      <c r="A24" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>12</v>
@@ -4500,33 +4537,33 @@
         <v>13</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21">
-        <v>45002</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+        <v>98</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13">
+        <v>45016</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" ht="176">
+    <row r="25" spans="1:12" ht="48">
       <c r="A25" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>13</v>
@@ -4534,31 +4571,31 @@
       <c r="E25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>109</v>
+      <c r="F25" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="21">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
     </row>
-    <row r="26" spans="1:12" ht="208">
+    <row r="26" spans="1:12" ht="176">
       <c r="A26" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>13</v>
@@ -4566,30 +4603,30 @@
       <c r="E26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>114</v>
+      <c r="F26" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="21">
         <v>45001</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
     </row>
-    <row r="27" spans="1:12" ht="192">
+    <row r="27" spans="1:12" ht="208">
       <c r="A27" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -4599,27 +4636,27 @@
         <v>20</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="21">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
     </row>
-    <row r="28" spans="1:12" ht="240">
-      <c r="A28" s="44" t="s">
-        <v>122</v>
+    <row r="28" spans="1:12" ht="192">
+      <c r="A28" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>32</v>
@@ -4630,61 +4667,61 @@
       <c r="E28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27">
-        <v>44999</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>126</v>
-      </c>
+      <c r="F28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21">
+        <v>45000</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
     </row>
     <row r="29" spans="1:12" ht="240">
       <c r="A29" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31">
-        <v>44998</v>
-      </c>
-      <c r="J29" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27">
+        <v>44999</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="30" spans="1:12" ht="395">
+    <row r="30" spans="1:12" ht="240">
       <c r="A30" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>13</v>
@@ -4692,28 +4729,28 @@
       <c r="E30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="25" t="s">
-        <v>133</v>
+      <c r="F30" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="31">
-        <v>44993</v>
+        <v>44998</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="1:12" ht="240">
+    <row r="31" spans="1:12" ht="395">
       <c r="A31" s="44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>12</v>
@@ -4722,17 +4759,17 @@
         <v>13</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="31">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="J31" s="32" t="s">
         <v>135</v>
@@ -4740,12 +4777,12 @@
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
     </row>
-    <row r="32" spans="1:12" ht="208">
+    <row r="32" spans="1:12" ht="240">
       <c r="A32" s="44" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>12</v>
@@ -4754,17 +4791,17 @@
         <v>13</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="31">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="J32" s="32" t="s">
         <v>135</v>
@@ -4772,44 +4809,44 @@
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
     </row>
-    <row r="33" spans="1:12" ht="112">
+    <row r="33" spans="1:12" ht="208">
       <c r="A33" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>146</v>
+        <v>14</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="31">
-        <v>44985</v>
+        <v>44991</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K33" s="33"/>
       <c r="L33" s="33"/>
     </row>
-    <row r="34" spans="1:12" ht="335">
+    <row r="34" spans="1:12" ht="112">
       <c r="A34" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>108</v>
@@ -4818,17 +4855,17 @@
         <v>13</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>150</v>
+        <v>20</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H34" s="30"/>
       <c r="I34" s="31">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="J34" s="32" t="s">
         <v>111</v>
@@ -4836,47 +4873,47 @@
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
     </row>
-    <row r="35" spans="1:12" ht="80">
+    <row r="35" spans="1:12" ht="335">
       <c r="A35" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>154</v>
+        <v>14</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>150</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="31">
-        <v>44969</v>
+        <v>44973</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
     </row>
-    <row r="36" spans="1:12" ht="128">
+    <row r="36" spans="1:12" ht="80">
       <c r="A36" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>13</v>
@@ -4885,60 +4922,62 @@
         <v>20</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="31">
-        <v>44965</v>
+        <v>44969</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="K36" s="33"/>
       <c r="L36" s="33"/>
     </row>
-    <row r="37" spans="1:12" ht="160">
+    <row r="37" spans="1:12" ht="128">
       <c r="A37" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="25"/>
+        <v>20</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="G37" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="31">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
     </row>
-    <row r="38" spans="1:12" ht="236">
+    <row r="38" spans="1:12" ht="160">
       <c r="A38" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>13</v>
@@ -4947,28 +4986,28 @@
         <v>14</v>
       </c>
       <c r="F38" s="25"/>
-      <c r="G38" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="H38" s="34"/>
+      <c r="G38" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" s="30"/>
       <c r="I38" s="31">
-        <v>44958</v>
+        <v>44964</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
     </row>
-    <row r="39" spans="1:12" ht="365">
+    <row r="39" spans="1:12" ht="236">
       <c r="A39" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>13</v>
@@ -4976,152 +5015,150 @@
       <c r="E39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="H39" s="30"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" s="34"/>
       <c r="I39" s="31">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
     </row>
-    <row r="40" spans="1:12" ht="224">
+    <row r="40" spans="1:12" ht="365">
       <c r="A40" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>168</v>
+      </c>
       <c r="G40" s="30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H40" s="30"/>
       <c r="I40" s="31">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
     </row>
-    <row r="41" spans="1:12" ht="128">
+    <row r="41" spans="1:12" ht="224">
       <c r="A41" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="H41" s="35"/>
+        <v>173</v>
+      </c>
+      <c r="F41" s="25"/>
+      <c r="G41" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H41" s="30"/>
       <c r="I41" s="31">
         <v>44937</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
     </row>
-    <row r="42" spans="1:12" ht="409.6">
+    <row r="42" spans="1:12" ht="128">
       <c r="A42" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F42" s="36"/>
-      <c r="G42" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="H42" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="35"/>
       <c r="I42" s="31">
-        <v>44915</v>
+        <v>44937</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
     </row>
-    <row r="43" spans="1:12" ht="144">
+    <row r="43" spans="1:12" ht="409.6">
       <c r="A43" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="G43" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="H43" s="37"/>
+        <v>184</v>
+      </c>
+      <c r="F43" s="36"/>
+      <c r="G43" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="H43" s="30"/>
       <c r="I43" s="31">
-        <v>44910</v>
+        <v>44915</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="K43" s="33"/>
       <c r="L43" s="33"/>
     </row>
-    <row r="44" spans="1:12" ht="176">
-      <c r="A44" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>192</v>
+    <row r="44" spans="1:12" ht="144">
+      <c r="A44" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>12</v>
@@ -5130,88 +5167,121 @@
         <v>13</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="36"/>
+        <v>173</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>189</v>
+      </c>
       <c r="G44" s="37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H44" s="37"/>
       <c r="I44" s="31">
-        <v>44903</v>
+        <v>44910</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
     </row>
-    <row r="45" spans="1:12" ht="192">
-      <c r="A45" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>196</v>
+    <row r="45" spans="1:12" ht="176">
+      <c r="A45" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>197</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F45" s="36"/>
       <c r="G45" s="37" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H45" s="37"/>
       <c r="I45" s="31">
-        <v>44576</v>
+        <v>44903</v>
       </c>
       <c r="J45" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
+    </row>
+    <row r="46" spans="1:12" ht="192">
+      <c r="A46" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H46" s="37"/>
+      <c r="I46" s="31">
+        <v>44576</v>
+      </c>
+      <c r="J46" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G24" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
-    <hyperlink ref="G29" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
-    <hyperlink ref="G33" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
-    <hyperlink ref="G30" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
-    <hyperlink ref="G31" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
-    <hyperlink ref="G34" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
-    <hyperlink ref="F35" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
-    <hyperlink ref="F36" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
-    <hyperlink ref="G42" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
-    <hyperlink ref="G44" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
-    <hyperlink ref="J8" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
-    <hyperlink ref="J9" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
-    <hyperlink ref="J10" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
-    <hyperlink ref="J11" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
-    <hyperlink ref="J12" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
-    <hyperlink ref="J13" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
-    <hyperlink ref="J14" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
-    <hyperlink ref="J16" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
-    <hyperlink ref="J15" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
-    <hyperlink ref="J17" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
-    <hyperlink ref="J18" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
-    <hyperlink ref="J19" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
-    <hyperlink ref="J20" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
-    <hyperlink ref="J21" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
-    <hyperlink ref="J22" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
-    <hyperlink ref="J28" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
-    <hyperlink ref="J6" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
-    <hyperlink ref="J5" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
-    <hyperlink ref="J4" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
-    <hyperlink ref="J3" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
-    <hyperlink ref="J2" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
+    <hyperlink ref="G25" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
+    <hyperlink ref="G30" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
+    <hyperlink ref="G34" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
+    <hyperlink ref="G31" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
+    <hyperlink ref="G32" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
+    <hyperlink ref="G35" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
+    <hyperlink ref="F36" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
+    <hyperlink ref="F37" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
+    <hyperlink ref="G43" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
+    <hyperlink ref="G45" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
+    <hyperlink ref="J9" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
+    <hyperlink ref="J10" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
+    <hyperlink ref="J11" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
+    <hyperlink ref="J12" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
+    <hyperlink ref="J13" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
+    <hyperlink ref="J14" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
+    <hyperlink ref="J15" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
+    <hyperlink ref="J17" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
+    <hyperlink ref="J16" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
+    <hyperlink ref="J18" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
+    <hyperlink ref="J19" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
+    <hyperlink ref="J20" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
+    <hyperlink ref="J21" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
+    <hyperlink ref="J22" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
+    <hyperlink ref="J23" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
+    <hyperlink ref="J29" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
+    <hyperlink ref="J7" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
+    <hyperlink ref="J6" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
+    <hyperlink ref="J5" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
+    <hyperlink ref="J4" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
+    <hyperlink ref="J3" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
+    <hyperlink ref="J2" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC15847-FCF4-7D4E-B59D-90DD203C7D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD0151-BD65-B74A-9823-C1BE1A7BE731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="-24260" windowWidth="27120" windowHeight="16380" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="10480" yWindow="-24660" windowWidth="27120" windowHeight="20080" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2652,6 +2652,26 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>爭取大崗高中設立</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N042</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛煦庭</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.3 加速都市整體發展</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.storm.mg/article/4893534</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2660,7 +2680,295 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>自由時報</t>
+      <t>侯友宜:與地方連線爭取大崗高中設立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>_x0011_</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N043</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/11/07 市政總質詢</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳雅倫要求張善政解決公車脫班問題 加速龜山變一道路工程</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://today.line.me/tw/v2/article/Ggl0nW8</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N044</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>建設小型綠化休憩公園</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/285954148759768/permalink/1294033397951833/?mibextid=uJjRxr</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>會勘籌畫A7文青里至青年公園產業道路侧公有土地</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N045</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.1 提升環境保護作業</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tyenews.com/2023/11/450256/?fbclid=IwAR224p-QIgEzXoODiFJNPKP8v8zp0tNcojflCYdPzU7lpd7DisTMiShhfW4</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳雅倫關心桃園「垃圾危機」</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜山區大埔垃圾轉運站飄出酸臭味，要求張善政市府團隊提出大埔轉運站撤離時間表</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    &lt;!-- Flex Container --&gt;
+    &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
+      &lt;!-- Image --&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-044.jpeg" alt=""
+        class="object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+      &lt;!-- Content --&gt;
+      &lt;div class="p-2 md:p-4"&gt;
+        &lt;h2 class=""&gt;
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">建設小型綠化休憩公園
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;/h2&gt;
+        &lt;p class="max-w-sm my-4  leading-5 tracking-wide "&gt;
+          &lt;a class="text-blue-600"
+            href="https://www.facebook.com/groups/285954148759768/permalink/1294033397951833/?mibextid=uJjRxr"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園市龜山區文青社區發展協會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/a&gt;
+          2023/11/08: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>李宗豪市議員及服務處林建宗主任桃園市政府農業局及龜山區公所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ,
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一起會勘籌畫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文青里至青年公園產業道路侧公有土地，建設小型綠化休憩公園，第一次現場會勘檢討。（文青路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>395</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">巷）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;/p&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;div class="flex flex-col md:flex-row"&gt;
+&lt;div  class="w-full md:w-1/2"&gt;&lt;a href="https://www.tycg.gov.tw/ch/home.jsp?id=10412&amp;parentpath=0%2C10401&amp;mcustomize=news_view_small.jsp&amp;dataserno=202311070006&amp;aplistdn=ou%3Dnews%2Cou%3Dchinese%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;toolsflag=Y&amp;fbclid=IwAR2lBCTiWHGGenIknPSg9Kern_U27AgDPVcIQr6h5jYTR3yCHABNXlCLzbk"&gt;11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月7日市政總質詢：陳雅倫議員&lt;/a&gt; 對A7建設的相關質詢匯總！&lt;/div&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-043.jpeg" alt="市政總質詢" class="w-full md:w-1/2" /&gt;
+&lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;div class="flex flex-col md:flex-row"&gt;
+&lt;div class="w-full md:w-1/2"&gt; &lt;a href="https://www.storm.mg/article/4893534"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新新聞 2023/11/03&lt;/a&gt; 龜山造勢力挺牛煦庭 侯友宜:與地方連線爭取大崗高中設立 &lt;br&gt;
+國民黨總統參選人侯友宜昨（2）日晚間到桃園龜山大坪頂，出席立委參選人牛煦庭造勢晚會，與桃園市長張善政、立法委員洪孟楷、游毓蘭、桃園市議員凌濤、孫韻璇，共同站台力挺牛煦庭。侯友宜承諾會和張善政、牛煦庭連成一心，連結中央與地方的力量，為龜山地區完成大崗高中的設立，&lt;/div&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-042.jpeg" alt="大岡高中" class="w-full md:w-1/2" /&gt;
+&lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  &lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    &lt;!-- Flex Container --&gt;
+    &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
+      &lt;!-- Image --&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-045.jpeg" alt=""
+        class="w-full md:w-1/2 object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+      &lt;!-- Content --&gt;
+      &lt;div class="p-2 md:p-4"&gt;
+        &lt;h2 class=""&gt;
+         垃圾危機
+        &lt;/h2&gt;
+        &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
+          陳雅倫表示，桃園市因為垃圾處理不當，讓大埔轉運站變成暫置場，垃圾堆放引發惡臭，龜山市民成為人體空氣清靜機，龜山更不是垃圾山，市府應提出大埔轉運站撤離時間表。
+        &lt;/p&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;div class="flex flex-col md:flex-row"&gt;
+&lt;div class="w-full md:w-1/2"&gt;
+自由時報</t>
     </r>
     <r>
       <rPr>
@@ -2683,7 +2991,8 @@
 2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！
 大埔轉運站原承諾在地鄉親垃圾不過夜，僅負擔轉運功能，但近期因欣榮焚化爐整改，引發桃園市垃圾危機，現在垃圾不只過夜、還過好幾夜！長期堆置的垃圾產生酸臭味，刺鼻難聞。
 近年來龜山人口成長迅速，儼然已成為人口密集區，自由時報 2023/11/02&lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;大埔轉運站 &lt;/a&gt;&lt;br&gt;
-2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！雅倫認為市府必須設法解決大埔轉運站惱人的惡臭，並研擬退場機制！&lt;br&gt;
+2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！雅倫認為市府必須設法解決大埔轉運站惱人的惡臭，並研擬退場機制！
+&lt;/div&gt;
 </t>
     </r>
     <r>
@@ -2703,180 +3012,9 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>慰問金" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>爭取大崗高中設立</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>N042</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛煦庭</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.3 加速都市整體發展</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;a href="https://www.storm.mg/article/4893534"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>新新聞 2023/11/03&lt;/a&gt; 龜山造勢力挺牛煦庭 侯友宜:與地方連線爭取大崗高中設立 &lt;br&gt;
-國民黨總統參選人侯友宜昨（2）日晚間到桃園龜山大坪頂，出席立委參選人牛煦庭造勢晚會，與桃園市長張善政、立法委員洪孟楷、游毓蘭、桃園市議員凌濤、孫韻璇，共同站台力挺牛煦庭。侯友宜承諾會和張善政、牛煦庭連成一心，連結中央與地方的力量，為龜山地區完成大崗高中的設立，
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-042.jpeg" alt="大岡高中" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.storm.mg/article/4893534</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>侯友宜:與地方連線爭取大崗高中設立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>_x0011_</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>N043</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/11/07 市政總質詢</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳雅倫要求張善政解決公車脫班問題 加速龜山變一道路工程</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;a href="https://www.tycg.gov.tw/ch/home.jsp?id=10412&amp;parentpath=0%2C10401&amp;mcustomize=news_view_small.jsp&amp;dataserno=202311070006&amp;aplistdn=ou%3Dnews%2Cou%3Dchinese%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;toolsflag=Y&amp;fbclid=IwAR2lBCTiWHGGenIknPSg9Kern_U27AgDPVcIQr6h5jYTR3yCHABNXlCLzbk"&gt;11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月7日市政總質詢：陳雅倫議員&lt;/a&gt; 對A7建設的相關質詢匯總！&lt;br&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-043.jpeg" alt="市政總質詢" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://today.line.me/tw/v2/article/Ggl0nW8</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>N044</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>建設小型綠化休憩公園</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/285954148759768/permalink/1294033397951833/?mibextid=uJjRxr</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>會勘籌畫A7文青里至青年公園產業道路侧公有土地</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;p&gt;
-&lt;a href="https://www.facebook.com/groups/285954148759768/permalink/1294033397951833/?mibextid=uJjRxr"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>桃園市龜山區文青社區發展協會 2023/11/08 &lt;/a&gt;
-李宗豪市議員及服務處林建宗主任桃園市政府農業局及龜山區公所  , 一起會勘籌畫A7文青里至青年公園產業道路侧公有土地，建設小型綠化休憩公園，第一次現場會勘檢討。（文青路395巷）&lt;br&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-044.jpeg" alt="李宗豪服務" sizes="sm:100vw md:150vw lg:200vw" /&gt;
-&lt;/p&gt;</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>N045</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.1 提升環境保護作業</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tyenews.com/2023/11/450256/?fbclid=IwAR224p-QIgEzXoODiFJNPKP8v8zp0tNcojflCYdPzU7lpd7DisTMiShhfW4</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳雅倫關心桃園「垃圾危機」</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>龜山區大埔垃圾轉運站飄出酸臭味，要求張善政市府團隊提出大埔轉運站撤離時間表</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳雅倫表示，桃園市因為垃圾處理不當，讓大埔轉運站變成暫置場，垃圾堆放引發惡臭，龜山市民成為人體空氣清靜機，龜山更不是垃圾山，市府應提出大埔轉運站撤離時間表。
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-045.jpeg" alt="雅倫服務" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
+      <t>慰問金" class="w-full md:w-1/2" /&gt;
+&lt;/div&gt;</t>
+    </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3252,7 +3390,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3436,16 +3574,13 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3765,8 +3900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="H3" sqref="H2:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3818,12 +3953,12 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="80">
-      <c r="A2" s="61" t="s">
-        <v>232</v>
+    <row r="2" spans="1:12" ht="335">
+      <c r="A2" s="63" t="s">
+        <v>228</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>12</v>
@@ -3832,30 +3967,30 @@
         <v>207</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F2" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="G2" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63">
+      <c r="H2" s="52"/>
+      <c r="I2" s="53">
         <v>45237</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
+        <v>227</v>
+      </c>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
     </row>
-    <row r="3" spans="1:12" ht="148">
+    <row r="3" spans="1:12" ht="409.6">
       <c r="A3" s="45" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>32</v>
@@ -3867,27 +4002,27 @@
         <v>14</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>228</v>
+        <v>224</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>230</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="53">
         <v>45238</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K3" s="54"/>
       <c r="L3" s="54"/>
     </row>
-    <row r="4" spans="1:12" ht="116">
+    <row r="4" spans="1:12" ht="149">
       <c r="A4" s="45" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
@@ -3899,54 +4034,54 @@
         <v>20</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="53">
         <v>45238</v>
       </c>
       <c r="J4" s="59" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K4" s="54"/>
       <c r="L4" s="54"/>
     </row>
-    <row r="5" spans="1:12" ht="113">
+    <row r="5" spans="1:12" ht="146">
       <c r="A5" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="C5" s="58" t="s">
         <v>213</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>214</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="53">
         <v>45233</v>
       </c>
       <c r="J5" s="59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
     </row>
-    <row r="6" spans="1:12" ht="212">
+    <row r="6" spans="1:12" ht="276">
       <c r="A6" s="45" t="s">
         <v>206</v>
       </c>
@@ -3966,7 +4101,7 @@
         <v>209</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="53">

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD0151-BD65-B74A-9823-C1BE1A7BE731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C75015-D2BC-D440-A5CC-DB4D5666DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="-24660" windowWidth="27120" windowHeight="20080" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="21060" yWindow="-23460" windowWidth="27120" windowHeight="20080" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2894,31 +2894,6 @@
         <family val="1"/>
       </rPr>
       <t>&lt;div class="flex flex-col md:flex-row"&gt;
-&lt;div  class="w-full md:w-1/2"&gt;&lt;a href="https://www.tycg.gov.tw/ch/home.jsp?id=10412&amp;parentpath=0%2C10401&amp;mcustomize=news_view_small.jsp&amp;dataserno=202311070006&amp;aplistdn=ou%3Dnews%2Cou%3Dchinese%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;toolsflag=Y&amp;fbclid=IwAR2lBCTiWHGGenIknPSg9Kern_U27AgDPVcIQr6h5jYTR3yCHABNXlCLzbk"&gt;11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>月7日市政總質詢：陳雅倫議員&lt;/a&gt; 對A7建設的相關質詢匯總！&lt;/div&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-043.jpeg" alt="市政總質詢" class="w-full md:w-1/2" /&gt;
-&lt;/div&gt;</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;div class="flex flex-col md:flex-row"&gt;
 &lt;div class="w-full md:w-1/2"&gt; &lt;a href="https://www.storm.mg/article/4893534"&gt;</t>
     </r>
     <r>
@@ -3013,6 +2988,42 @@
         <charset val="136"/>
       </rPr>
       <t>慰問金" class="w-full md:w-1/2" /&gt;
+&lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;div class="flex flex-col md:flex-row"&gt;
+&lt;div  class="w-full md:w-1/2"&gt;&lt;a href="https://www.tycg.gov.tw/ch/home.jsp?id=10412&amp;parentpath=0%2C10401&amp;mcustomize=news_view_small.jsp&amp;dataserno=202311070006&amp;aplistdn=ou%3Dnews%2Cou%3Dchinese%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;toolsflag=Y&amp;fbclid=IwAR2lBCTiWHGGenIknPSg9Kern_U27AgDPVcIQr6h5jYTR3yCHABNXlCLzbk"&gt;11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月7日市政總質詢：陳雅倫議員&lt;/a&gt; 對A7建設的相關質詢匯總！
+&lt;p&gt;【#A7聯外道路】一則以喜、一則以憂: &lt;br&gt;
+喜的是我在109年議會質詢時，率先提出振興路直接打通至青山路的案子已排入期程！憂的是文學路與樂善一路T字打通計劃，確定僅剩一條文學路&lt;/p&gt;
+&lt;p&gt;【#憂心變一道路】&lt;br&gt;
+這次總質詢我一樣做足功課，提出「五大疑問」請張善政市長正面回應這條命運多舛的「變一道路」，也就是早已編列預算等待施工的文學路及樂善一路。
+張市長以文化資產保存為由將原本今年已上網招標的高架工程撤下來，改為地下化工程，「樂善一路」正式消失，雖然工務局長表示會採預留的方式保存樂善一路開闢的可能性，但原本的設計本來就有打通樂善一路，變更設計後只剩下文學路開通了⋯⋯
+我提醒張市長，這個做法會讓原本期待未來有機會可以增加工程，銜接走樂善一路去文青國中小的爸爸媽媽們再度希望落空&lt;/p&gt;
+&lt;p&gt;【#歡喜振興路打通至青山路】&lt;br&gt;
+這是在109年由雅倫率先在議會提出的引流方案！
+文青路約有3分之1交通量來自振興路欲接青山路往新莊方向的通勤車流，若將振興路直接打通至青山路，可有效分流華亞科學園區上下班的車潮。
+工務局長跟我說明目前進度，正在進行價值工程檢討中，計畫採高架環型橋方式設計，正研究將原預估6億元經費，降低為2億元，有機會可縮短為1年工期，希望在115年完成，我們樂觀其成。也特別感謝專業的工務局長願意從善如流採納意見！&lt;/p&gt;
+&lt;/div&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-043.jpeg" alt="市政總質詢" class="w-full md:w-1/2" /&gt;
 &lt;/div&gt;</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -3900,8 +3911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3973,7 +3984,7 @@
         <v>229</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H2" s="52"/>
       <c r="I2" s="53">
@@ -4017,7 +4028,7 @@
       <c r="K3" s="54"/>
       <c r="L3" s="54"/>
     </row>
-    <row r="4" spans="1:12" ht="149">
+    <row r="4" spans="1:12" ht="409.6">
       <c r="A4" s="45" t="s">
         <v>218</v>
       </c>
@@ -4037,7 +4048,7 @@
         <v>219</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="53">
@@ -4069,7 +4080,7 @@
         <v>216</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="53">
@@ -4101,7 +4112,7 @@
         <v>209</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="53">

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C75015-D2BC-D440-A5CC-DB4D5666DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FCB682-0397-2440-8A75-0C9E55F06DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21060" yWindow="-23460" windowWidth="27120" windowHeight="20080" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="220" yWindow="-28300" windowWidth="38080" windowHeight="23920" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2748,6 +2748,113 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;div class="flex flex-col md:flex-row"&gt;
+&lt;div class="w-full md:w-1/2"&gt; &lt;a href="https://www.storm.mg/article/4893534"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新新聞 2023/11/03&lt;/a&gt; 龜山造勢力挺牛煦庭 侯友宜:與地方連線爭取大崗高中設立 &lt;br&gt;
+國民黨總統參選人侯友宜昨（2）日晚間到桃園龜山大坪頂，出席立委參選人牛煦庭造勢晚會，與桃園市長張善政、立法委員洪孟楷、游毓蘭、桃園市議員凌濤、孫韻璇，共同站台力挺牛煦庭。侯友宜承諾會和張善政、牛煦庭連成一心，連結中央與地方的力量，為龜山地區完成大崗高中的設立，&lt;/div&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-042.jpeg" alt="大岡高中" class="w-full md:w-1/2" /&gt;
+&lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&lt;div class="flex flex-col md:flex-row"&gt;
+&lt;div class="w-full md:w-1/2"&gt;
+自由時報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2023/11/02&lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">大埔轉運站 &lt;/a&gt;&lt;br&gt;
+2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！
+大埔轉運站原承諾在地鄉親垃圾不過夜，僅負擔轉運功能，但近期因欣榮焚化爐整改，引發桃園市垃圾危機，現在垃圾不只過夜、還過好幾夜！長期堆置的垃圾產生酸臭味，刺鼻難聞。
+近年來龜山人口成長迅速，儼然已成為人口密集區，自由時報 2023/11/02&lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;大埔轉運站 &lt;/a&gt;&lt;br&gt;
+2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！雅倫認為市府必須設法解決大埔轉運站惱人的惡臭，並研擬退場機制！
+&lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-041.jpeg" alt="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>慰問金" class="w-full md:w-1/2" /&gt;
+&lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  &lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    &lt;!-- Flex Container --&gt;
+    &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
+      &lt;!-- Image --&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-045.jpeg" alt=""
+        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+      &lt;!-- Content --&gt;
+      &lt;div class="p-2 md:p-4"&gt;
+        &lt;h3 class=""&gt;
+         垃圾危機
+        &lt;/h3&gt;
+        &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
+          陳雅倫表示，桃園市因為垃圾處理不當，讓大埔轉運站變成暫置場，垃圾堆放引發惡臭，龜山市民成為人體空氣清靜機，龜山更不是垃圾山，市府應提出大埔轉運站撤離時間表。
+        &lt;/p&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">  &lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
     &lt;!-- Flex Container --&gt;
     &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
@@ -2756,7 +2863,7 @@
         class="object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
       &lt;!-- Content --&gt;
       &lt;div class="p-2 md:p-4"&gt;
-        &lt;h2 class=""&gt;
+        &lt;h3 class=""&gt;
           </t>
     </r>
     <r>
@@ -2777,7 +2884,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">        &lt;/h2&gt;
+      <t xml:space="preserve">        &lt;/h3&gt;
         &lt;p class="max-w-sm my-4  leading-5 tracking-wide "&gt;
           &lt;a class="text-blue-600"
             href="https://www.facebook.com/groups/285954148759768/permalink/1294033397951833/?mibextid=uJjRxr"&gt;</t>
@@ -2893,8 +3000,8 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>&lt;div class="flex flex-col md:flex-row"&gt;
-&lt;div class="w-full md:w-1/2"&gt; &lt;a href="https://www.storm.mg/article/4893534"&gt;</t>
+      <t>&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl flex flex-col md:flex-row rounded-l-xl"&gt;
+&lt;div  class="p-2 md:p-4 w-full md:w-1/2"&gt;&lt;a href="https://www.tycg.gov.tw/ch/home.jsp?id=10412&amp;parentpath=0%2C10401&amp;mcustomize=news_view_small.jsp&amp;dataserno=202311070006&amp;aplistdn=ou%3Dnews%2Cou%3Dchinese%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;toolsflag=Y&amp;fbclid=IwAR2lBCTiWHGGenIknPSg9Kern_U27AgDPVcIQr6h5jYTR3yCHABNXlCLzbk"&gt;11</t>
     </r>
     <r>
       <rPr>
@@ -2904,126 +3011,38 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>新新聞 2023/11/03&lt;/a&gt; 龜山造勢力挺牛煦庭 侯友宜:與地方連線爭取大崗高中設立 &lt;br&gt;
-國民黨總統參選人侯友宜昨（2）日晚間到桃園龜山大坪頂，出席立委參選人牛煦庭造勢晚會，與桃園市長張善政、立法委員洪孟楷、游毓蘭、桃園市議員凌濤、孫韻璇，共同站台力挺牛煦庭。侯友宜承諾會和張善政、牛煦庭連成一心，連結中央與地方的力量，為龜山地區完成大崗高中的設立，&lt;/div&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-042.jpeg" alt="大岡高中" class="w-full md:w-1/2" /&gt;
-&lt;/div&gt;</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-  &lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
-    &lt;!-- Flex Container --&gt;
-    &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
-      &lt;!-- Image --&gt;
-      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-045.jpeg" alt=""
-        class="w-full md:w-1/2 object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
-      &lt;!-- Content --&gt;
-      &lt;div class="p-2 md:p-4"&gt;
-        &lt;h2 class=""&gt;
-         垃圾危機
-        &lt;/h2&gt;
-        &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
-          陳雅倫表示，桃園市因為垃圾處理不當，讓大埔轉運站變成暫置場，垃圾堆放引發惡臭，龜山市民成為人體空氣清靜機，龜山更不是垃圾山，市府應提出大埔轉運站撤離時間表。
-        &lt;/p&gt;
-      &lt;/div&gt;
-    &lt;/div&gt;
-  &lt;/div&gt;</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;div class="flex flex-col md:flex-row"&gt;
-&lt;div class="w-full md:w-1/2"&gt;
-自由時報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 2023/11/02&lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">大埔轉運站 &lt;/a&gt;&lt;br&gt;
-2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！
-大埔轉運站原承諾在地鄉親垃圾不過夜，僅負擔轉運功能，但近期因欣榮焚化爐整改，引發桃園市垃圾危機，現在垃圾不只過夜、還過好幾夜！長期堆置的垃圾產生酸臭味，刺鼻難聞。
-近年來龜山人口成長迅速，儼然已成為人口密集區，自由時報 2023/11/02&lt;a href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;大埔轉運站 &lt;/a&gt;&lt;br&gt;
-2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！雅倫認為市府必須設法解決大埔轉運站惱人的惡臭，並研擬退場機制！
-&lt;/div&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-041.jpeg" alt="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>慰問金" class="w-full md:w-1/2" /&gt;
-&lt;/div&gt;</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;div class="flex flex-col md:flex-row"&gt;
-&lt;div  class="w-full md:w-1/2"&gt;&lt;a href="https://www.tycg.gov.tw/ch/home.jsp?id=10412&amp;parentpath=0%2C10401&amp;mcustomize=news_view_small.jsp&amp;dataserno=202311070006&amp;aplistdn=ou%3Dnews%2Cou%3Dchinese%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;toolsflag=Y&amp;fbclid=IwAR2lBCTiWHGGenIknPSg9Kern_U27AgDPVcIQr6h5jYTR3yCHABNXlCLzbk"&gt;11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
       <t>月7日市政總質詢：陳雅倫議員&lt;/a&gt; 對A7建設的相關質詢匯總！
-&lt;p&gt;【#A7聯外道路】一則以喜、一則以憂: &lt;br&gt;
+&lt;p&gt; &lt;h3&gt;【#A7聯外道路】一則以喜、一則以憂: &lt;/h3&gt;
 喜的是我在109年議會質詢時，率先提出振興路直接打通至青山路的案子已排入期程！憂的是文學路與樂善一路T字打通計劃，確定僅剩一條文學路&lt;/p&gt;
 &lt;p&gt;【#憂心變一道路】&lt;br&gt;
 這次總質詢我一樣做足功課，提出「五大疑問」請張善政市長正面回應這條命運多舛的「變一道路」，也就是早已編列預算等待施工的文學路及樂善一路。
-張市長以文化資產保存為由將原本今年已上網招標的高架工程撤下來，改為地下化工程，「樂善一路」正式消失，雖然工務局長表示會採預留的方式保存樂善一路開闢的可能性，但原本的設計本來就有打通樂善一路，變更設計後只剩下文學路開通了⋯⋯
-我提醒張市長，這個做法會讓原本期待未來有機會可以增加工程，銜接走樂善一路去文青國中小的爸爸媽媽們再度希望落空&lt;/p&gt;
+張市長以文化資產保存為由將原本今年已上網招標的高架工程撤下來，改為地下化工程，「樂善一路」正式消失，雖然工務局長表示會採預留的方式保存樂善一路開闢的可能性，但原本的設計本來就有打通樂善一路，變更設計後只剩下文學路開通了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">⋯⋯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我提醒張市長，這個做法會讓原本期待未來有機會可以增加工程，銜接走樂善一路去文青國中小的爸爸媽媽們再度希望落空&lt;/p&gt;
 &lt;p&gt;【#歡喜振興路打通至青山路】&lt;br&gt;
 這是在109年由雅倫率先在議會提出的引流方案！
 文青路約有3分之1交通量來自振興路欲接青山路往新莊方向的通勤車流，若將振興路直接打通至青山路，可有效分流華亞科學園區上下班的車潮。
 工務局長跟我說明目前進度，正在進行價值工程檢討中，計畫採高架環型橋方式設計，正研究將原預估6億元經費，降低為2億元，有機會可縮短為1年工期，希望在115年完成，我們樂觀其成。也特別感謝專業的工務局長願意從善如流採納意見！&lt;/p&gt;
 &lt;/div&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-043.jpeg" alt="市政總質詢" class="w-full md:w-1/2" /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-043.jpeg" alt="市政總質詢" class="w-full md:w-1/2 object-fix rounded-xl " /&gt;
 &lt;/div&gt;</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -3911,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H4:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -4016,7 +4035,7 @@
         <v>224</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="53">
@@ -4080,7 +4099,7 @@
         <v>216</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="53">
@@ -4112,7 +4131,7 @@
         <v>209</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="53">

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FCB682-0397-2440-8A75-0C9E55F06DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A0B701-4CED-CE4A-ABE8-50EF1D5C250B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="-28300" windowWidth="38080" windowHeight="23920" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
@@ -3000,8 +3000,8 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl flex flex-col md:flex-row rounded-l-xl"&gt;
-&lt;div  class="p-2 md:p-4 w-full md:w-1/2"&gt;&lt;a href="https://www.tycg.gov.tw/ch/home.jsp?id=10412&amp;parentpath=0%2C10401&amp;mcustomize=news_view_small.jsp&amp;dataserno=202311070006&amp;aplistdn=ou%3Dnews%2Cou%3Dchinese%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;toolsflag=Y&amp;fbclid=IwAR2lBCTiWHGGenIknPSg9Kern_U27AgDPVcIQr6h5jYTR3yCHABNXlCLzbk"&gt;11</t>
+      <t>&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl flex flex-col  rounded-l-xl"&gt;
+&lt;div  class="p-2 md:p-4 "&gt;&lt;a href="https://www.tycg.gov.tw/ch/home.jsp?id=10412&amp;parentpath=0%2C10401&amp;mcustomize=news_view_small.jsp&amp;dataserno=202311070006&amp;aplistdn=ou%3Dnews%2Cou%3Dchinese%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;toolsflag=Y&amp;fbclid=IwAR2lBCTiWHGGenIknPSg9Kern_U27AgDPVcIQr6h5jYTR3yCHABNXlCLzbk"&gt;11</t>
     </r>
     <r>
       <rPr>
@@ -3042,7 +3042,7 @@
 文青路約有3分之1交通量來自振興路欲接青山路往新莊方向的通勤車流，若將振興路直接打通至青山路，可有效分流華亞科學園區上下班的車潮。
 工務局長跟我說明目前進度，正在進行價值工程檢討中，計畫採高架環型橋方式設計，正研究將原預估6億元經費，降低為2億元，有機會可縮短為1年工期，希望在115年完成，我們樂觀其成。也特別感謝專業的工務局長願意從善如流採納意見！&lt;/p&gt;
 &lt;/div&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-043.jpeg" alt="市政總質詢" class="w-full md:w-1/2 object-fix rounded-xl " /&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-043.jpeg" alt="市政總質詢" class=" object-fix rounded-xl " /&gt;
 &lt;/div&gt;</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -3930,7 +3930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE0AF4B-EB74-4246-880C-80AFB6EBA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955CEA8C-7211-7B46-BF0B-C83F985BC9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-380" yWindow="-25620" windowWidth="38080" windowHeight="23920" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
@@ -796,58 +796,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    &lt;div class="flex flex-col md:flex-row"&gt;
-      &lt;div class="p-4"&gt; &lt;a href="https://www.storm.mg/article/4893534"&gt;新新聞 2023/11/03&lt;/a&gt; 龜山造勢力挺牛煦庭
-        侯友宜:與地方連線爭取大崗高中設立 &lt;br&gt;
-        國民黨總統參選人侯友宜昨（2）日晚間到桃園龜山大坪頂，出席立委參選人牛煦庭造勢晚會，與桃園市長張善政、立法委員洪孟楷、游毓蘭、桃園市議員凌濤、孫韻璇，共同站台力挺牛煦庭。侯友宜承諾會和張善政、牛煦庭連成一心，連結中央與地方的力量，為龜山地區完成大崗高中的設立，
-      &lt;/div&gt;
-      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-042.jpeg" alt="大岡高中"
-        class="w-full md:w-96 p-4" /&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;div class="flex flex-col md:flex-row"&gt;
-      &lt;div class="p-4"&gt;
-        自由時報 2023/11/02&lt;a
-          href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;大埔轉運站
-        &lt;/a&gt;&lt;br&gt;
-        2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！
-        大埔轉運站原承諾在地鄉親垃圾不過夜，僅負擔轉運功能，但近期因欣榮焚化爐整改，引發桃園市垃圾危機，現在垃圾不只過夜、還過好幾夜！長期堆置的垃圾產生酸臭味，刺鼻難聞。
-        近年來龜山人口成長迅速，儼然已成為人口密集區，自由時報 2023/11/02&lt;a
-          href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;大埔轉運站
-        &lt;/a&gt;&lt;br&gt;
-        2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！雅倫認為市府必須設法解決大埔轉運站惱人的惡臭，並研擬退場機制！
-      &lt;/div&gt;
-      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-041.jpeg" alt="慰問金"
-        class="w-full md:w-96 p-4" /&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;div class="flex flex-col md:flex-row "&gt;
-      &lt;div class="p-4"&gt;
-        機捷A7體育大學站周邊區域近年迅速發展，人口移入也帶停車問題，加上基北北桃通勤月票使用率大幅提升，許多通勤族、轉乘族每天都要碰運氣使否能停到車位。😣 &lt;br&gt;
-        韻璇在這次會期質詢交通局必須重視此問題，今天邀請#樂善里黃里長、交通局、警察局、區公所共同會勘，決議於樂善里文學路及樂善里文青路二側劃制機車、汽車停車約各80格，以便民眾停放改善停車問題‼️
-        👍&lt;br&gt;未來韻璇會再努力爭取更多相關措施💪🏻希望讓通勤族可以更方便！無須再為停車問題而煩惱囉
-      &lt;/div&gt;
-      &lt;img class="w-full md:w-96 p-4"
-        src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-040.jpeg" alt="慰問金" /&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;div class="flex flex-col md:flex-row "&gt;
-      &lt;div class="p-4"&gt;
-        前陣子，民眾陳情 #文青里 原有的行動圖書車因為設置地點的關係無法繼續服務，但這裡距離圖書館又非常遠，借還書不方便😢 &lt;br&gt;
-        因此雅倫與水資源廠長及圖書館人員共同來討論，爭取行動圖書車設置在 #文青水園前廣場，預計11月開始服務！屆時歡迎熱愛閱讀的大小朋友一起來使用喔 &lt;br&gt;
-      &lt;/div&gt;
-      &lt;img class="w-full md:w-96 p-4"
-        src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-022.jpeg" alt="行動圖書車" /&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">寄養服務 讓一家人團結起來做好事&lt;br&gt;&lt;br&gt;
 將更多的愛與關懷，付出在每個需要的孩童身上，讓孩童走出原生家庭的陰霾，重新蛻變～展開一段新的旅程！&lt;br&gt;&lt;br&gt;
@@ -1472,34 +1420,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    &lt;div class="flex flex-col md:flex-row bg-zinc-100  rounded-2xl"&gt;
-      &lt;img class="w-full h-full sm:h-64 sm:w-96 p-4 object-contain shadow-lg rounded-lg "
-        src=" https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-043.jpeg" alt="
-        市政總質詢" alt="" /&gt;
-      &lt;div class="sm:col-span-2 m-4"&gt;
-        &lt;div class="space-y-4"&gt;
-          &lt;a
-            href="
-          https://www.tycg.gov.tw/ch/home.jsp?id=10412&amp;parentpath=0%2C10401&amp;mcustomize=news_view_small.jsp&amp;dataserno=202311070006&amp;aplistdn=ou%3Dnews%2Cou%3Dchinese%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;toolsflag=Y&amp;fbclid=IwAR2lBCTiWHGGenIknPSg9Kern_U27AgDPVcIQr6h5jYTR3yCHABNXlCLzbk"&gt;11月7日市政總質詢：陳雅倫議員&lt;/a&gt;
-          對A7建設的相關質詢匯總！
-          &lt;p&gt;
-          &lt;h3&gt;【#A7聯外道路】一則以喜、一則以憂: &lt;/h3&gt;
-          喜的是我在109年議會質詢時，率先提出振興路直接打通至青山路的案子已排入期程！憂的是文學路與樂善一路T字打通計劃，確定僅剩一條文學路&lt;/p&gt;
-          &lt;p&gt;【#憂心變一道路】&lt;br&gt;
-            這次總質詢我一樣做足功課，提出「五大疑問」請張善政市長正面回應這條命運多舛的「變一道路」，也就是早已編列預算等待施工的文學路及樂善一路。
-            張市長以文化資產保存為由將原本今年已上網招標的高架工程撤下來，改為地下化工程，「樂善一路」正式消失，雖然工務局長表示會採預留的方式保存樂善一路開闢的可能性，但原本的設計本來就有打通樂善一路，變更設計後只剩下文學路開通了⋯⋯
-            我提醒張市長，這個做法會讓原本期待未來有機會可以增加工程，銜接走樂善一路去文青國中小的爸爸媽媽們再度希望落空&lt;/p&gt;
-          &lt;p&gt;【#歡喜振興路打通至青山路】&lt;br&gt;
-            這是在109年由雅倫率先在議會提出的引流方案！
-            文青路約有3分之1交通量來自振興路欲接青山路往新莊方向的通勤車流，若將振興路直接打通至青山路，可有效分流華亞科學園區上下班的車潮。
-            工務局長跟我說明目前進度，正在進行價值工程檢討中，計畫採高架環型橋方式設計，正研究將原預估6億元經費，降低為2億元，有機會可縮短為1年工期，希望在115年完成，我們樂觀其成。也特別感謝專業的工務局長願意從善如流採納意見！
-          &lt;/p&gt;
-        &lt;/div&gt;
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>侯友宜:與地方連線爭取大崗高中設立_x0011_</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1510,19 +1430,6 @@
 &lt;li&gt;在廣19地下停車場完成前, 請考量居民的&lt;a href="https://a7kanban09.netlify.app/expectations/%E5%A2%9E%E8%A8%AD%E5%85%AC%E5%85%B1%E6%A9%9F%E8%BB%8A%E5%81%9C%E8%BB%8A%E5%A0%B4"&gt; 建議案 010&lt;/a&gt;, 再延伸A7站前文化一路的機車停車區。  &lt;/li&gt;
 &lt;li&gt;請於議會期間能代表感謝交通局/警察局 的違規停車整頓措施，居民普遍是熱烈的正面支持。也請在拖吊區能有明顯標示。在違規開單區域能先配合里長有充分的勸導推廣時間，讓購物臨停居民有適應期。  &lt;/li&gt;
 &lt;/ul&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;機捷運量增加，配套也要跟上，增加站外停車格，持續照顧通勤族🙌🏻
-1200月票上路，搭乘機捷的民眾增加，轉乘的停車需求也浮現，機捷站外的停車格已經供不應求。
-我從去年就向局處建議，到今年在議會上也不斷提出通勤族停車空間的需求，終於有一小步的改變，成功爭取✅在機捷A7站外新增50個機車停車格🎉需要騎車轉乘機捷的民眾可以多加利用。&lt;/p&gt;
-&lt;p&gt;建議也可以多利用大眾運輸工具轉乘：&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;✅607「長庚醫院-迴龍」公車正式上路&lt;/li&gt;
-&lt;li&gt;✅606「大坪頂循環線」公車試辦中&lt;li&gt;
-&lt;/ul&gt;
-&lt;p&gt;這二條都是方便民眾轉乘機捷A7、A8站的公車路線，服務大坪頂地區鄉親通勤、通學、就醫需求，鼓勵大家多搭乘，未來才有機會為大家爭取更多路線，讓大眾運輸服務路網更綿密。&lt;/p&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-025.jpeg" alt="A7機車停車位" sizes="sm:100vw md:150vw lg:200vw" /&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1676,41 +1583,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    &lt;div class="flex flex-col md:flex-row"&gt;
-      &lt;div class="p-4"&gt;
-        最近開學，家長陸續陳情文青國中小附近沒有家長接送區，送小朋友來學校非常不方便且不安全，因此雅倫與張綾峰校長、黃錦芳里長、交通局共同討論規劃避車彎為 #家長接送區，預計十月份前完工，讓孩子上下課的環境可以更安全
-      &lt;/div&gt;
-      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-023.jpeg"
-        alt="文青國小家長接送區" class="p-4 w-full md:w-96" /&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    &lt;div class="flex flex-col md:flex-row"&gt;
-      &lt;div class="p-4"&gt;
-七月開始1200月票開通、大坪頂循環線開始試辦、機捷增班等，皆是希望讓大家多多搭乘大眾運輸。
-但是常常到了A7站的時候卻沒有機車位可以停，為此雅倫在議會建議、現場會勘爭取，在 #A7站周邊增加了50個機車格✅，希望可以讓通勤族更便利。
-1200上路，大眾運輸及配套措施都應該要跟著升級，然而現況公車班次極不穩定、司機員數量嚴重不足等，我會繼續爭取成立公共運輸處，提升桃園整體大眾運輸的環境！
-      &lt;/div&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-024.jpeg" alt="A7機車停車位" class="p-4 w-full md:w-96"  /&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    &lt;div class="flex flex-col md:flex-row"&gt;
-      &lt;div class="p-4"&gt;
-從上一屆開始討論催生，直到今日終於看到這一條新路線即將開始試跑～&lt;br&gt;
-這次606是順時針單方向循環路線，起迄點為機捷體育大學站，平假日皆有行駛，每日32班次，尖峰班距20分鐘、離峰班距30分鐘。
-另外，同時間202公車會調整路線進入文德、樂學、樂學三路等新舊社區來服務。過去爭取的605B不會變，只是名稱改為607～&lt;br&gt;
-以上公車都適用桃園市民卡買一送一優惠以及1200月票，希望大家多多利用，讓路線永續經營下去！
-      &lt;/div&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-026.jpeg" alt="606公車"class="p-4 w-full md:w-96" /&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1742,47 +1614,6 @@
       <t>機捷增班 縮短班距！
 預計7/3再增一班加班車8/1再增三班加班車
 我會繼續爭取機捷增班以及隔音罩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    &lt;div class="flex flex-col md:flex-row"&gt;
-      &lt;div class="p-4"&gt;
-爭取ing～『公滯一』濕轉乾公園設計第一次說明會！
-希望水務局將 #排水安全 #環境整潔 #遊具設施  #休憩空間 #停車規劃 一併考量，由於滯洪池主管的機關水務局是水利專業，而公園設計的專業在工務局，我希望市府儘速跨局處討論此案，讓公滯一早日成為A7的大公園～
-      &lt;/div&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-028.jpeg" alt="公滯ㄧ" class="p-4 w-full md:w-96" /&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-    &lt;div class="flex flex-col md:flex-row"&gt;
-      &lt;div class="p-4"&gt;
-好消息🎉【大坪頂循環線】終於要在6/8辦理定線會勘！預計七月份可以正式上路！
-      &lt;/div&gt;
-&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-029.jpeg" alt="606公車" sizes=" class="p-4 w-full md:w-96"" /&gt;
-    &lt;/div&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1888,12 +1719,588 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="flex flex-col md:flex-row"&gt;
+      &lt;div class="p-4"&gt; &lt;a href="https://www.storm.mg/article/4893534"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新新聞 2023/11/03&lt;/a&gt; 龜山造勢力挺牛煦庭
+        侯友宜:與地方連線爭取大崗高中設立 &lt;br&gt;
+        國民黨總統參選人侯友宜昨（2）日晚間到桃園龜山大坪頂，出席立委參選人牛煦庭造勢晚會，與桃園市長張善政、立法委員洪孟楷、游毓蘭、桃園市議員凌濤、孫韻璇，共同站台力挺牛煦庭。侯友宜承諾會和張善政、牛煦庭連成一心，連結中央與地方的力量，為龜山地區完成大崗高中的設立，
+      &lt;/div&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-042.jpeg" alt="大岡高中"
+        class="w-full md:w-1/2 p-4" /&gt;
+    &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="flex flex-col md:flex-row"&gt;
+      &lt;div class="p-4"&gt;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>自由時報 2023/11/02&lt;a
+          href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;大埔轉運站
+        &lt;/a&gt;&lt;br&gt;
+        2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！
+        大埔轉運站原承諾在地鄉親垃圾不過夜，僅負擔轉運功能，但近期因欣榮焚化爐整改，引發桃園市垃圾危機，現在垃圾不只過夜、還過好幾夜！長期堆置的垃圾產生酸臭味，刺鼻難聞。
+        近年來龜山人口成長迅速，儼然已成為人口密集區，自由時報 2023/11/02&lt;a
+          href="https://news.ltn.com.tw/news/life/breakingnews/4477949?fbclid=IwAR1GxqFy80NFdso-0sZ2G1oBN9fVUPCF8DteRQtsh-0QWV-D9qtHeWFggIs"&gt;大埔轉運站
+        &lt;/a&gt;&lt;br&gt;
+        2023/11/02日龜山區空氣中又瀰漫著一股酸臭味，雅倫循線查詢到是來自 #大埔轉運站 的味道！雅倫認為市府必須設法解決大埔轉運站惱人的惡臭，並研擬退場機制！
+      &lt;/div&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-041.jpeg" alt="慰問金"
+        class="w-full md:w-1/2 p-4" /&gt;
+    &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="flex flex-col md:flex-row "&gt;
+      &lt;div class="p-4"&gt;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>機捷A7體育大學站周邊區域近年迅速發展，人口移入也帶停車問題，加上基北北桃通勤月票使用率大幅提升，許多通勤族、轉乘族每天都要碰運氣使否能停到車位。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">😣 &lt;br&gt;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>韻璇在這次會期質詢交通局必須重視此問題，今天邀請#樂善里黃里長、交通局、警察局、區公所共同會勘，決議於樂善里文學路及樂善里文青路二側劃制機車、汽車停車約各80格，以便民眾停放改善停車問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>‼️
+        👍&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>未來韻璇會再努力爭取更多相關措施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>💪🏻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>希望讓通勤族可以更方便！無須再為停車問題而煩惱囉
+      &lt;/div&gt;
+      &lt;img class="w-full md:w-1/2 p-4"
+        src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-040.jpeg" alt="慰問金" /&gt;
+    &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="flex flex-col md:flex-row "&gt;
+      &lt;div class="p-4"&gt;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>前陣子，民眾陳情 #文青里 原有的行動圖書車因為設置地點的關係無法繼續服務，但這裡距離圖書館又非常遠，借還書不方便</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">😢 &lt;br&gt;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>因此雅倫與水資源廠長及圖書館人員共同來討論，爭取行動圖書車設置在 #文青水園前廣場，預計11月開始服務！屆時歡迎熱愛閱讀的大小朋友一起來使用喔 &lt;br&gt;
+      &lt;/div&gt;
+      &lt;img class="w-full md:w-1/2 p-4"
+        src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-022.jpeg" alt="行動圖書車" /&gt;
+    &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="flex flex-col md:flex-row"&gt;
+      &lt;div class="p-4"&gt;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最近開學，家長陸續陳情文青國中小附近沒有家長接送區，送小朋友來學校非常不方便且不安全，因此雅倫與張綾峰校長、黃錦芳里長、交通局共同討論規劃避車彎為 #家長接送區，預計十月份前完工，讓孩子上下課的環境可以更安全
+      &lt;/div&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-023.jpeg"
+        alt="文青國小家長接送區" class="p-4 w-full md:w-1/2" /&gt;
+    &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+    &lt;div class="flex flex-col md:flex-row"&gt;
+      &lt;div class="p-4"&gt;
+七月開始1200月票開通、大坪頂循環線開始試辦、機捷增班等，皆是希望讓大家多多搭乘大眾運輸。
+但是常常到了A7站的時候卻沒有機車位可以停，為此雅倫在議會建議、現場會勘爭取，在 #A7站周邊增加了50個機車格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，希望可以讓通勤族更便利。
+1200上路，大眾運輸及配套措施都應該要跟著升級，然而現況公車班次極不穩定、司機員數量嚴重不足等，我會繼續爭取成立公共運輸處，提升桃園整體大眾運輸的環境！
+      &lt;/div&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-024.jpeg" alt="A7機車停車位" class="p-4 w-full md:w-1/2"  /&gt;
+    &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>機捷運量增加，配套也要跟上，增加站外停車格，持續照顧通勤族</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BiauKai"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">🙌🏻
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月票上路，搭乘機捷的民眾增加，轉乘的停車需求也浮現，機捷站外的停車格已經供不應求。
+我從去年就向局處建議，到今年在議會上也不斷提出通勤族停車空間的需求，終於有一小步的改變，成功爭取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在機捷A7站外新增50個機車停車格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🎉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>需要騎車轉乘機捷的民眾可以多加利用。&lt;/p&gt;
+&lt;p&gt;建議也可以多利用大眾運輸工具轉乘：&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅607</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「長庚醫院-迴龍」公車正式上路&lt;/li&gt;
+&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅606</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「大坪頂循環線」公車試辦中&lt;li&gt;
+&lt;/ul&gt;
+&lt;p&gt;這二條都是方便民眾轉乘機捷A7、A8站的公車路線，服務大坪頂地區鄉親通勤、通學、就醫需求，鼓勵大家多搭乘，未來才有機會為大家爭取更多路線，讓大眾運輸服務路網更綿密。&lt;/p&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-025.jpeg" alt="A7機車停車位" class="p-4 w-full md:w-1/2" /&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    &lt;div class="flex flex-col md:flex-row"&gt;
+      &lt;div class="p-4"&gt;
+從上一屆開始討論催生，直到今日終於看到這一條新路線即將開始試跑～&lt;br&gt;
+這次606是順時針單方向循環路線，起迄點為機捷體育大學站，平假日皆有行駛，每日32班次，尖峰班距20分鐘、離峰班距30分鐘。
+另外，同時間202公車會調整路線進入文德、樂學、樂學三路等新舊社區來服務。過去爭取的605B不會變，只是名稱改為607～&lt;br&gt;
+以上公車都適用桃園市民卡買一送一優惠以及1200月票，希望大家多多利用，讓路線永續經營下去！
+      &lt;/div&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-026.jpeg" alt="606公車"class="p-4 w-full md:w-1/2" /&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="flex flex-col md:flex-row"&gt;
+      &lt;div class="p-4"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>爭取ing～『公滯一』濕轉乾公園設計第一次說明會！
+希望水務局將 #排水安全 #環境整潔 #遊具設施  #休憩空間 #停車規劃 一併考量，由於滯洪池主管的機關水務局是水利專業，而公園設計的專業在工務局，我希望市府儘速跨局處討論此案，讓公滯一早日成為A7的大公園～
+      &lt;/div&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-028.jpeg" alt="公滯ㄧ" class="p-4 w-full md:w-1/2" /&gt;
+    &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="flex flex-col md:flex-row"&gt;
+      &lt;div class="p-4"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>好消息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🎉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【大坪頂循環線】終於要在6/8辦理定線會勘！預計七月份可以正式上路！
+      &lt;/div&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-029.jpeg" alt="606公車" sizes=" class="p-4 w-full md:w-1/2"" /&gt;
+    &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;div class="flex flex-col  bg-zinc-100  rounded-2xl"&gt;
+      &lt;img class="w-full  sm:w-1/2 p-4  shadow-lg rounded-lg "
+        src=" https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-043.jpeg" alt="
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>市政總質詢" alt="" /&gt;
+      &lt;div class="sm:col-span-2 p-4"&gt;
+        &lt;div class="space-y-4"&gt;
+          &lt;a
+            href="
+          https://www.tycg.gov.tw/ch/home.jsp?id=10412&amp;parentpath=0%2C10401&amp;mcustomize=news_view_small.jsp&amp;dataserno=202311070006&amp;aplistdn=ou%3Dnews%2Cou%3Dchinese%2Cou%3Dap_root%2Co%3Dtycg%2Cc%3Dtw&amp;toolsflag=Y&amp;fbclid=IwAR2lBCTiWHGGenIknPSg9Kern_U27AgDPVcIQr6h5jYTR3yCHABNXlCLzbk"&gt;11月7日市政總質詢：陳雅倫議員&lt;/a&gt;
+          對A7建設的相關質詢匯總！
+          &lt;p&gt;
+          &lt;h3&gt;【#A7聯外道路】一則以喜、一則以憂: &lt;/h3&gt;
+          喜的是我在109年議會質詢時，率先提出振興路直接打通至青山路的案子已排入期程！憂的是文學路與樂善一路T字打通計劃，確定僅剩一條文學路&lt;/p&gt;
+          &lt;p&gt;【#憂心變一道路】&lt;br&gt;
+            這次總質詢我一樣做足功課，提出「五大疑問」請張善政市長正面回應這條命運多舛的「變一道路」，也就是早已編列預算等待施工的文學路及樂善一路。
+            張市長以文化資產保存為由將原本今年已上網招標的高架工程撤下來，改為地下化工程，「樂善一路」正式消失，雖然工務局長表示會採預留的方式保存樂善一路開闢的可能性，但原本的設計本來就有打通樂善一路，變更設計後只剩下文學路開通了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">⋯⋯
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我提醒張市長，這個做法會讓原本期待未來有機會可以增加工程，銜接走樂善一路去文青國中小的爸爸媽媽們再度希望落空&lt;/p&gt;
+          &lt;p&gt;【#歡喜振興路打通至青山路】&lt;br&gt;
+            這是在109年由雅倫率先在議會提出的引流方案！
+            文青路約有3分之1交通量來自振興路欲接青山路往新莊方向的通勤車流，若將振興路直接打通至青山路，可有效分流華亞科學園區上下班的車潮。
+            工務局長跟我說明目前進度，正在進行價值工程檢討中，計畫採高架環型橋方式設計，正研究將原預估6億元經費，降低為2億元，有機會可縮短為1年工期，希望在115年完成，我們樂觀其成。也特別感謝專業的工務局長願意從善如流採納意見！
+          &lt;/p&gt;
+        &lt;/div&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1940,6 +2347,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BiauKai"/>
       <family val="1"/>
       <charset val="136"/>
     </font>
@@ -2618,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -2723,7 +3143,7 @@
         <v>189</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="20">
@@ -2755,7 +3175,7 @@
         <v>184</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="20">
@@ -2767,7 +3187,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="176">
+    <row r="5" spans="1:12" ht="178">
       <c r="A5" s="14" t="s">
         <v>177</v>
       </c>
@@ -2784,10 +3204,10 @@
         <v>180</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="20">
@@ -2799,7 +3219,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:12" ht="304">
+    <row r="6" spans="1:12" ht="307">
       <c r="A6" s="14" t="s">
         <v>172</v>
       </c>
@@ -2819,7 +3239,7 @@
         <v>175</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="20">
@@ -2831,7 +3251,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="176">
+    <row r="7" spans="1:12" ht="191">
       <c r="A7" s="24" t="s">
         <v>167</v>
       </c>
@@ -2851,7 +3271,7 @@
         <v>169</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="I7" s="27">
         <v>45225</v>
@@ -2860,7 +3280,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="176">
+    <row r="8" spans="1:12" ht="169">
       <c r="A8" s="29" t="s">
         <v>10</v>
       </c>
@@ -2880,7 +3300,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="31">
@@ -2892,7 +3312,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" ht="160">
+    <row r="9" spans="1:12" ht="164">
       <c r="A9" s="33" t="s">
         <v>17</v>
       </c>
@@ -2912,7 +3332,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="35">
@@ -2924,7 +3344,7 @@
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
     </row>
-    <row r="10" spans="1:12" ht="192">
+    <row r="10" spans="1:12" ht="195">
       <c r="A10" s="33" t="s">
         <v>22</v>
       </c>
@@ -2944,10 +3364,10 @@
         <v>24</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I10" s="35">
         <v>45159</v>
@@ -2958,7 +3378,7 @@
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
     </row>
-    <row r="11" spans="1:12" ht="208">
+    <row r="11" spans="1:12" ht="222">
       <c r="A11" s="33" t="s">
         <v>26</v>
       </c>
@@ -2978,10 +3398,10 @@
         <v>29</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I11" s="35">
         <v>45157</v>
@@ -3012,7 +3432,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="35">
@@ -3044,7 +3464,7 @@
         <v>37</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="35">
@@ -3056,7 +3476,7 @@
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
     </row>
-    <row r="14" spans="1:12" ht="176">
+    <row r="14" spans="1:12" ht="178">
       <c r="A14" s="33" t="s">
         <v>39</v>
       </c>
@@ -3076,7 +3496,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="35">
@@ -3088,7 +3508,7 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:12" ht="144">
+    <row r="15" spans="1:12" ht="149">
       <c r="A15" s="33" t="s">
         <v>43</v>
       </c>
@@ -3108,7 +3528,7 @@
         <v>45</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="35">
@@ -3140,7 +3560,7 @@
         <v>49</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="35">
@@ -3172,7 +3592,7 @@
         <v>53</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="35">
@@ -3204,7 +3624,7 @@
         <v>57</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="35">
@@ -3268,7 +3688,7 @@
         <v>66</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="35">
@@ -3300,7 +3720,7 @@
         <v>70</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="35">
@@ -3332,7 +3752,7 @@
         <v>74</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="35">
@@ -3364,7 +3784,7 @@
         <v>78</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="35">
@@ -3428,7 +3848,7 @@
         <v>87</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="35">
@@ -3556,7 +3976,7 @@
         <v>107</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I29" s="27">
         <v>44999</v>
@@ -3585,7 +4005,7 @@
         <v>111</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="27">
@@ -3615,7 +4035,7 @@
         <v>114</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="27">
@@ -3645,7 +4065,7 @@
         <v>118</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="27">
@@ -3705,7 +4125,7 @@
         <v>125</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="27">
@@ -3735,7 +4155,7 @@
         <v>128</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="27">
@@ -3765,7 +4185,7 @@
         <v>131</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="27">
@@ -3795,7 +4215,7 @@
         <v>134</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="27">
@@ -3823,7 +4243,7 @@
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="27">
@@ -3851,7 +4271,7 @@
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I39" s="27">
         <v>44958</v>
@@ -3880,7 +4300,7 @@
         <v>141</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="27">
@@ -3908,7 +4328,7 @@
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="27">
@@ -3966,7 +4386,7 @@
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="27">
@@ -3996,7 +4416,7 @@
         <v>159</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I44" s="27">
         <v>44910</v>
@@ -4023,7 +4443,7 @@
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I45" s="27">
         <v>44903</v>
@@ -4052,7 +4472,7 @@
         <v>165</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I46" s="27">
         <v>44576</v>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955CEA8C-7211-7B46-BF0B-C83F985BC9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F58463-719B-594B-B1AC-DC2444D0A66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-380" yWindow="-25620" windowWidth="38080" windowHeight="23920" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="5840" yWindow="1900" windowWidth="27820" windowHeight="17500" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="240">
   <si>
     <t>Title</t>
   </si>
@@ -2293,6 +2293,43 @@
       &lt;/div&gt;
     &lt;/div&gt;</t>
     </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N046</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂善國小周邊的交通動線改善會勘</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>國小通學步道改善計畫</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    &lt;!-- Flex Container --&gt;
+    &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
+      &lt;!-- Image --&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-046.jpeg" alt=""
+        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+      &lt;!-- Content --&gt;
+      &lt;div class="p-2 md:p-4"&gt;
+        &lt;h3 class=""&gt;
+         樂善國小通學步道改善計畫
+        &lt;/h3&gt;
+        &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
+         &lt;a href="https://www.facebook.com/Tyleehao"&gt; 2023/11/16日&lt;/a&gt;討論樂善國小周邊的交通動線，只是天氣不太好，突然下起雨來，感謝校長、里長及區公所同仁一起在雨中會勘討論。
+之前討論的「樂善國小通學步道改善計畫」目前提送中央爭取預算中，我們會持續追蹤進度！
+        &lt;/p&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TYleehao</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -2579,7 +2616,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2719,6 +2756,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3036,10 +3088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3092,264 +3144,264 @@
       <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="335">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49">
+        <v>45246</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+    </row>
+    <row r="3" spans="1:12" ht="335">
+      <c r="A3" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B3" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20">
-        <v>45237</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" ht="380">
-      <c r="A3" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>208</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="20">
-        <v>45238</v>
+        <v>45237</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="409.6">
+    <row r="4" spans="1:12" ht="380">
       <c r="A4" s="14" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="20">
         <v>45238</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="178">
+    <row r="5" spans="1:12" ht="409.6">
       <c r="A5" s="14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>180</v>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="20">
-        <v>45233</v>
+        <v>45238</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:12" ht="307">
+    <row r="6" spans="1:12" ht="178">
       <c r="A6" s="14" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>173</v>
+        <v>178</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="20">
         <v>45233</v>
       </c>
-      <c r="J6" s="23" t="s">
-        <v>176</v>
+      <c r="J6" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="191">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:12" ht="307">
+      <c r="A7" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20">
+        <v>45233</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:12" ht="191">
+      <c r="A8" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B8" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F8" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I8" s="27">
         <v>45225</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J8" s="28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="169">
-      <c r="A8" s="29" t="s">
+    <row r="9" spans="1:12" ht="169">
+      <c r="A9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="31">
+      <c r="H9" s="2"/>
+      <c r="I9" s="31">
         <v>45204</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
     </row>
-    <row r="9" spans="1:12" ht="164">
-      <c r="A9" s="33" t="s">
+    <row r="10" spans="1:12" ht="164">
+      <c r="A10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B10" s="34" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="35">
-        <v>45181</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" spans="1:12" ht="195">
-      <c r="A10" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -3361,32 +3413,30 @@
         <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>210</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="35">
-        <v>45159</v>
+        <v>45181</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
     </row>
-    <row r="11" spans="1:12" ht="222">
+    <row r="11" spans="1:12" ht="195">
       <c r="A11" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>13</v>
@@ -3395,32 +3445,32 @@
         <v>19</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>230</v>
+        <v>24</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>229</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I11" s="35">
-        <v>45157</v>
+        <v>45159</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
     </row>
-    <row r="12" spans="1:12" ht="224">
+    <row r="12" spans="1:12" ht="222">
       <c r="A12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
@@ -3429,27 +3479,29 @@
         <v>19</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="I12" s="35">
-        <v>45138</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>34</v>
+        <v>45157</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
     </row>
-    <row r="13" spans="1:12" ht="67">
+    <row r="13" spans="1:12" ht="224">
       <c r="A13" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -3461,59 +3513,59 @@
         <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>220</v>
+        <v>33</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>231</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="35">
-        <v>45103</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>38</v>
+        <v>45138</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
     </row>
-    <row r="14" spans="1:12" ht="178">
+    <row r="14" spans="1:12" ht="67">
       <c r="A14" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="35">
-        <v>45092</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>42</v>
+        <v>45103</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:12" ht="149">
+    <row r="15" spans="1:12" ht="178">
       <c r="A15" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>12</v>
@@ -3522,33 +3574,33 @@
         <v>13</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="35">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
     </row>
-    <row r="16" spans="1:12" ht="409.6">
+    <row r="16" spans="1:12" ht="149">
       <c r="A16" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
@@ -3557,30 +3609,30 @@
         <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="35">
-        <v>45058</v>
+        <v>45071</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
     </row>
     <row r="17" spans="1:12" ht="409.6">
       <c r="A17" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>13</v>
@@ -3589,29 +3641,29 @@
         <v>19</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="35">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
     </row>
-    <row r="18" spans="1:12" ht="208">
+    <row r="18" spans="1:12" ht="409.6">
       <c r="A18" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -3621,62 +3673,62 @@
         <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="35">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="1:12" ht="409.6">
+    <row r="19" spans="1:12" ht="208">
       <c r="A19" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="35">
-        <v>45029</v>
+        <v>45051</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
     </row>
     <row r="20" spans="1:12" ht="409.6">
       <c r="A20" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>13</v>
@@ -3685,91 +3737,91 @@
         <v>14</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="35">
         <v>45029</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" spans="1:12" ht="272">
+    <row r="21" spans="1:12" ht="409.6">
       <c r="A21" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="35">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12" ht="115">
+    <row r="22" spans="1:12" ht="272">
       <c r="A22" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>74</v>
+        <v>19</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>70</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="35">
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12" ht="112">
+    <row r="23" spans="1:12" ht="115">
       <c r="A23" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>12</v>
@@ -3781,29 +3833,29 @@
         <v>14</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="35">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12" ht="96">
-      <c r="A24" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="16" t="s">
+    <row r="24" spans="1:12" ht="112">
+      <c r="A24" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -3813,27 +3865,27 @@
         <v>14</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="35">
-        <v>45016</v>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>84</v>
+        <v>45020</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:12" ht="48">
-      <c r="A25" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>86</v>
+    <row r="25" spans="1:12" ht="96">
+      <c r="A25" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>12</v>
@@ -3842,33 +3894,33 @@
         <v>13</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="4"/>
       <c r="I25" s="35">
-        <v>45002</v>
-      </c>
-      <c r="J25" s="41" t="s">
-        <v>88</v>
+        <v>45016</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="1:12" ht="176">
+    <row r="26" spans="1:12" ht="48">
       <c r="A26" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -3877,30 +3929,30 @@
         <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="35">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:12" ht="208">
+    <row r="27" spans="1:12" ht="176">
       <c r="A27" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
@@ -3909,29 +3961,29 @@
         <v>19</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="35">
         <v>45001</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12" ht="192">
+    <row r="28" spans="1:12" ht="208">
       <c r="A28" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -3941,27 +3993,27 @@
         <v>19</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="35">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:12" ht="240">
-      <c r="A29" s="42" t="s">
-        <v>105</v>
+    <row r="29" spans="1:12" ht="192">
+      <c r="A29" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>28</v>
@@ -3972,58 +4024,60 @@
       <c r="E29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>107</v>
+      <c r="F29" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I29" s="27">
-        <v>44999</v>
-      </c>
-      <c r="J29" s="43" t="s">
-        <v>108</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="35">
+        <v>45000</v>
+      </c>
+      <c r="J29" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
     </row>
     <row r="30" spans="1:12" ht="240">
       <c r="A30" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H30" s="6"/>
+        <v>216</v>
+      </c>
       <c r="I30" s="27">
-        <v>44998</v>
-      </c>
-      <c r="J30" s="44" t="s">
-        <v>94</v>
+        <v>44999</v>
+      </c>
+      <c r="J30" s="43" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="395">
+    <row r="31" spans="1:12" ht="240">
       <c r="A31" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
@@ -4032,25 +4086,25 @@
         <v>14</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>197</v>
+        <v>111</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="27">
-        <v>44993</v>
+        <v>44998</v>
       </c>
       <c r="J31" s="44" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="240">
+    <row r="32" spans="1:12" ht="395">
       <c r="A32" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>12</v>
@@ -4059,28 +4113,28 @@
         <v>13</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="27">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="J32" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="208">
+    <row r="33" spans="1:10" ht="240">
       <c r="A33" s="42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>12</v>
@@ -4089,58 +4143,58 @@
         <v>13</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="27">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="J33" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="112">
+    <row r="34" spans="1:10" ht="208">
       <c r="A34" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="27">
-        <v>44985</v>
+        <v>44991</v>
       </c>
       <c r="J34" s="44" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="335">
+    <row r="35" spans="1:10" ht="112">
       <c r="A35" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>91</v>
@@ -4149,61 +4203,61 @@
         <v>13</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="27">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="J35" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="80">
+    <row r="36" spans="1:10" ht="335">
       <c r="A36" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="27">
-        <v>44969</v>
+        <v>44973</v>
       </c>
       <c r="J36" s="44" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="128">
+    <row r="37" spans="1:10" ht="80">
       <c r="A37" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
@@ -4212,56 +4266,58 @@
         <v>19</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="27">
-        <v>44965</v>
+        <v>44969</v>
       </c>
       <c r="J37" s="44" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="160">
+    <row r="38" spans="1:10" ht="128">
       <c r="A38" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="G38" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="27">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="J38" s="44" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="224">
+    <row r="39" spans="1:10" ht="160">
       <c r="A39" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>13</v>
@@ -4270,25 +4326,26 @@
         <v>14</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="8" t="s">
-        <v>217</v>
-      </c>
+      <c r="G39" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H39" s="6"/>
       <c r="I39" s="27">
-        <v>44958</v>
+        <v>44964</v>
       </c>
       <c r="J39" s="44" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="365">
+    <row r="40" spans="1:10" ht="224">
       <c r="A40" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
@@ -4296,141 +4353,139 @@
       <c r="E40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H40" s="6"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="I40" s="27">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="J40" s="44" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="224">
+    <row r="41" spans="1:10" ht="365">
       <c r="A41" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="G41" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="27">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="J41" s="44" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="128">
+    <row r="42" spans="1:10" ht="224">
       <c r="A42" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" s="6"/>
       <c r="I42" s="27">
         <v>44937</v>
       </c>
       <c r="J42" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="128">
+      <c r="A43" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="27">
+        <v>44937</v>
+      </c>
+      <c r="J43" s="44" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="409.6">
-      <c r="A43" s="42" t="s">
+    <row r="44" spans="1:10" ht="409.6">
+      <c r="A44" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B44" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C44" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="6" t="s">
+      <c r="F44" s="26"/>
+      <c r="G44" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="27">
+      <c r="H44" s="6"/>
+      <c r="I44" s="27">
         <v>44915</v>
       </c>
-      <c r="J43" s="44" t="s">
+      <c r="J44" s="44" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="144">
-      <c r="A44" s="42" t="s">
+    <row r="45" spans="1:10" ht="128">
+      <c r="A45" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B45" s="34" t="s">
         <v>158</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I44" s="27">
-        <v>44910</v>
-      </c>
-      <c r="J44" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="176">
-      <c r="A45" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>161</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>12</v>
@@ -4439,83 +4494,113 @@
         <v>13</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="26"/>
+        <v>145</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="G45" s="8" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="I45" s="27">
-        <v>44903</v>
+        <v>44910</v>
       </c>
       <c r="J45" s="44" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="192">
-      <c r="A46" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>164</v>
+    <row r="46" spans="1:10" ht="176">
+      <c r="A46" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="26"/>
+      <c r="G46" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" s="27">
+        <v>44903</v>
+      </c>
+      <c r="J46" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="192">
+      <c r="A47" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F47" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G47" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I47" s="27">
         <v>44576</v>
       </c>
-      <c r="J46" s="44" t="s">
+      <c r="J47" s="44" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G25" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
-    <hyperlink ref="G30" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
-    <hyperlink ref="G34" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
-    <hyperlink ref="G31" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
-    <hyperlink ref="G32" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
-    <hyperlink ref="G35" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
-    <hyperlink ref="F36" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
-    <hyperlink ref="F37" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
-    <hyperlink ref="G43" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
-    <hyperlink ref="G45" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
-    <hyperlink ref="J9" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
-    <hyperlink ref="J10" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
-    <hyperlink ref="J11" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
-    <hyperlink ref="J12" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
-    <hyperlink ref="J13" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
-    <hyperlink ref="J14" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
-    <hyperlink ref="J15" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
-    <hyperlink ref="J17" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
-    <hyperlink ref="J16" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
-    <hyperlink ref="J18" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
-    <hyperlink ref="J19" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
-    <hyperlink ref="J20" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
-    <hyperlink ref="J21" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
-    <hyperlink ref="J22" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
-    <hyperlink ref="J23" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
-    <hyperlink ref="J29" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
-    <hyperlink ref="J7" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
-    <hyperlink ref="J6" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
-    <hyperlink ref="J5" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
-    <hyperlink ref="J4" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
-    <hyperlink ref="J3" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
-    <hyperlink ref="J2" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
+    <hyperlink ref="G26" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
+    <hyperlink ref="G31" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
+    <hyperlink ref="G35" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
+    <hyperlink ref="G32" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
+    <hyperlink ref="G33" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
+    <hyperlink ref="G36" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
+    <hyperlink ref="F37" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
+    <hyperlink ref="F38" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
+    <hyperlink ref="G44" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
+    <hyperlink ref="G46" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
+    <hyperlink ref="J10" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
+    <hyperlink ref="J11" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
+    <hyperlink ref="J12" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
+    <hyperlink ref="J13" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
+    <hyperlink ref="J14" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
+    <hyperlink ref="J15" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
+    <hyperlink ref="J16" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
+    <hyperlink ref="J18" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
+    <hyperlink ref="J17" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
+    <hyperlink ref="J19" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
+    <hyperlink ref="J20" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
+    <hyperlink ref="J21" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
+    <hyperlink ref="J22" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
+    <hyperlink ref="J23" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
+    <hyperlink ref="J24" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
+    <hyperlink ref="J30" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
+    <hyperlink ref="J8" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
+    <hyperlink ref="J7" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
+    <hyperlink ref="J6" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
+    <hyperlink ref="J5" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
+    <hyperlink ref="J4" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
+    <hyperlink ref="J3" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
+    <hyperlink ref="J2" r:id="rId33" xr:uid="{F71A111C-124F-8040-98BC-ACCD7A08BC7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F58463-719B-594B-B1AC-DC2444D0A66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B72E2E-51C6-3F4A-80A9-B42D6F490974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="1900" windowWidth="27820" windowHeight="17500" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="245">
   <si>
     <t>Title</t>
   </si>
@@ -2330,6 +2330,46 @@
   </si>
   <si>
     <t>https://www.facebook.com/TYleehao</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N047</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖書車開到文青里囉</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎大家多多利用文青里行動圖書館喔！</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    &lt;!-- Flex Container --&gt;
+    &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
+      &lt;!-- Image --&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-047.jpeg" alt=""
+        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+      &lt;!-- Content --&gt;
+      &lt;div class="p-2 md:p-4"&gt;
+        &lt;h3 class=""&gt;
+         圖書車開到文青里囉～今天在遠雄文青全家前面！
+        &lt;/h3&gt;
+        &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
+         &lt;a href="https://www.facebook.com/Tyleehao"&gt; 2023/11/17日&lt;/a&gt;先前聽說文青圖書車要終止服務時，我第一時間先聯絡教育局，請他們積極尋找適當地點，務必盡快恢復圖書車。
+原先教育局規劃在文青水資源中心駐點，但是我想到那邊離住宅區其實有段距離，因此我找了相關單位到現場會勘，尋找「更近的地點」希望能離社區近一點，讓小朋友及家長能夠縮短步行距離，就近使用圖書車服務。&lt;br&gt;
+今天圖書車駐點在「遠雄文青的全家便利商店前面」是有正式向交通局申請的，是合法合規停靠。
+之後會在「遠雄文青全家前面」及「文青水資源中心」這二個地方輪流駐點服務，也歡迎大家留言覺得哪個地點比較好，我可以提供給教育局參考。&lt;br&gt;
+btw 現場圖書車人員表示：「今天生意蠻好的～」歡迎大家多多利用喔！
+        &lt;/p&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Tyleehao</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -2758,6 +2798,9 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2768,9 +2811,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3088,10 +3128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3143,12 +3183,12 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" ht="335">
-      <c r="A2" s="47" t="s">
-        <v>236</v>
+    <row r="2" spans="1:12" ht="409.6">
+      <c r="A2" s="48" t="s">
+        <v>241</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>28</v>
@@ -3160,280 +3200,280 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49">
-        <v>45246</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
+        <v>242</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50">
+        <v>45247</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:12" ht="335">
       <c r="A3" s="14" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>191</v>
+        <v>235</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="20">
-        <v>45237</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>192</v>
+        <v>45246</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>239</v>
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="380">
+    <row r="4" spans="1:12" ht="335">
       <c r="A4" s="14" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>190</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="20">
-        <v>45238</v>
+        <v>45237</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="409.6">
+    <row r="5" spans="1:12" ht="380">
       <c r="A5" s="14" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="20">
         <v>45238</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:12" ht="178">
+    <row r="6" spans="1:12" ht="409.6">
       <c r="A6" s="14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>180</v>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="20">
-        <v>45233</v>
+        <v>45238</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="307">
+    <row r="7" spans="1:12" ht="178">
       <c r="A7" s="14" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>173</v>
+        <v>178</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="20">
         <v>45233</v>
       </c>
-      <c r="J7" s="23" t="s">
-        <v>176</v>
+      <c r="J7" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="191">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:12" ht="307">
+      <c r="A8" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20">
+        <v>45233</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" ht="191">
+      <c r="A9" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B9" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F9" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I9" s="27">
         <v>45225</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J9" s="28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="169">
-      <c r="A9" s="29" t="s">
+    <row r="10" spans="1:12" ht="169">
+      <c r="A10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="31">
+      <c r="H10" s="2"/>
+      <c r="I10" s="31">
         <v>45204</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="1:12" ht="164">
-      <c r="A10" s="33" t="s">
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="1:12" ht="164">
+      <c r="A11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B11" s="34" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="35">
-        <v>45181</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" ht="195">
-      <c r="A11" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
@@ -3445,32 +3485,30 @@
         <v>19</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>210</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="35">
-        <v>45159</v>
+        <v>45181</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
     </row>
-    <row r="12" spans="1:12" ht="222">
+    <row r="12" spans="1:12" ht="195">
       <c r="A12" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
@@ -3479,32 +3517,32 @@
         <v>19</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>230</v>
+        <v>24</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>229</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I12" s="35">
-        <v>45157</v>
+        <v>45159</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="37"/>
     </row>
-    <row r="13" spans="1:12" ht="224">
+    <row r="13" spans="1:12" ht="222">
       <c r="A13" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
@@ -3513,27 +3551,29 @@
         <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="I13" s="35">
-        <v>45138</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>34</v>
+        <v>45157</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
     </row>
-    <row r="14" spans="1:12" ht="67">
+    <row r="14" spans="1:12" ht="224">
       <c r="A14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -3545,59 +3585,59 @@
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>220</v>
+        <v>33</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>231</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="35">
-        <v>45103</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>38</v>
+        <v>45138</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:12" ht="178">
+    <row r="15" spans="1:12" ht="67">
       <c r="A15" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="35">
-        <v>45092</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>42</v>
+        <v>45103</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
     </row>
-    <row r="16" spans="1:12" ht="149">
+    <row r="16" spans="1:12" ht="178">
       <c r="A16" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>12</v>
@@ -3606,33 +3646,33 @@
         <v>13</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="35">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
     </row>
-    <row r="17" spans="1:12" ht="409.6">
+    <row r="17" spans="1:12" ht="149">
       <c r="A17" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>13</v>
@@ -3641,30 +3681,30 @@
         <v>19</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="35">
-        <v>45058</v>
+        <v>45071</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
     </row>
     <row r="18" spans="1:12" ht="409.6">
       <c r="A18" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>13</v>
@@ -3673,29 +3713,29 @@
         <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="35">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="1:12" ht="208">
+    <row r="19" spans="1:12" ht="409.6">
       <c r="A19" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -3705,62 +3745,62 @@
         <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="35">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
     </row>
-    <row r="20" spans="1:12" ht="409.6">
+    <row r="20" spans="1:12" ht="208">
       <c r="A20" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="35">
-        <v>45029</v>
+        <v>45051</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:12" ht="409.6">
       <c r="A21" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>13</v>
@@ -3769,91 +3809,91 @@
         <v>14</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="35">
         <v>45029</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12" ht="272">
+    <row r="22" spans="1:12" ht="409.6">
       <c r="A22" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="35">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12" ht="115">
+    <row r="23" spans="1:12" ht="272">
       <c r="A23" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>74</v>
+        <v>19</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>70</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="35">
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12" ht="112">
+    <row r="24" spans="1:12" ht="115">
       <c r="A24" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>12</v>
@@ -3865,29 +3905,29 @@
         <v>14</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="35">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:12" ht="96">
-      <c r="A25" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="16" t="s">
+    <row r="25" spans="1:12" ht="112">
+      <c r="A25" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -3897,27 +3937,27 @@
         <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="35">
-        <v>45016</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>84</v>
+        <v>45020</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="1:12" ht="48">
-      <c r="A26" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>86</v>
+    <row r="26" spans="1:12" ht="96">
+      <c r="A26" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>12</v>
@@ -3926,33 +3966,33 @@
         <v>13</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="4"/>
       <c r="I26" s="35">
-        <v>45002</v>
-      </c>
-      <c r="J26" s="41" t="s">
-        <v>88</v>
+        <v>45016</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:12" ht="176">
+    <row r="27" spans="1:12" ht="48">
       <c r="A27" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
@@ -3961,30 +4001,30 @@
         <v>19</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="35">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12" ht="208">
+    <row r="28" spans="1:12" ht="176">
       <c r="A28" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
@@ -3993,29 +4033,29 @@
         <v>19</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="35">
         <v>45001</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:12" ht="192">
+    <row r="29" spans="1:12" ht="208">
       <c r="A29" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -4025,27 +4065,27 @@
         <v>19</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="35">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" ht="240">
-      <c r="A30" s="42" t="s">
-        <v>105</v>
+    <row r="30" spans="1:12" ht="192">
+      <c r="A30" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>28</v>
@@ -4056,58 +4096,60 @@
       <c r="E30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>107</v>
+      <c r="F30" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I30" s="27">
-        <v>44999</v>
-      </c>
-      <c r="J30" s="43" t="s">
-        <v>108</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="35">
+        <v>45000</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
     </row>
     <row r="31" spans="1:12" ht="240">
       <c r="A31" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H31" s="6"/>
+        <v>216</v>
+      </c>
       <c r="I31" s="27">
-        <v>44998</v>
-      </c>
-      <c r="J31" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="395">
+        <v>44999</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="240">
       <c r="A32" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
@@ -4116,25 +4158,25 @@
         <v>14</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>197</v>
+        <v>111</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="27">
-        <v>44993</v>
+        <v>44998</v>
       </c>
       <c r="J32" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="240">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="395">
       <c r="A33" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>12</v>
@@ -4143,28 +4185,28 @@
         <v>13</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="27">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="J33" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="208">
+    <row r="34" spans="1:10" ht="240">
       <c r="A34" s="42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>12</v>
@@ -4173,58 +4215,58 @@
         <v>13</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="27">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="J34" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="112">
+    <row r="35" spans="1:10" ht="208">
       <c r="A35" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="27">
-        <v>44985</v>
+        <v>44991</v>
       </c>
       <c r="J35" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="335">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="112">
       <c r="A36" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>91</v>
@@ -4233,61 +4275,61 @@
         <v>13</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="27">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="J36" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="80">
+    <row r="37" spans="1:10" ht="335">
       <c r="A37" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="27">
-        <v>44969</v>
+        <v>44973</v>
       </c>
       <c r="J37" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="128">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="80">
       <c r="A38" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
@@ -4296,56 +4338,58 @@
         <v>19</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="27">
-        <v>44965</v>
+        <v>44969</v>
       </c>
       <c r="J38" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="160">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="128">
       <c r="A39" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="G39" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="27">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="J39" s="44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="224">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="160">
       <c r="A40" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
@@ -4354,25 +4398,26 @@
         <v>14</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="8" t="s">
-        <v>217</v>
-      </c>
+      <c r="G40" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H40" s="6"/>
       <c r="I40" s="27">
-        <v>44958</v>
+        <v>44964</v>
       </c>
       <c r="J40" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="365">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="224">
       <c r="A41" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>13</v>
@@ -4380,141 +4425,139 @@
       <c r="E41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" s="6"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="I41" s="27">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="J41" s="44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="224">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="365">
       <c r="A42" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F42" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="G42" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="27">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="J42" s="44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="128">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="224">
       <c r="A43" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" s="6"/>
       <c r="I43" s="27">
         <v>44937</v>
       </c>
       <c r="J43" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="128">
+      <c r="A44" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="27">
+        <v>44937</v>
+      </c>
+      <c r="J44" s="44" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="409.6">
-      <c r="A44" s="42" t="s">
+    <row r="45" spans="1:10" ht="409.6">
+      <c r="A45" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B45" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C45" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="6" t="s">
+      <c r="F45" s="26"/>
+      <c r="G45" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="27">
+      <c r="H45" s="6"/>
+      <c r="I45" s="27">
         <v>44915</v>
       </c>
-      <c r="J44" s="44" t="s">
+      <c r="J45" s="44" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="128">
-      <c r="A45" s="42" t="s">
+    <row r="46" spans="1:10" ht="128">
+      <c r="A46" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B46" s="34" t="s">
         <v>158</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I45" s="27">
-        <v>44910</v>
-      </c>
-      <c r="J45" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="176">
-      <c r="A46" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>161</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>12</v>
@@ -4523,84 +4566,114 @@
         <v>13</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="26"/>
+        <v>145</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="G46" s="8" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="I46" s="27">
-        <v>44903</v>
+        <v>44910</v>
       </c>
       <c r="J46" s="44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="192">
-      <c r="A47" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>164</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="176">
+      <c r="A47" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I47" s="27">
+        <v>44903</v>
+      </c>
+      <c r="J47" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="192">
+      <c r="A48" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F48" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G48" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I48" s="27">
         <v>44576</v>
       </c>
-      <c r="J47" s="44" t="s">
+      <c r="J48" s="44" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G26" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
-    <hyperlink ref="G31" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
-    <hyperlink ref="G35" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
-    <hyperlink ref="G32" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
-    <hyperlink ref="G33" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
-    <hyperlink ref="G36" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
-    <hyperlink ref="F37" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
-    <hyperlink ref="F38" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
-    <hyperlink ref="G44" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
-    <hyperlink ref="G46" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
-    <hyperlink ref="J10" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
-    <hyperlink ref="J11" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
-    <hyperlink ref="J12" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
-    <hyperlink ref="J13" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
-    <hyperlink ref="J14" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
-    <hyperlink ref="J15" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
-    <hyperlink ref="J16" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
-    <hyperlink ref="J18" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
-    <hyperlink ref="J17" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
-    <hyperlink ref="J19" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
-    <hyperlink ref="J20" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
-    <hyperlink ref="J21" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
-    <hyperlink ref="J22" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
-    <hyperlink ref="J23" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
-    <hyperlink ref="J24" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
-    <hyperlink ref="J30" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
-    <hyperlink ref="J8" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
-    <hyperlink ref="J7" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
-    <hyperlink ref="J6" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
-    <hyperlink ref="J5" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
-    <hyperlink ref="J4" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
-    <hyperlink ref="J3" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
-    <hyperlink ref="J2" r:id="rId33" xr:uid="{F71A111C-124F-8040-98BC-ACCD7A08BC7E}"/>
+    <hyperlink ref="G27" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
+    <hyperlink ref="G32" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
+    <hyperlink ref="G36" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
+    <hyperlink ref="G33" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
+    <hyperlink ref="G34" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
+    <hyperlink ref="G37" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
+    <hyperlink ref="F38" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
+    <hyperlink ref="F39" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
+    <hyperlink ref="G45" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
+    <hyperlink ref="G47" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
+    <hyperlink ref="J11" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
+    <hyperlink ref="J12" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
+    <hyperlink ref="J13" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
+    <hyperlink ref="J14" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
+    <hyperlink ref="J15" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
+    <hyperlink ref="J16" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
+    <hyperlink ref="J17" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
+    <hyperlink ref="J18" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
+    <hyperlink ref="J20" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
+    <hyperlink ref="J21" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
+    <hyperlink ref="J22" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
+    <hyperlink ref="J23" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
+    <hyperlink ref="J24" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
+    <hyperlink ref="J25" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
+    <hyperlink ref="J31" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
+    <hyperlink ref="J9" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
+    <hyperlink ref="J8" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
+    <hyperlink ref="J7" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
+    <hyperlink ref="J6" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
+    <hyperlink ref="J5" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
+    <hyperlink ref="J4" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
+    <hyperlink ref="J3" r:id="rId33" xr:uid="{F71A111C-124F-8040-98BC-ACCD7A08BC7E}"/>
+    <hyperlink ref="J2" r:id="rId34" xr:uid="{DDE07BAA-1EF3-344F-810D-62C18F5FBF71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B72E2E-51C6-3F4A-80A9-B42D6F490974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8306E218-A28E-2F40-89E3-4520FE5C29AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="18920" yWindow="-27500" windowWidth="38860" windowHeight="26240" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="257">
   <si>
     <t>Title</t>
   </si>
@@ -2370,6 +2370,140 @@
   </si>
   <si>
     <t>https://www.facebook.com/Tyleehao</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N048</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N049</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N050</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>人行道佔用、破損問題</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次定期會的總質詢</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    &lt;!-- Flex Container --&gt;
+    &lt;div class="flex flex-col md:flex-col rounded-l-xl"&gt;
+      &lt;!-- Image --&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-048a.jpeg" alt=""
+        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-048b.jpeg" alt=""
+        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+      &lt;!-- Content --&gt;
+      &lt;div class="p-2 md:p-4"&gt;
+        &lt;h3 class=""&gt;
+         第二次定期會的總質詢: 人行道佔用、破損問題
+        &lt;/h3&gt;
+        &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
+         &lt;a href="https://www.facebook.com/Tyleehao"&gt; 2023/11/08日&lt;/a&gt;
+桃園市人口成長快速，建案林立，但是周邊公共設施卻慘不忍睹，人行道占用、破損情況嚴重，甚至垃圾隨地亂丟，感覺已經成為無政府狀態！
+實地去龜山A7重劃區周邊走一圈，感覺人行道像被炸過一樣！ &lt;br&gt;
+我們甚至發現，周邊有工地獲得張善政市長核發的「112年道路認養友善工地的標章」？
+諷刺的是，該公文就貼在毀損嚴重的人行道旁邊，不禁讓人質疑，桃園市政府核發的「友善工地」是矇眼發的嗎？&lt;br&gt;
+人行道毀壞破損、鋼筋建材占用人行道，這已嚴重影響居民用路人的權益，行人、長輩、嬰兒車、輪椅族只能與車爭道，非常危險！&lt;br&gt;
+我已經要求桃園市政府應「從源頭管理」，該開罰就罰！立刻成立專案來檢討改善，保障居民用路權益！
+        &lt;/p&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>爭取機場捷運線A7、A8站周邊設置隔音減噪設施</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>噪音防治</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> &lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    &lt;!-- Flex Container --&gt;
+    &lt;div class="flex flex-col md:flex-col rounded-l-xl"&gt;
+      &lt;!-- Image --&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-049.jpeg" alt=""
+        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+      &lt;!-- Content --&gt;
+      &lt;div class="p-2 md:p-4"&gt;
+        &lt;h3 class=""&gt;
+         強力爭取機場捷運線A7、A8站周邊設置隔音減噪設施
+        &lt;/h3&gt;
+        &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
+         &lt;a href="https://www.facebook.com/Tyleehao"&gt; 2023/10/31日&lt;/a&gt;
+今日在議會，我針對捷運噪音問題，向桃園捷運公司提出質疑，許多住在機捷A7、A8站周邊的居民向我反應，捷運噪音對他們的生活影響非常大，尤其是在營運時間列車密集運轉時。
+桃捷回覆：「噪音評估數據仍在管制範圍內」
+這顯然與市民實際感受存在非常大的落差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">❌ &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我認為，噪音評估不能只看數據，更重要的是要考慮到市民的實際感受！應以實測資料為基礎，結合市民的真實感受，來進行隔音設施的優化，降低對民眾生活的影響！
+尤其龜山靠近機捷A7、A8站周邊的住戶都是高樓層的社區大樓，我們找到新北市政府的研究報告指出「高樓層受音點多，因此樓層越高的住戶，越容易受到捷運噪音的干擾衝擊。」&lt;br&gt;
+我建議桃捷公司，可以參考新北市環狀線的做法，裝設雙弧型隔音牆及其他減噪設施（例如浮動式軌道床或軌道自動潤滑裝置）延伸防護範圍，減少噪音對市民的影響。
+大家期待的是一個寧靜、舒適的生活環境，我會持續來爭取！        &lt;/p&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>強力要求青山路二段科技執法儘速修復，並針對「大貨車禁行」嚴格執法！</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通執法落實</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    &lt;!-- Flex Container --&gt;
+    &lt;div class="flex flex-col md:flex-col rounded-l-xl"&gt;
+      &lt;!-- Image --&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-050.jpeg" alt=""
+        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+      &lt;!-- Content --&gt;
+      &lt;div class="p-2 md:p-4"&gt;
+        &lt;h3 class=""&gt;
+         龜山區青山路二段科技執法設備停擺近一年❓
+        &lt;/h3&gt;
+        &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
+         &lt;a href="https://www.facebook.com/Tyleehao"&gt; 2023/10/30日&lt;/a&gt;
+今日警察局質詢，我質疑青山路二段的科技執法設備是否有正常運作，這路段因為彎道多、坡度大，規定全日禁行6.5噸以上大貨車（有依規定申請通行證除外），市民反應每日都看得到許多大貨車上下山，經追查詢問之下，才發現原來這科技執法設備在111年9月啟用後，在10月就發生故障，一直到112年9月底才修復，維修期居然長達近一年⁉️ &lt;br&gt;
+這段期間，因為執法設備的不穩定，影響交通違規的取締效率，進而影響市民的交通安全，雖然有派員警進行實地攔查取締，但人工取締的成效遠不及科技執法設備的即時效率啊！難道這科技執法設備是買來擺好看，用來嚇唬人的嗎？
+現在執法設備已恢復正常運作，提醒所有大貨車業者應依規定申請通行，切勿違規行駛禁行路段！&lt;br&gt;
+我希望桃園市政府交通局與警察局應重新巡查所有科技執法設備是否正常運作，交通違規應有效執法取締，還給市民朋友友善的交通安全環境！      &lt;/p&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3128,9 +3262,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -3185,106 +3319,106 @@
     </row>
     <row r="2" spans="1:12" ht="409.6">
       <c r="A2" s="48" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="50">
-        <v>45247</v>
+        <v>45229</v>
       </c>
       <c r="J2" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="K2" s="51"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="51"/>
     </row>
-    <row r="3" spans="1:12" ht="335">
-      <c r="A3" s="14" t="s">
-        <v>236</v>
+    <row r="3" spans="1:12" ht="409.6">
+      <c r="A3" s="48" t="s">
+        <v>251</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50">
+        <v>45230</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="51"/>
+    </row>
+    <row r="4" spans="1:12" ht="409.6">
+      <c r="A4" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20">
-        <v>45246</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="1:12" ht="335">
-      <c r="A4" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>191</v>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20">
-        <v>45237</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>192</v>
+        <v>249</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50">
+        <v>45238</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>244</v>
       </c>
       <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" ht="380">
+      <c r="L4" s="51"/>
+    </row>
+    <row r="5" spans="1:12" ht="409.6">
       <c r="A5" s="14" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>28</v>
@@ -3296,126 +3430,126 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="20">
-        <v>45238</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>188</v>
+        <v>45247</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>244</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:12" ht="409.6">
+    <row r="6" spans="1:12" ht="335">
       <c r="A6" s="14" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="20">
-        <v>45238</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>185</v>
+        <v>45246</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>239</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="178">
+    <row r="7" spans="1:12" ht="335">
       <c r="A7" s="14" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>190</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="20">
-        <v>45233</v>
+        <v>45237</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="307">
+    <row r="8" spans="1:12" ht="380">
       <c r="A8" s="14" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>174</v>
+        <v>186</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="20">
-        <v>45233</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>176</v>
+        <v>45238</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>188</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:12" ht="191">
-      <c r="A9" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>168</v>
+    <row r="9" spans="1:12" ht="409.6">
+      <c r="A9" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -3423,92 +3557,95 @@
       <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="I9" s="27">
-        <v>45225</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="169">
-      <c r="A10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="F9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20">
+        <v>45238</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" ht="178">
+      <c r="A10" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20">
+        <v>45233</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" ht="307">
+      <c r="A11" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="31">
-        <v>45204</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="1:12" ht="164">
-      <c r="A11" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="35">
-        <v>45181</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="12" spans="1:12" ht="195">
-      <c r="A12" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>12</v>
+      <c r="D11" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20">
+        <v>45233</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" ht="191">
+      <c r="A12" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
@@ -3516,64 +3653,57 @@
       <c r="E12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I12" s="35">
-        <v>45159</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-    </row>
-    <row r="13" spans="1:12" ht="222">
-      <c r="A13" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="F12" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I12" s="27">
+        <v>45225</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="169">
+      <c r="A13" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I13" s="35">
-        <v>45157</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-    </row>
-    <row r="14" spans="1:12" ht="224">
+        <v>14</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="31">
+        <v>45204</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="1:12" ht="164">
       <c r="A14" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -3585,27 +3715,27 @@
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>231</v>
+        <v>20</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="35">
-        <v>45138</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>34</v>
+        <v>45181</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>21</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:12" ht="67">
+    <row r="15" spans="1:12" ht="195">
       <c r="A15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -3617,61 +3747,65 @@
         <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H15" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="I15" s="35">
-        <v>45103</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>38</v>
+        <v>45159</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
     </row>
-    <row r="16" spans="1:12" ht="178">
+    <row r="16" spans="1:12" ht="222">
       <c r="A16" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H16" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="I16" s="35">
-        <v>45092</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>42</v>
+        <v>45157</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
     </row>
-    <row r="17" spans="1:12" ht="149">
+    <row r="17" spans="1:12" ht="224">
       <c r="A17" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -3681,30 +3815,30 @@
         <v>19</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>233</v>
+        <v>33</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>231</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="35">
-        <v>45071</v>
+        <v>45138</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
     </row>
-    <row r="18" spans="1:12" ht="409.6">
+    <row r="18" spans="1:12" ht="67">
       <c r="A18" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>13</v>
@@ -3713,59 +3847,59 @@
         <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="35">
-        <v>45058</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>50</v>
+        <v>45103</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="1:12" ht="409.6">
+    <row r="19" spans="1:12" ht="178">
       <c r="A19" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="35">
-        <v>45057</v>
+        <v>45092</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
     </row>
-    <row r="20" spans="1:12" ht="208">
+    <row r="20" spans="1:12" ht="149">
       <c r="A20" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>12</v>
@@ -3777,91 +3911,91 @@
         <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="35">
-        <v>45051</v>
+        <v>45071</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:12" ht="409.6">
       <c r="A21" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="35">
-        <v>45029</v>
+        <v>45058</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12" ht="409.6">
       <c r="A22" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>52</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="35">
-        <v>45029</v>
+        <v>45057</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12" ht="272">
+    <row r="23" spans="1:12" ht="208">
       <c r="A23" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>69</v>
+        <v>55</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>12</v>
@@ -3872,28 +4006,28 @@
       <c r="E23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>70</v>
+      <c r="F23" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="35">
-        <v>45027</v>
+        <v>45051</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12" ht="115">
+    <row r="24" spans="1:12" ht="409.6">
       <c r="A24" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>12</v>
@@ -3905,30 +4039,30 @@
         <v>14</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="35">
-        <v>45024</v>
+        <v>45029</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:12" ht="112">
+    <row r="25" spans="1:12" ht="409.6">
       <c r="A25" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>13</v>
@@ -3937,27 +4071,27 @@
         <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="35">
-        <v>45020</v>
+        <v>45029</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="1:12" ht="96">
-      <c r="A26" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>81</v>
+    <row r="26" spans="1:12" ht="272">
+      <c r="A26" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>12</v>
@@ -3966,129 +4100,129 @@
         <v>13</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>82</v>
+        <v>19</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>70</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="35">
-        <v>45016</v>
-      </c>
-      <c r="J26" s="37" t="s">
-        <v>84</v>
+        <v>45027</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:12" ht="48">
+    <row r="27" spans="1:12" ht="115">
       <c r="A27" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27" s="4"/>
       <c r="I27" s="35">
-        <v>45002</v>
-      </c>
-      <c r="J27" s="41" t="s">
-        <v>88</v>
+        <v>45024</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>75</v>
       </c>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12" ht="176">
+    <row r="28" spans="1:12" ht="112">
       <c r="A28" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>90</v>
+        <v>76</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>77</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" s="4"/>
       <c r="I28" s="35">
-        <v>45001</v>
-      </c>
-      <c r="J28" s="41" t="s">
-        <v>94</v>
+        <v>45020</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:12" ht="208">
-      <c r="A29" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>28</v>
+    <row r="29" spans="1:12" ht="96">
+      <c r="A29" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="4"/>
       <c r="I29" s="35">
-        <v>45001</v>
-      </c>
-      <c r="J29" s="41" t="s">
-        <v>99</v>
+        <v>45016</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" ht="192">
+    <row r="30" spans="1:12" ht="48">
       <c r="A30" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>101</v>
+        <v>85</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
@@ -4097,30 +4231,30 @@
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="35">
-        <v>45000</v>
+        <v>45002</v>
       </c>
       <c r="J30" s="41" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" ht="240">
-      <c r="A31" s="42" t="s">
-        <v>105</v>
+    <row r="31" spans="1:12" ht="176">
+      <c r="A31" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>28</v>
+        <v>90</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
@@ -4128,88 +4262,95 @@
       <c r="E31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>107</v>
+      <c r="F31" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I31" s="27">
-        <v>44999</v>
-      </c>
-      <c r="J31" s="43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="240">
-      <c r="A32" s="42" t="s">
-        <v>109</v>
+        <v>93</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="35">
+        <v>45001</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+    </row>
+    <row r="32" spans="1:12" ht="208">
+      <c r="A32" s="33" t="s">
+        <v>95</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>111</v>
+        <v>19</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="27">
-        <v>44998</v>
-      </c>
-      <c r="J32" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="395">
-      <c r="A33" s="42" t="s">
-        <v>112</v>
+        <v>98</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="35">
+        <v>45001</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+    </row>
+    <row r="33" spans="1:12" ht="192">
+      <c r="A33" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="27">
-        <v>44993</v>
-      </c>
-      <c r="J33" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="240">
+        <v>19</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="35">
+        <v>45000</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:12" ht="240">
       <c r="A34" s="42" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>13</v>
@@ -4218,28 +4359,27 @@
         <v>19</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H34" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>216</v>
+      </c>
       <c r="I34" s="27">
-        <v>44992</v>
-      </c>
-      <c r="J34" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="208">
+        <v>44999</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="240">
       <c r="A35" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>120</v>
+        <v>109</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>13</v>
@@ -4248,85 +4388,85 @@
         <v>14</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="27">
-        <v>44991</v>
+        <v>44998</v>
       </c>
       <c r="J35" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="112">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="395">
       <c r="A36" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>113</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="27">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="J36" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="335">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="240">
       <c r="A37" s="42" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="27">
-        <v>44973</v>
+        <v>44992</v>
       </c>
       <c r="J37" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="80">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="208">
       <c r="A38" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>130</v>
+        <v>119</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>12</v>
@@ -4335,28 +4475,28 @@
         <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="27">
-        <v>44969</v>
+        <v>44991</v>
       </c>
       <c r="J38" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="128">
+    <row r="39" spans="1:12" ht="112">
       <c r="A39" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>133</v>
+        <v>123</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>91</v>
@@ -4368,28 +4508,28 @@
         <v>19</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="27">
-        <v>44965</v>
+        <v>44985</v>
       </c>
       <c r="J39" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="160">
+    <row r="40" spans="1:12" ht="335">
       <c r="A40" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>136</v>
+        <v>126</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
@@ -4397,81 +4537,86 @@
       <c r="E40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="G40" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="27">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="J40" s="44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="224">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="80">
       <c r="A41" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>138</v>
+        <v>129</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8" t="s">
-        <v>217</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H41" s="6"/>
       <c r="I41" s="27">
-        <v>44958</v>
+        <v>44969</v>
       </c>
       <c r="J41" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="365">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="128">
       <c r="A42" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>140</v>
+        <v>132</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="27">
-        <v>44942</v>
+        <v>44965</v>
       </c>
       <c r="J42" s="44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="224">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="160">
       <c r="A43" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>144</v>
+        <v>135</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>28</v>
@@ -4480,87 +4625,86 @@
         <v>13</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="27">
-        <v>44937</v>
+        <v>44964</v>
       </c>
       <c r="J43" s="44" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="128">
+    <row r="44" spans="1:12" ht="224">
       <c r="A44" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>147</v>
+        <v>137</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H44" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="I44" s="27">
-        <v>44937</v>
+        <v>44958</v>
       </c>
       <c r="J44" s="44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="409.6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="365">
       <c r="A45" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>152</v>
+        <v>139</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" s="26"/>
+        <v>14</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="G45" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="27">
-        <v>44915</v>
+        <v>44942</v>
       </c>
       <c r="J45" s="44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="128">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="224">
       <c r="A46" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>158</v>
+        <v>143</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>13</v>
@@ -4568,25 +4712,24 @@
       <c r="E46" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>218</v>
-      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" s="6"/>
       <c r="I46" s="27">
-        <v>44910</v>
+        <v>44937</v>
       </c>
       <c r="J46" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="176">
-      <c r="A47" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>161</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="128">
+      <c r="A47" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>147</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>12</v>
@@ -4597,83 +4740,173 @@
       <c r="E47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="27">
+        <v>44937</v>
+      </c>
+      <c r="J47" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="409.6">
+      <c r="A48" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="26"/>
+      <c r="G48" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="27">
+        <v>44915</v>
+      </c>
+      <c r="J48" s="44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="128">
+      <c r="A49" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I49" s="27">
+        <v>44910</v>
+      </c>
+      <c r="J49" s="44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="176">
+      <c r="A50" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="26"/>
+      <c r="G50" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I50" s="27">
         <v>44903</v>
       </c>
-      <c r="J47" s="44" t="s">
+      <c r="J50" s="44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="192">
-      <c r="A48" s="24" t="s">
+    <row r="51" spans="1:10" ht="192">
+      <c r="A51" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B51" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C51" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F51" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G51" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I51" s="27">
         <v>44576</v>
       </c>
-      <c r="J48" s="44" t="s">
+      <c r="J51" s="44" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G27" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
-    <hyperlink ref="G32" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
-    <hyperlink ref="G36" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
-    <hyperlink ref="G33" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
-    <hyperlink ref="G34" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
-    <hyperlink ref="G37" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
-    <hyperlink ref="F38" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
-    <hyperlink ref="F39" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
-    <hyperlink ref="G45" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
-    <hyperlink ref="G47" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
-    <hyperlink ref="J11" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
-    <hyperlink ref="J12" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
-    <hyperlink ref="J13" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
-    <hyperlink ref="J14" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
-    <hyperlink ref="J15" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
-    <hyperlink ref="J16" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
-    <hyperlink ref="J17" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
-    <hyperlink ref="J19" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
-    <hyperlink ref="J18" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
-    <hyperlink ref="J20" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
-    <hyperlink ref="J21" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
-    <hyperlink ref="J22" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
-    <hyperlink ref="J23" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
-    <hyperlink ref="J24" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
-    <hyperlink ref="J25" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
-    <hyperlink ref="J31" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
-    <hyperlink ref="J9" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
-    <hyperlink ref="J8" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
-    <hyperlink ref="J7" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
-    <hyperlink ref="J6" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
-    <hyperlink ref="J5" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
-    <hyperlink ref="J4" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
-    <hyperlink ref="J3" r:id="rId33" xr:uid="{F71A111C-124F-8040-98BC-ACCD7A08BC7E}"/>
-    <hyperlink ref="J2" r:id="rId34" xr:uid="{DDE07BAA-1EF3-344F-810D-62C18F5FBF71}"/>
+    <hyperlink ref="G30" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
+    <hyperlink ref="G35" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
+    <hyperlink ref="G39" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
+    <hyperlink ref="G36" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
+    <hyperlink ref="G37" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
+    <hyperlink ref="G40" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
+    <hyperlink ref="F41" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
+    <hyperlink ref="F42" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
+    <hyperlink ref="G48" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
+    <hyperlink ref="G50" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
+    <hyperlink ref="J14" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
+    <hyperlink ref="J15" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
+    <hyperlink ref="J16" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
+    <hyperlink ref="J17" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
+    <hyperlink ref="J18" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
+    <hyperlink ref="J19" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
+    <hyperlink ref="J20" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
+    <hyperlink ref="J22" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
+    <hyperlink ref="J21" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
+    <hyperlink ref="J23" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
+    <hyperlink ref="J24" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
+    <hyperlink ref="J25" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
+    <hyperlink ref="J26" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
+    <hyperlink ref="J27" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
+    <hyperlink ref="J28" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
+    <hyperlink ref="J34" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
+    <hyperlink ref="J12" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
+    <hyperlink ref="J11" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
+    <hyperlink ref="J10" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
+    <hyperlink ref="J9" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
+    <hyperlink ref="J8" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
+    <hyperlink ref="J7" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
+    <hyperlink ref="J6" r:id="rId33" xr:uid="{F71A111C-124F-8040-98BC-ACCD7A08BC7E}"/>
+    <hyperlink ref="J5" r:id="rId34" xr:uid="{DDE07BAA-1EF3-344F-810D-62C18F5FBF71}"/>
+    <hyperlink ref="J2" r:id="rId35" xr:uid="{006D49EF-9337-3D46-88BE-B99409984A36}"/>
+    <hyperlink ref="J3" r:id="rId36" xr:uid="{D324AAC8-D23E-274A-AA18-FB9DA9CD1775}"/>
+    <hyperlink ref="J4" r:id="rId37" xr:uid="{E28917AF-B882-074B-8896-67537AA52A1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8306E218-A28E-2F40-89E3-4520FE5C29AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783C391D-4361-D54D-AAFB-A8D8F341C7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18920" yWindow="-27500" windowWidth="38860" windowHeight="26240" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="9460" yWindow="-27500" windowWidth="38860" windowHeight="26240" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="262">
   <si>
     <t>Title</t>
   </si>
@@ -2484,7 +2484,24 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    <t xml:space="preserve">停車格畫設 </t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N051</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>#文桃路先行、 #牛角坡路暫緩。</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/627343239370928/?mibextid=uJjRxr</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
     &lt;!-- Flex Container --&gt;
     &lt;div class="flex flex-col md:flex-col rounded-l-xl"&gt;
       &lt;!-- Image --&gt;
@@ -2493,14 +2510,76 @@
       &lt;!-- Content --&gt;
       &lt;div class="p-2 md:p-4"&gt;
         &lt;h3 class=""&gt;
-         龜山區青山路二段科技執法設備停擺近一年❓
-        &lt;/h3&gt;
+         龜山區青山路二段科技執法設備停擺近一年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">❓
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">        &lt;/h3&gt;
         &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
          &lt;a href="https://www.facebook.com/Tyleehao"&gt; 2023/10/30日&lt;/a&gt;
-今日警察局質詢，我質疑青山路二段的科技執法設備是否有正常運作，這路段因為彎道多、坡度大，規定全日禁行6.5噸以上大貨車（有依規定申請通行證除外），市民反應每日都看得到許多大貨車上下山，經追查詢問之下，才發現原來這科技執法設備在111年9月啟用後，在10月就發生故障，一直到112年9月底才修復，維修期居然長達近一年⁉️ &lt;br&gt;
+今日警察局質詢，我質疑青山路二段的科技執法設備是否有正常運作，這路段因為彎道多、坡度大，規定全日禁行6.5噸以上大貨車（有依規定申請通行證除外），市民反應每日都看得到許多大貨車上下山，經追查詢問之下，才發現原來這科技執法設備在111年9月啟用後，在10月就發生故障，一直到112年9月底才修復，維修期居然長達近一年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⁉️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;br&gt;
 這段期間，因為執法設備的不穩定，影響交通違規的取締效率，進而影響市民的交通安全，雖然有派員警進行實地攔查取締，但人工取締的成效遠不及科技執法設備的即時效率啊！難道這科技執法設備是買來擺好看，用來嚇唬人的嗎？
 現在執法設備已恢復正常運作，提醒所有大貨車業者應依規定申請通行，切勿違規行駛禁行路段！&lt;br&gt;
 我希望桃園市政府交通局與警察局應重新巡查所有科技執法設備是否正常運作，交通違規應有效執法取締，還給市民朋友友善的交通安全環境！      &lt;/p&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    &lt;!-- Flex Container --&gt;
+    &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
+      &lt;!-- Image --&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-051.jpeg" alt=""
+        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+      &lt;!-- Content --&gt;
+      &lt;div class="p-2 md:p-4"&gt;
+        &lt;h3 class=""&gt;
+         傾聽在地民意，停車格畫設 #文桃路先行、 #牛角坡路暫緩
+        &lt;/h3&gt;
+        &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
+         &lt;a href="https://www.facebook.com/groups/a7xinlinkou/permalink/627343239370928/?mibextid=uJjRxr"&gt; 2023/11/20日&lt;/a&gt;
+過去吳敦義擔任行政院長時期推出A7重劃區，當時都市計畫規劃不周，沒有規劃停車場、公園、集會所等用地。
+停車空間不足，桃園市整體的大眾運輸環境也尚未成熟（這部分我會另外專篇來寫），現階段僅能朝向路邊規劃，因此有了前陣子交通局規劃的牛角坡路縮減車道畫設車格被抗議乙案。&lt;br&gt;
+今日里長特別邀請各社區們來聽聽大家的想法，還有議員們、交通局等單位共同會勘，考量路幅及車流量，決議先試辦畫設文桃路路邊機車、汽車停車格。
+牛角坡路因為本來就只有四線道，且未來變二道路也是四線道，即將施工完成，不宜縮減車道造成不對稱，因此先暫緩停車格畫設，待觀察文桃路畫設成效後而定。    &lt;/p&gt;
       &lt;/div&gt;
     &lt;/div&gt;
   &lt;/div&gt;</t>
@@ -3262,10 +3341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3319,13 +3398,13 @@
     </row>
     <row r="2" spans="1:12" ht="409.6">
       <c r="A2" s="48" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>257</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>13</v>
@@ -3334,110 +3413,110 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="50">
-        <v>45229</v>
+        <v>45250</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="K2" s="22"/>
+        <v>259</v>
+      </c>
+      <c r="K2" s="51"/>
       <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:12" ht="409.6">
-      <c r="A3" s="48" t="s">
-        <v>251</v>
+      <c r="A3" s="14" t="s">
+        <v>254</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>191</v>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50">
-        <v>45230</v>
+        <v>255</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20">
+        <v>45229</v>
       </c>
       <c r="J3" s="47" t="s">
         <v>244</v>
       </c>
       <c r="K3" s="22"/>
-      <c r="L3" s="51"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="409.6">
-      <c r="A4" s="48" t="s">
-        <v>248</v>
+      <c r="A4" s="14" t="s">
+        <v>251</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
+      <c r="D4" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50">
-        <v>45238</v>
+        <v>252</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20">
+        <v>45230</v>
       </c>
       <c r="J4" s="47" t="s">
         <v>244</v>
       </c>
       <c r="K4" s="22"/>
-      <c r="L4" s="51"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" ht="409.6">
       <c r="A5" s="14" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="20">
-        <v>45247</v>
+        <v>45238</v>
       </c>
       <c r="J5" s="47" t="s">
         <v>244</v>
@@ -3445,12 +3524,12 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:12" ht="335">
+    <row r="6" spans="1:12" ht="409.6">
       <c r="A6" s="14" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>28</v>
@@ -3462,280 +3541,280 @@
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="20">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" ht="335">
       <c r="A7" s="14" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>191</v>
+        <v>235</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="20">
-        <v>45237</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>192</v>
+        <v>45246</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>239</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="380">
+    <row r="8" spans="1:12" ht="335">
       <c r="A8" s="14" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>190</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="20">
-        <v>45238</v>
+        <v>45237</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:12" ht="409.6">
+    <row r="9" spans="1:12" ht="380">
       <c r="A9" s="14" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="20">
         <v>45238</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" ht="178">
+    <row r="10" spans="1:12" ht="409.6">
       <c r="A10" s="14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>180</v>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="20">
-        <v>45233</v>
+        <v>45238</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:12" ht="307">
+    <row r="11" spans="1:12" ht="178">
       <c r="A11" s="14" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>173</v>
+        <v>178</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="20">
         <v>45233</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>176</v>
+      <c r="J11" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="191">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:12" ht="307">
+      <c r="A12" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20">
+        <v>45233</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" ht="191">
+      <c r="A13" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B13" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F13" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I13" s="27">
         <v>45225</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J13" s="28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="169">
-      <c r="A13" s="29" t="s">
+    <row r="14" spans="1:12" ht="169">
+      <c r="A14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="31">
+      <c r="H14" s="2"/>
+      <c r="I14" s="31">
         <v>45204</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="1:12" ht="164">
-      <c r="A14" s="33" t="s">
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="1:12" ht="164">
+      <c r="A15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B15" s="34" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="35">
-        <v>45181</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-    </row>
-    <row r="15" spans="1:12" ht="195">
-      <c r="A15" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -3747,32 +3826,30 @@
         <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>210</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="35">
-        <v>45159</v>
+        <v>45181</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
     </row>
-    <row r="16" spans="1:12" ht="222">
+    <row r="16" spans="1:12" ht="195">
       <c r="A16" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
@@ -3781,32 +3858,32 @@
         <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>230</v>
+        <v>24</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>229</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I16" s="35">
-        <v>45157</v>
+        <v>45159</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
     </row>
-    <row r="17" spans="1:12" ht="224">
+    <row r="17" spans="1:12" ht="222">
       <c r="A17" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>13</v>
@@ -3815,27 +3892,29 @@
         <v>19</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="I17" s="35">
-        <v>45138</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>34</v>
+        <v>45157</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
     </row>
-    <row r="18" spans="1:12" ht="67">
+    <row r="18" spans="1:12" ht="224">
       <c r="A18" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
@@ -3847,59 +3926,59 @@
         <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>220</v>
+        <v>33</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>231</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="35">
-        <v>45103</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>38</v>
+        <v>45138</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="1:12" ht="178">
+    <row r="19" spans="1:12" ht="67">
       <c r="A19" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="35">
-        <v>45092</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>42</v>
+        <v>45103</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
     </row>
-    <row r="20" spans="1:12" ht="149">
+    <row r="20" spans="1:12" ht="178">
       <c r="A20" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>12</v>
@@ -3908,33 +3987,33 @@
         <v>13</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="35">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" spans="1:12" ht="409.6">
+    <row r="21" spans="1:12" ht="149">
       <c r="A21" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>13</v>
@@ -3943,30 +4022,30 @@
         <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="35">
-        <v>45058</v>
+        <v>45071</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12" ht="409.6">
       <c r="A22" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>13</v>
@@ -3975,29 +4054,29 @@
         <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="35">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12" ht="208">
+    <row r="23" spans="1:12" ht="409.6">
       <c r="A23" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -4007,62 +4086,62 @@
         <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="35">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12" ht="409.6">
+    <row r="24" spans="1:12" ht="208">
       <c r="A24" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="35">
-        <v>45029</v>
+        <v>45051</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
     <row r="25" spans="1:12" ht="409.6">
       <c r="A25" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>13</v>
@@ -4071,91 +4150,91 @@
         <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="35">
         <v>45029</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="1:12" ht="272">
+    <row r="26" spans="1:12" ht="409.6">
       <c r="A26" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="35">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:12" ht="115">
+    <row r="27" spans="1:12" ht="272">
       <c r="A27" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>74</v>
+        <v>19</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>70</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="35">
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12" ht="112">
+    <row r="28" spans="1:12" ht="115">
       <c r="A28" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
@@ -4167,29 +4246,29 @@
         <v>14</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="35">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:12" ht="96">
-      <c r="A29" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="16" t="s">
+    <row r="29" spans="1:12" ht="112">
+      <c r="A29" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -4199,27 +4278,27 @@
         <v>14</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="35">
-        <v>45016</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>84</v>
+        <v>45020</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" ht="48">
-      <c r="A30" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>86</v>
+    <row r="30" spans="1:12" ht="96">
+      <c r="A30" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>12</v>
@@ -4228,33 +4307,33 @@
         <v>13</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H30" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="4"/>
       <c r="I30" s="35">
-        <v>45002</v>
-      </c>
-      <c r="J30" s="41" t="s">
-        <v>88</v>
+        <v>45016</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" ht="176">
+    <row r="31" spans="1:12" ht="48">
       <c r="A31" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
@@ -4263,30 +4342,30 @@
         <v>19</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="35">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="J31" s="41" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="1:12" ht="208">
+    <row r="32" spans="1:12" ht="176">
       <c r="A32" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
@@ -4295,29 +4374,29 @@
         <v>19</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="35">
         <v>45001</v>
       </c>
       <c r="J32" s="41" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="1:12" ht="192">
+    <row r="33" spans="1:12" ht="208">
       <c r="A33" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -4327,27 +4406,27 @@
         <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="35">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
     </row>
-    <row r="34" spans="1:12" ht="240">
-      <c r="A34" s="42" t="s">
-        <v>105</v>
+    <row r="34" spans="1:12" ht="192">
+      <c r="A34" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>28</v>
@@ -4358,58 +4437,60 @@
       <c r="E34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>107</v>
+      <c r="F34" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I34" s="27">
-        <v>44999</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>108</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="35">
+        <v>45000</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
     </row>
     <row r="35" spans="1:12" ht="240">
       <c r="A35" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H35" s="6"/>
+        <v>216</v>
+      </c>
       <c r="I35" s="27">
-        <v>44998</v>
-      </c>
-      <c r="J35" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="395">
+        <v>44999</v>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="240">
       <c r="A36" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
@@ -4418,25 +4499,25 @@
         <v>14</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>197</v>
+        <v>111</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="27">
-        <v>44993</v>
+        <v>44998</v>
       </c>
       <c r="J36" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="240">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="395">
       <c r="A37" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>12</v>
@@ -4445,28 +4526,28 @@
         <v>13</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="27">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="J37" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="208">
+    <row r="38" spans="1:12" ht="240">
       <c r="A38" s="42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>12</v>
@@ -4475,58 +4556,58 @@
         <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="27">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="J38" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="112">
+    <row r="39" spans="1:12" ht="208">
       <c r="A39" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="27">
-        <v>44985</v>
+        <v>44991</v>
       </c>
       <c r="J39" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="335">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="112">
       <c r="A40" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>91</v>
@@ -4535,61 +4616,61 @@
         <v>13</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="27">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="J40" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="80">
+    <row r="41" spans="1:12" ht="335">
       <c r="A41" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="27">
-        <v>44969</v>
+        <v>44973</v>
       </c>
       <c r="J41" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="128">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="80">
       <c r="A42" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>13</v>
@@ -4598,56 +4679,58 @@
         <v>19</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="27">
-        <v>44965</v>
+        <v>44969</v>
       </c>
       <c r="J42" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="160">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="128">
       <c r="A43" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="G43" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="27">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="J43" s="44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="224">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="160">
       <c r="A44" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>13</v>
@@ -4656,25 +4739,26 @@
         <v>14</v>
       </c>
       <c r="F44" s="5"/>
-      <c r="G44" s="8" t="s">
-        <v>217</v>
-      </c>
+      <c r="G44" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H44" s="6"/>
       <c r="I44" s="27">
-        <v>44958</v>
+        <v>44964</v>
       </c>
       <c r="J44" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="365">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="224">
       <c r="A45" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>13</v>
@@ -4682,141 +4766,139 @@
       <c r="E45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H45" s="6"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="I45" s="27">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="J45" s="44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="224">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="365">
       <c r="A46" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="G46" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="27">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="J46" s="44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="128">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="224">
       <c r="A47" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H47" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" s="6"/>
       <c r="I47" s="27">
         <v>44937</v>
       </c>
       <c r="J47" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="128">
+      <c r="A48" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="27">
+        <v>44937</v>
+      </c>
+      <c r="J48" s="44" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="409.6">
-      <c r="A48" s="42" t="s">
+    <row r="49" spans="1:10" ht="409.6">
+      <c r="A49" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B49" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C49" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="6" t="s">
+      <c r="F49" s="26"/>
+      <c r="G49" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="27">
+      <c r="H49" s="6"/>
+      <c r="I49" s="27">
         <v>44915</v>
       </c>
-      <c r="J48" s="44" t="s">
+      <c r="J49" s="44" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="128">
-      <c r="A49" s="42" t="s">
+    <row r="50" spans="1:10" ht="128">
+      <c r="A50" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B50" s="34" t="s">
         <v>158</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I49" s="27">
-        <v>44910</v>
-      </c>
-      <c r="J49" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="176">
-      <c r="A50" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>161</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>12</v>
@@ -4825,88 +4907,118 @@
         <v>13</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="26"/>
+        <v>145</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="G50" s="8" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="I50" s="27">
-        <v>44903</v>
+        <v>44910</v>
       </c>
       <c r="J50" s="44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="192">
-      <c r="A51" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>164</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="176">
+      <c r="A51" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="26"/>
+      <c r="G51" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I51" s="27">
+        <v>44903</v>
+      </c>
+      <c r="J51" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="192">
+      <c r="A52" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F52" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G52" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="I51" s="27">
+      <c r="I52" s="27">
         <v>44576</v>
       </c>
-      <c r="J51" s="44" t="s">
+      <c r="J52" s="44" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G30" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
-    <hyperlink ref="G35" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
-    <hyperlink ref="G39" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
-    <hyperlink ref="G36" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
-    <hyperlink ref="G37" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
-    <hyperlink ref="G40" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
-    <hyperlink ref="F41" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
-    <hyperlink ref="F42" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
-    <hyperlink ref="G48" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
-    <hyperlink ref="G50" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
-    <hyperlink ref="J14" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
-    <hyperlink ref="J15" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
-    <hyperlink ref="J16" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
-    <hyperlink ref="J17" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
-    <hyperlink ref="J18" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
-    <hyperlink ref="J19" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
-    <hyperlink ref="J20" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
-    <hyperlink ref="J22" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
-    <hyperlink ref="J21" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
-    <hyperlink ref="J23" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
-    <hyperlink ref="J24" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
-    <hyperlink ref="J25" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
-    <hyperlink ref="J26" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
-    <hyperlink ref="J27" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
-    <hyperlink ref="J28" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
-    <hyperlink ref="J34" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
-    <hyperlink ref="J12" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
-    <hyperlink ref="J11" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
-    <hyperlink ref="J10" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
-    <hyperlink ref="J9" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
-    <hyperlink ref="J8" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
-    <hyperlink ref="J7" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
-    <hyperlink ref="J6" r:id="rId33" xr:uid="{F71A111C-124F-8040-98BC-ACCD7A08BC7E}"/>
-    <hyperlink ref="J5" r:id="rId34" xr:uid="{DDE07BAA-1EF3-344F-810D-62C18F5FBF71}"/>
-    <hyperlink ref="J2" r:id="rId35" xr:uid="{006D49EF-9337-3D46-88BE-B99409984A36}"/>
-    <hyperlink ref="J3" r:id="rId36" xr:uid="{D324AAC8-D23E-274A-AA18-FB9DA9CD1775}"/>
-    <hyperlink ref="J4" r:id="rId37" xr:uid="{E28917AF-B882-074B-8896-67537AA52A1C}"/>
+    <hyperlink ref="G31" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
+    <hyperlink ref="G36" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
+    <hyperlink ref="G40" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
+    <hyperlink ref="G37" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
+    <hyperlink ref="G38" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
+    <hyperlink ref="G41" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
+    <hyperlink ref="F42" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
+    <hyperlink ref="F43" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
+    <hyperlink ref="G49" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
+    <hyperlink ref="G51" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
+    <hyperlink ref="J15" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
+    <hyperlink ref="J16" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
+    <hyperlink ref="J17" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
+    <hyperlink ref="J18" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
+    <hyperlink ref="J19" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
+    <hyperlink ref="J20" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
+    <hyperlink ref="J21" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
+    <hyperlink ref="J23" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
+    <hyperlink ref="J22" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
+    <hyperlink ref="J24" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
+    <hyperlink ref="J25" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
+    <hyperlink ref="J26" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
+    <hyperlink ref="J27" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
+    <hyperlink ref="J28" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
+    <hyperlink ref="J29" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
+    <hyperlink ref="J35" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
+    <hyperlink ref="J13" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
+    <hyperlink ref="J12" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
+    <hyperlink ref="J11" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
+    <hyperlink ref="J10" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
+    <hyperlink ref="J9" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
+    <hyperlink ref="J8" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
+    <hyperlink ref="J7" r:id="rId33" xr:uid="{F71A111C-124F-8040-98BC-ACCD7A08BC7E}"/>
+    <hyperlink ref="J6" r:id="rId34" xr:uid="{DDE07BAA-1EF3-344F-810D-62C18F5FBF71}"/>
+    <hyperlink ref="J3" r:id="rId35" xr:uid="{006D49EF-9337-3D46-88BE-B99409984A36}"/>
+    <hyperlink ref="J4" r:id="rId36" xr:uid="{D324AAC8-D23E-274A-AA18-FB9DA9CD1775}"/>
+    <hyperlink ref="J5" r:id="rId37" xr:uid="{E28917AF-B882-074B-8896-67537AA52A1C}"/>
+    <hyperlink ref="J2" r:id="rId38" xr:uid="{1B091BB1-FB84-F840-9303-106B1E6613E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783C391D-4361-D54D-AAFB-A8D8F341C7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B19825-B0DB-E347-A773-44B049DF8F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9460" yWindow="-27500" windowWidth="38860" windowHeight="26240" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
@@ -2869,7 +2869,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3012,18 +3012,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3344,7 +3332,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H2:H3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3397,7 +3385,7 @@
       <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="409.6">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="14" t="s">
         <v>256</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -3415,18 +3403,18 @@
       <c r="F2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50">
+      <c r="H2" s="19"/>
+      <c r="I2" s="20">
         <v>45250</v>
       </c>
       <c r="J2" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="409.6">
       <c r="A3" s="14" t="s">
